--- a/Otipy/otipy_products.xlsx
+++ b/Otipy/otipy_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="708">
   <si>
     <t>product_name</t>
   </si>
@@ -44,9 +44,15 @@
     <t>Bhindi (Okra)</t>
   </si>
   <si>
+    <t>Potato - Carisma (Aloo) - Lower Glycemix Index</t>
+  </si>
+  <si>
     <t>Sponge Gourd (Tori)</t>
   </si>
   <si>
+    <t>Cauliflower - Medium (Phool Gobhi)</t>
+  </si>
+  <si>
     <t>Beans - French (Phali)</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>Mushroom - Button</t>
   </si>
   <si>
+    <t>Cabbage - Green (Patta Gobhi)</t>
+  </si>
+  <si>
     <t>Bottle Gourd - Long (Lauki)</t>
   </si>
   <si>
@@ -146,12 +155,18 @@
     <t>Ridge Gourd (Tori)</t>
   </si>
   <si>
+    <t>Beans - Cluster (Gawar Phali)</t>
+  </si>
+  <si>
     <t>Cucumber - Desi (Kheera)</t>
   </si>
   <si>
     <t>Organic Cauliflower (Phool Gobhi)</t>
   </si>
   <si>
+    <t>Ratalu</t>
+  </si>
+  <si>
     <t>Organic Ash Gourd (Safed Petha)</t>
   </si>
   <si>
@@ -302,6 +317,9 @@
     <t>Hydroponic Red and Yellow Capsicum</t>
   </si>
   <si>
+    <t>Leek</t>
+  </si>
+  <si>
     <t>Lemon Grass</t>
   </si>
   <si>
@@ -338,6 +356,9 @@
     <t>Organic Lemon (Nimbu)</t>
   </si>
   <si>
+    <t>Organic Pumpkin (Kaddu)</t>
+  </si>
+  <si>
     <t>Hydroponic Red and Yellow Cherry Tomato</t>
   </si>
   <si>
@@ -413,117 +434,102 @@
     <t>Hydroponic Basil (Tulsi)</t>
   </si>
   <si>
+    <t>Hydroponic Celery Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Kale (Tuskan)</t>
+  </si>
+  <si>
+    <t>Hydroponic Leafy Salad Mix</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Butterhead</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Mix Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Red and Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Romaine</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Organic Carrot - Orange (Gajar)</t>
+  </si>
+  <si>
+    <t>Banana Leaf</t>
+  </si>
+  <si>
+    <t>Tadaa Boiled Sweet Corn Cob</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Kernels</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
+  </si>
+  <si>
+    <t>Green Peas (Matar)</t>
+  </si>
+  <si>
+    <t>Ivy Gourd (Kundru)</t>
+  </si>
+  <si>
+    <t>Brinjal - Small (Chu Chu Baingan)</t>
+  </si>
+  <si>
+    <t>Chilli - Green (Achari Mirch)</t>
+  </si>
+  <si>
+    <t>Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Spinach (Paalak)</t>
+  </si>
+  <si>
+    <t>Tomato - Desi (Tamatar)</t>
+  </si>
+  <si>
+    <t>Organic Bottle Gourd - Long (Lauki)</t>
+  </si>
+  <si>
+    <t>Green Peas - Peeled (Matar)</t>
+  </si>
+  <si>
+    <t>Super Sweetcorn Kernels - Peri Peri (Pack of 2 - 145g Each)</t>
+  </si>
+  <si>
     <t>Hydroponic Bok Choy</t>
   </si>
   <si>
-    <t>Hydroponic Celery Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Kale (Tuskan)</t>
-  </si>
-  <si>
-    <t>Hydroponic Leafy Salad Mix</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Butterhead</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Mix Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Red and Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Romaine</t>
-  </si>
-  <si>
-    <t>Thyme</t>
-  </si>
-  <si>
-    <t>Organic Carrot - Orange (Gajar)</t>
-  </si>
-  <si>
-    <t>Banana Leaf</t>
-  </si>
-  <si>
-    <t>Tadaa Boiled Sweet Corn Cob</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Kernels</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
-  </si>
-  <si>
-    <t>Potato - Carisma (Aloo) - Lower Glycemix Index</t>
-  </si>
-  <si>
-    <t>Cauliflower - Medium (Phool Gobhi)</t>
-  </si>
-  <si>
-    <t>Green Peas (Matar)</t>
-  </si>
-  <si>
-    <t>Ivy Gourd (Kundru)</t>
-  </si>
-  <si>
-    <t>Cabbage - Green (Patta Gobhi)</t>
-  </si>
-  <si>
-    <t>Brinjal - Small (Chu Chu Baingan)</t>
-  </si>
-  <si>
-    <t>Chilli - Green (Achari Mirch)</t>
-  </si>
-  <si>
-    <t>Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Spinach (Paalak)</t>
-  </si>
-  <si>
-    <t>Beans - Cluster (Gawar Phali)</t>
-  </si>
-  <si>
-    <t>Ratalu</t>
-  </si>
-  <si>
-    <t>Tomato - Desi (Tamatar)</t>
-  </si>
-  <si>
-    <t>Organic Bottle Gourd - Long (Lauki)</t>
-  </si>
-  <si>
-    <t>Green Peas - Peeled (Matar)</t>
-  </si>
-  <si>
-    <t>Super Sweetcorn Kernels - Peri Peri (Pack of 2 - 145g Each)</t>
-  </si>
-  <si>
-    <t>Leek</t>
-  </si>
-  <si>
-    <t>Organic Pumpkin (Kaddu)</t>
-  </si>
-  <si>
     <t>₹46</t>
   </si>
   <si>
+    <t>₹61</t>
+  </si>
+  <si>
     <t>₹65</t>
   </si>
   <si>
+    <t>₹106</t>
+  </si>
+  <si>
     <t>₹160</t>
   </si>
   <si>
@@ -539,93 +545,96 @@
     <t>₹225</t>
   </si>
   <si>
+    <t>₹72</t>
+  </si>
+  <si>
+    <t>₹64</t>
+  </si>
+  <si>
+    <t>₹59</t>
+  </si>
+  <si>
+    <t>₹70</t>
+  </si>
+  <si>
+    <t>₹43</t>
+  </si>
+  <si>
+    <t>₹184</t>
+  </si>
+  <si>
+    <t>₹66</t>
+  </si>
+  <si>
+    <t>₹370</t>
+  </si>
+  <si>
+    <t>₹60</t>
+  </si>
+  <si>
+    <t>₹42</t>
+  </si>
+  <si>
+    <t>₹45</t>
+  </si>
+  <si>
+    <t>₹94</t>
+  </si>
+  <si>
+    <t>₹92</t>
+  </si>
+  <si>
+    <t>₹80</t>
+  </si>
+  <si>
+    <t>₹100</t>
+  </si>
+  <si>
+    <t>₹220</t>
+  </si>
+  <si>
+    <t>₹307</t>
+  </si>
+  <si>
+    <t>₹32</t>
+  </si>
+  <si>
+    <t>₹30</t>
+  </si>
+  <si>
+    <t>₹37</t>
+  </si>
+  <si>
+    <t>₹14</t>
+  </si>
+  <si>
+    <t>₹74</t>
+  </si>
+  <si>
+    <t>₹67</t>
+  </si>
+  <si>
+    <t>₹165</t>
+  </si>
+  <si>
+    <t>₹54</t>
+  </si>
+  <si>
+    <t>₹25</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>₹200</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
     <t>₹62</t>
   </si>
   <si>
-    <t>₹64</t>
-  </si>
-  <si>
-    <t>₹59</t>
-  </si>
-  <si>
-    <t>₹43</t>
-  </si>
-  <si>
-    <t>₹184</t>
-  </si>
-  <si>
-    <t>₹66</t>
-  </si>
-  <si>
-    <t>₹370</t>
-  </si>
-  <si>
-    <t>₹60</t>
-  </si>
-  <si>
-    <t>₹42</t>
-  </si>
-  <si>
-    <t>₹45</t>
-  </si>
-  <si>
-    <t>₹94</t>
-  </si>
-  <si>
-    <t>₹92</t>
-  </si>
-  <si>
-    <t>₹80</t>
-  </si>
-  <si>
-    <t>₹100</t>
-  </si>
-  <si>
-    <t>₹220</t>
-  </si>
-  <si>
-    <t>₹307</t>
-  </si>
-  <si>
-    <t>₹32</t>
-  </si>
-  <si>
-    <t>₹30</t>
-  </si>
-  <si>
-    <t>₹37</t>
-  </si>
-  <si>
-    <t>₹14</t>
-  </si>
-  <si>
-    <t>₹74</t>
-  </si>
-  <si>
-    <t>₹67</t>
-  </si>
-  <si>
-    <t>₹165</t>
-  </si>
-  <si>
-    <t>₹70</t>
-  </si>
-  <si>
-    <t>₹54</t>
-  </si>
-  <si>
-    <t>₹25</t>
-  </si>
-  <si>
-    <t>₹196</t>
-  </si>
-  <si>
-    <t>₹200</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
     <t>₹101</t>
   </si>
   <si>
@@ -692,6 +701,9 @@
     <t>₹560</t>
   </si>
   <si>
+    <t>₹266</t>
+  </si>
+  <si>
     <t>₹188</t>
   </si>
   <si>
@@ -752,51 +764,39 @@
     <t>₹85</t>
   </si>
   <si>
-    <t>₹750</t>
-  </si>
-  <si>
-    <t>₹106</t>
+    <t>₹950</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>₹61</t>
-  </si>
-  <si>
-    <t>₹86</t>
-  </si>
-  <si>
     <t>₹180</t>
   </si>
   <si>
     <t>₹84</t>
   </si>
   <si>
-    <t>₹104</t>
-  </si>
-  <si>
     <t>₹98</t>
   </si>
   <si>
     <t>₹88</t>
   </si>
   <si>
-    <t>₹266</t>
-  </si>
-  <si>
     <t>₹36/kg</t>
   </si>
   <si>
+    <t>₹51/Pack</t>
+  </si>
+  <si>
     <t>₹48/kg</t>
   </si>
   <si>
+    <t>₹90/kg</t>
+  </si>
+  <si>
     <t>₹120/kg</t>
   </si>
   <si>
-    <t>₹90/kg</t>
-  </si>
-  <si>
     <t>₹45/kg</t>
   </si>
   <si>
@@ -806,12 +806,18 @@
     <t>₹162/kg</t>
   </si>
   <si>
+    <t>₹60/kg</t>
+  </si>
+  <si>
     <t>₹50/kg</t>
   </si>
   <si>
     <t>₹45/Pack</t>
   </si>
   <si>
+    <t>₹53/kg</t>
+  </si>
+  <si>
     <t>₹35/kg</t>
   </si>
   <si>
@@ -830,84 +836,81 @@
     <t>₹80/kg</t>
   </si>
   <si>
+    <t>₹78/kg</t>
+  </si>
+  <si>
+    <t>₹180/kg</t>
+  </si>
+  <si>
+    <t>₹50/Pack</t>
+  </si>
+  <si>
+    <t>₹270/kg</t>
+  </si>
+  <si>
+    <t>₹27/Pack</t>
+  </si>
+  <si>
+    <t>₹26/kg</t>
+  </si>
+  <si>
+    <t>₹25/kg</t>
+  </si>
+  <si>
+    <t>₹9/Pack</t>
+  </si>
+  <si>
+    <t>₹54/kg</t>
+  </si>
+  <si>
+    <t>₹148/kg</t>
+  </si>
+  <si>
+    <t>₹44/kg</t>
+  </si>
+  <si>
+    <t>₹20/Pack</t>
+  </si>
+  <si>
+    <t>₹163/kg</t>
+  </si>
+  <si>
+    <t>₹160/kg</t>
+  </si>
+  <si>
+    <t>₹28/kg</t>
+  </si>
+  <si>
+    <t>₹70/Pack</t>
+  </si>
+  <si>
+    <t>₹51/kg</t>
+  </si>
+  <si>
+    <t>₹33/Pack</t>
+  </si>
+  <si>
+    <t>₹37/Pack</t>
+  </si>
+  <si>
+    <t>₹31/Pack</t>
+  </si>
+  <si>
+    <t>₹730/kg</t>
+  </si>
+  <si>
+    <t>₹120/Pack</t>
+  </si>
+  <si>
+    <t>₹100/kg</t>
+  </si>
+  <si>
+    <t>₹29/Pack</t>
+  </si>
+  <si>
     <t>₹70/kg</t>
   </si>
   <si>
-    <t>₹60/kg</t>
-  </si>
-  <si>
-    <t>₹180/kg</t>
-  </si>
-  <si>
-    <t>₹50/Pack</t>
-  </si>
-  <si>
-    <t>₹270/kg</t>
-  </si>
-  <si>
-    <t>₹27/Pack</t>
-  </si>
-  <si>
-    <t>₹26/kg</t>
-  </si>
-  <si>
-    <t>₹25/kg</t>
-  </si>
-  <si>
-    <t>₹9/Pack</t>
-  </si>
-  <si>
-    <t>₹54/kg</t>
-  </si>
-  <si>
-    <t>₹148/kg</t>
-  </si>
-  <si>
-    <t>₹53/kg</t>
-  </si>
-  <si>
-    <t>₹44/kg</t>
-  </si>
-  <si>
-    <t>₹20/Pack</t>
-  </si>
-  <si>
-    <t>₹163/kg</t>
-  </si>
-  <si>
-    <t>₹160/kg</t>
-  </si>
-  <si>
-    <t>₹70/Pack</t>
-  </si>
-  <si>
-    <t>₹51/kg</t>
-  </si>
-  <si>
-    <t>₹85/kg</t>
-  </si>
-  <si>
-    <t>₹33/Pack</t>
-  </si>
-  <si>
-    <t>₹37/Pack</t>
-  </si>
-  <si>
-    <t>₹31/Pack</t>
-  </si>
-  <si>
-    <t>₹730/kg</t>
-  </si>
-  <si>
-    <t>₹120/Pack</t>
-  </si>
-  <si>
-    <t>₹100/kg</t>
-  </si>
-  <si>
-    <t>₹29/Pack</t>
-  </si>
-  <si>
     <t>₹109/Pack</t>
   </si>
   <si>
@@ -965,9 +968,6 @@
     <t>₹400/kg</t>
   </si>
   <si>
-    <t>₹42/kg</t>
-  </si>
-  <si>
     <t>₹99/Pack</t>
   </si>
   <si>
@@ -977,939 +977,957 @@
     <t>₹583/kg</t>
   </si>
   <si>
+    <t>₹125/Pack</t>
+  </si>
+  <si>
+    <t>₹240/kg</t>
+  </si>
+  <si>
+    <t>₹46/Pack</t>
+  </si>
+  <si>
+    <t>₹60/Pack</t>
+  </si>
+  <si>
+    <t>₹52/Pack</t>
+  </si>
+  <si>
+    <t>₹500/kg</t>
+  </si>
+  <si>
+    <t>₹36/Pack</t>
+  </si>
+  <si>
     <t>₹100/Pack</t>
   </si>
   <si>
-    <t>₹240/kg</t>
-  </si>
-  <si>
-    <t>₹46/Pack</t>
-  </si>
-  <si>
-    <t>₹60/Pack</t>
-  </si>
-  <si>
-    <t>₹52/Pack</t>
-  </si>
-  <si>
-    <t>₹500/kg</t>
-  </si>
-  <si>
-    <t>₹36/Pack</t>
-  </si>
-  <si>
     <t>₹50/pack</t>
   </si>
   <si>
+    <t>₹850/kg</t>
+  </si>
+  <si>
+    <t>₹91/Pack</t>
+  </si>
+  <si>
+    <t>₹81/kg</t>
+  </si>
+  <si>
+    <t>₹73/Pack</t>
+  </si>
+  <si>
+    <t>₹18  500 g</t>
+  </si>
+  <si>
+    <t>₹51  1 kg</t>
+  </si>
+  <si>
+    <t>₹29  600 g</t>
+  </si>
+  <si>
+    <t>₹54  600 g</t>
+  </si>
+  <si>
+    <t>₹30  250 g</t>
+  </si>
+  <si>
+    <t>₹9  100 g</t>
+  </si>
+  <si>
+    <t>₹18  400 g</t>
+  </si>
+  <si>
+    <t>₹19  500 g</t>
+  </si>
+  <si>
+    <t>₹26  160 g</t>
+  </si>
+  <si>
+    <t>₹48  800 g</t>
+  </si>
+  <si>
+    <t>₹35  700 g</t>
+  </si>
+  <si>
+    <t>₹45  200 g</t>
+  </si>
+  <si>
+    <t>₹32  600 g</t>
+  </si>
+  <si>
+    <t>₹21  600 g</t>
+  </si>
+  <si>
+    <t>₹19  130 g</t>
+  </si>
+  <si>
+    <t>₹24  600 g</t>
+  </si>
+  <si>
+    <t>₹170  500 g</t>
+  </si>
+  <si>
+    <t>₹25  500 g</t>
+  </si>
+  <si>
+    <t>₹32  1 kg</t>
+  </si>
+  <si>
+    <t>₹80  2 kg</t>
+  </si>
+  <si>
+    <t>₹56  700 g</t>
+  </si>
+  <si>
+    <t>₹59  750 g</t>
+  </si>
+  <si>
+    <t>₹30  500 g</t>
+  </si>
+  <si>
+    <t>₹40  500 g</t>
+  </si>
+  <si>
+    <t>₹35  1 kg</t>
+  </si>
+  <si>
+    <t>₹45  250 g</t>
+  </si>
+  <si>
+    <t>₹50  1 pc</t>
+  </si>
+  <si>
+    <t>₹108  400 g</t>
+  </si>
+  <si>
+    <t>₹27  150 g</t>
+  </si>
+  <si>
+    <t>₹75  2.8 kg</t>
+  </si>
+  <si>
+    <t>₹25  1 kg</t>
+  </si>
+  <si>
+    <t>₹9  1 Pack</t>
+  </si>
+  <si>
+    <t>₹27  500 g</t>
+  </si>
+  <si>
+    <t>₹15  250 g</t>
+  </si>
+  <si>
+    <t>₹89  600 g</t>
+  </si>
+  <si>
+    <t>₹44  900 g</t>
+  </si>
+  <si>
+    <t>₹129  2.4 kg</t>
+  </si>
+  <si>
+    <t>₹22  500 g</t>
+  </si>
+  <si>
+    <t>₹20  250 g</t>
+  </si>
+  <si>
+    <t>₹49  300 g</t>
+  </si>
+  <si>
+    <t>₹40  250 g</t>
+  </si>
+  <si>
+    <t>₹27  1 pc</t>
+  </si>
+  <si>
+    <t>₹28  1 kg</t>
+  </si>
+  <si>
+    <t>₹70  500 g</t>
+  </si>
+  <si>
+    <t>₹23  450 g</t>
+  </si>
+  <si>
+    <t>₹33  150 g</t>
+  </si>
+  <si>
+    <t>₹33  100 g</t>
+  </si>
+  <si>
+    <t>₹37  150 g</t>
+  </si>
+  <si>
+    <t>₹31  100 g</t>
+  </si>
+  <si>
+    <t>₹73  100 g</t>
+  </si>
+  <si>
+    <t>₹120  100 g</t>
+  </si>
+  <si>
+    <t>₹70  700 g</t>
+  </si>
+  <si>
+    <t>₹32  400 g</t>
+  </si>
+  <si>
+    <t>₹29  50 g</t>
+  </si>
+  <si>
+    <t>₹28  400 g</t>
+  </si>
+  <si>
+    <t>₹109  250 g</t>
+  </si>
+  <si>
+    <t>₹90  250 g</t>
+  </si>
+  <si>
+    <t>₹66  600 g</t>
+  </si>
+  <si>
+    <t>₹109  100 g</t>
+  </si>
+  <si>
+    <t>₹45  150 g</t>
+  </si>
+  <si>
+    <t>₹45  500 g</t>
+  </si>
+  <si>
+    <t>₹40  400 g</t>
+  </si>
+  <si>
+    <t>₹71  600 g</t>
+  </si>
+  <si>
+    <t>₹60  300 g</t>
+  </si>
+  <si>
+    <t>₹45  100 g</t>
+  </si>
+  <si>
+    <t>₹75  300 g</t>
+  </si>
+  <si>
+    <t>₹30  200 g</t>
+  </si>
+  <si>
+    <t>₹199  2 kg</t>
+  </si>
+  <si>
+    <t>₹35  500 g</t>
+  </si>
+  <si>
+    <t>₹120  250 g</t>
+  </si>
+  <si>
+    <t>₹30  150 g</t>
+  </si>
+  <si>
+    <t>₹37  250 g</t>
+  </si>
+  <si>
+    <t>₹71  250 g</t>
+  </si>
+  <si>
+    <t>₹127  300 g</t>
+  </si>
+  <si>
+    <t>₹91  250 g</t>
+  </si>
+  <si>
+    <t>₹109  200 g</t>
+  </si>
+  <si>
+    <t>₹45  300 g</t>
+  </si>
+  <si>
+    <t>₹20  100 g</t>
+  </si>
+  <si>
+    <t>₹55  500 g</t>
+  </si>
+  <si>
+    <t>₹48  600 g</t>
+  </si>
+  <si>
+    <t>₹38  100 g</t>
+  </si>
+  <si>
+    <t>₹27  100 g</t>
+  </si>
+  <si>
+    <t>₹26  100 g</t>
+  </si>
+  <si>
+    <t>₹90  2.2 kg</t>
+  </si>
+  <si>
+    <t>₹70  100 g</t>
+  </si>
+  <si>
+    <t>₹25  200 g</t>
+  </si>
+  <si>
+    <t>₹40  100 g</t>
+  </si>
+  <si>
+    <t>₹28  700 g</t>
+  </si>
+  <si>
+    <t>₹25  250 g</t>
+  </si>
+  <si>
+    <t>₹99  100 g</t>
+  </si>
+  <si>
+    <t>₹120  600 g</t>
+  </si>
+  <si>
+    <t>₹110  550 g</t>
+  </si>
+  <si>
+    <t>₹70  120 g</t>
+  </si>
+  <si>
+    <t>₹125  100 g</t>
+  </si>
+  <si>
+    <t>₹60  250 g</t>
+  </si>
+  <si>
+    <t>₹46  250 g</t>
+  </si>
+  <si>
+    <t>₹50  250 g</t>
+  </si>
+  <si>
+    <t>₹60  150 g</t>
+  </si>
+  <si>
+    <t>₹52  250 g</t>
+  </si>
+  <si>
+    <t>₹50  100 g</t>
+  </si>
+  <si>
+    <t>₹70  250 g</t>
+  </si>
+  <si>
+    <t>₹36  250 g</t>
+  </si>
+  <si>
+    <t>₹100  50 g</t>
+  </si>
+  <si>
+    <t>₹60  200 g</t>
+  </si>
+  <si>
+    <t>₹100  100 g</t>
+  </si>
+  <si>
+    <t>₹60  50 g</t>
+  </si>
+  <si>
+    <t>₹50  50 g</t>
+  </si>
+  <si>
+    <t>₹100  125 g</t>
+  </si>
+  <si>
+    <t>₹120  150 g</t>
+  </si>
+  <si>
+    <t>₹85  100 g</t>
+  </si>
+  <si>
+    <t>₹50  500 g</t>
+  </si>
+  <si>
+    <t>₹91  5 pcs</t>
+  </si>
+  <si>
+    <t>₹89  2 pcs</t>
+  </si>
+  <si>
+    <t>₹69  225 g</t>
+  </si>
+  <si>
+    <t>₹149  725 g</t>
+  </si>
+  <si>
+    <t>₹75  500 g</t>
+  </si>
+  <si>
+    <t>₹12  250 g</t>
+  </si>
+  <si>
+    <t>₹18  350 g</t>
+  </si>
+  <si>
+    <t>₹84  700 g</t>
+  </si>
+  <si>
+    <t>₹13  450 g</t>
+  </si>
+  <si>
+    <t>₹49  600 g</t>
+  </si>
+  <si>
+    <t>₹73  250 g</t>
+  </si>
+  <si>
+    <t>₹60  290 g</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>600 g</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>100 g</t>
+  </si>
+  <si>
+    <t>400 g</t>
+  </si>
+  <si>
+    <t>160 g</t>
+  </si>
+  <si>
+    <t>800 g</t>
+  </si>
+  <si>
+    <t>700 g</t>
+  </si>
+  <si>
+    <t>200 g</t>
+  </si>
+  <si>
+    <t>130 g</t>
+  </si>
+  <si>
+    <t>2 kg</t>
+  </si>
+  <si>
+    <t>750 g</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>150 g</t>
+  </si>
+  <si>
+    <t>2.8 kg</t>
+  </si>
+  <si>
+    <t>1 Pack</t>
+  </si>
+  <si>
+    <t>900 g</t>
+  </si>
+  <si>
+    <t>2.4 kg</t>
+  </si>
+  <si>
+    <t>300 g</t>
+  </si>
+  <si>
+    <t>450 g</t>
+  </si>
+  <si>
+    <t>50 g</t>
+  </si>
+  <si>
+    <t>2.2 kg</t>
+  </si>
+  <si>
+    <t>550 g</t>
+  </si>
+  <si>
+    <t>120 g</t>
+  </si>
+  <si>
+    <t>125 g</t>
+  </si>
+  <si>
+    <t>5 pcs</t>
+  </si>
+  <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
+    <t>225 g</t>
+  </si>
+  <si>
+    <t>725 g</t>
+  </si>
+  <si>
+    <t>350 g</t>
+  </si>
+  <si>
+    <t>290 g</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:12:29</t>
+  </si>
+  <si>
+    <t>Coconut Chunks</t>
+  </si>
+  <si>
+    <t>Apple Royal Gala (Small) - Indian</t>
+  </si>
+  <si>
+    <t>Banana - Medium</t>
+  </si>
+  <si>
+    <t>Banana - Small</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe (Imported)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Fruit Kamalam) - Imported</t>
+  </si>
+  <si>
+    <t>Orange - Green (Small)</t>
+  </si>
+  <si>
+    <t>Orange - Green (Medium)</t>
+  </si>
+  <si>
+    <t>Apple - Small</t>
+  </si>
+  <si>
+    <t>Pomegranate - Medium (Anaar)</t>
+  </si>
+  <si>
+    <t>Dry Dates (Khajoor)</t>
+  </si>
+  <si>
+    <t>Grapes - Imported</t>
+  </si>
+  <si>
+    <t>Pomegranate - Small (Anaar)</t>
+  </si>
+  <si>
+    <t>Sapota - Partial Ripe (Chikoo)</t>
+  </si>
+  <si>
+    <t>Brown Coconut - Medium (Nariyal)</t>
+  </si>
+  <si>
+    <t>Pear - Beauty Red (Imported)</t>
+  </si>
+  <si>
+    <t>Apple - Large</t>
+  </si>
+  <si>
+    <t>Kiwi - Zespri Gold (Imported)</t>
+  </si>
+  <si>
+    <t>Watermelon - Medium (Tarbuj)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green (Small) - Imported</t>
+  </si>
+  <si>
+    <t>Apple Royal Gala - Imported</t>
+  </si>
+  <si>
+    <t>Papaya - Small (Papita)</t>
+  </si>
+  <si>
+    <t>Custard Apple (Sharifa)</t>
+  </si>
+  <si>
+    <t>Pomegranate - Large (Anaar)</t>
+  </si>
+  <si>
+    <t>Kiwi Zespri - Green (Imported)</t>
+  </si>
+  <si>
+    <t>Pineapple - Rani (Whole Ananas)</t>
+  </si>
+  <si>
+    <t>Banana - Economy</t>
+  </si>
+  <si>
+    <t>Blueberry - Imported</t>
+  </si>
+  <si>
+    <t>Pear - Indian (Nakh)</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Sweet Lime - Greenish Yellow (Small)</t>
+  </si>
+  <si>
+    <t>Sweet Lime - Greenish Yellow (Medium)</t>
+  </si>
+  <si>
+    <t>Apple Golden Delicious - Small</t>
+  </si>
+  <si>
+    <t>Grapefruit - Imported</t>
+  </si>
+  <si>
+    <t>Malta (Sweet Orange) - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Granny (Sour Apple) - Indian</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Thai Guava - Pink (Amrudh)</t>
+  </si>
+  <si>
+    <t>Mini Orange (Mandarin) - Imported</t>
+  </si>
+  <si>
+    <t>Rambutan - Imported</t>
+  </si>
+  <si>
+    <t>Mangosteen (Mangustan)</t>
+  </si>
+  <si>
+    <t>Sun Melon (Sarda)</t>
+  </si>
+  <si>
+    <t>Coconut Green (Nariyal) Opener</t>
+  </si>
+  <si>
+    <t>Kimia Dates (Khajoor) - Imported</t>
+  </si>
+  <si>
+    <t>Uncut Coconut - Green (Nariyal Pani)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala (Imported)</t>
+  </si>
+  <si>
+    <t>Pear - Packham (Imported)</t>
+  </si>
+  <si>
+    <t>Apricot (Dried Khubani) - Imported</t>
+  </si>
+  <si>
+    <t>Avocado - Hass (Butter Fruit) - Imported</t>
+  </si>
+  <si>
+    <t>Sweet Tamarind (Imli) - Imported</t>
+  </si>
+  <si>
+    <t>Fruit Gift Box - Pomegranate</t>
+  </si>
+  <si>
+    <t>Tender Coconut (Nariyal) Opener</t>
+  </si>
+  <si>
+    <t>Apple - Medium</t>
+  </si>
+  <si>
+    <t>30 Days Coconut Pack</t>
+  </si>
+  <si>
+    <t>Pear - Babbu Gosha (Indian)</t>
+  </si>
+  <si>
+    <t>Thai Guava (Amrudh)</t>
+  </si>
+  <si>
+    <t>Avocado (Butter Fruit) - Indian</t>
+  </si>
+  <si>
+    <t>Pineapple Opener (Corer and Slicer)</t>
+  </si>
+  <si>
+    <t>Apple - Fuji</t>
+  </si>
+  <si>
+    <t>Pineapple - Peeled (Ananas)</t>
+  </si>
+  <si>
+    <t>₹243</t>
+  </si>
+  <si>
+    <t>₹83</t>
+  </si>
+  <si>
+    <t>₹89</t>
+  </si>
+  <si>
+    <t>₹175</t>
+  </si>
+  <si>
+    <t>₹153</t>
+  </si>
+  <si>
+    <t>₹291</t>
+  </si>
+  <si>
+    <t>₹375</t>
+  </si>
+  <si>
+    <t>₹265</t>
+  </si>
+  <si>
+    <t>₹170</t>
+  </si>
+  <si>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹490</t>
+  </si>
+  <si>
+    <t>₹301</t>
+  </si>
+  <si>
+    <t>₹246</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹154</t>
+  </si>
+  <si>
+    <t>₹384</t>
+  </si>
+  <si>
+    <t>₹73</t>
+  </si>
+  <si>
+    <t>₹241</t>
+  </si>
+  <si>
+    <t>₹353</t>
+  </si>
+  <si>
+    <t>₹284</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹34</t>
+  </si>
+  <si>
+    <t>₹314</t>
+  </si>
+  <si>
+    <t>₹167</t>
+  </si>
+  <si>
+    <t>₹81</t>
+  </si>
+  <si>
+    <t>₹263</t>
+  </si>
+  <si>
+    <t>₹568</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹433</t>
+  </si>
+  <si>
+    <t>₹1012</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹253</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹357</t>
+  </si>
+  <si>
+    <t>₹468</t>
+  </si>
+  <si>
+    <t>₹355</t>
+  </si>
+  <si>
+    <t>₹772</t>
+  </si>
+  <si>
+    <t>₹524</t>
+  </si>
+  <si>
+    <t>₹75</t>
+  </si>
+  <si>
+    <t>₹217</t>
+  </si>
+  <si>
+    <t>₹145</t>
+  </si>
+  <si>
+    <t>₹55/Pack</t>
+  </si>
+  <si>
+    <t>₹220/kg</t>
+  </si>
+  <si>
+    <t>₹65/kg</t>
+  </si>
+  <si>
+    <t>₹61/kg</t>
+  </si>
+  <si>
     <t>₹600/kg</t>
   </si>
   <si>
-    <t>₹91/Pack</t>
-  </si>
-  <si>
-    <t>₹51/Pack</t>
-  </si>
-  <si>
-    <t>₹28/kg</t>
-  </si>
-  <si>
-    <t>₹81/kg</t>
-  </si>
-  <si>
-    <t>₹73/Pack</t>
-  </si>
-  <si>
-    <t>₹18  500 g</t>
-  </si>
-  <si>
-    <t>₹29  600 g</t>
-  </si>
-  <si>
-    <t>₹30  250 g</t>
-  </si>
-  <si>
-    <t>₹9  100 g</t>
-  </si>
-  <si>
-    <t>₹18  400 g</t>
-  </si>
-  <si>
-    <t>₹19  500 g</t>
-  </si>
-  <si>
-    <t>₹26  160 g</t>
-  </si>
-  <si>
-    <t>₹40  800 g</t>
-  </si>
-  <si>
-    <t>₹35  700 g</t>
-  </si>
-  <si>
-    <t>₹45  200 g</t>
-  </si>
-  <si>
-    <t>₹21  600 g</t>
-  </si>
-  <si>
-    <t>₹19  130 g</t>
-  </si>
-  <si>
-    <t>₹24  600 g</t>
-  </si>
-  <si>
-    <t>₹170  500 g</t>
-  </si>
-  <si>
-    <t>₹25  500 g</t>
-  </si>
-  <si>
-    <t>₹32  1 kg</t>
-  </si>
-  <si>
-    <t>₹80  2 kg</t>
-  </si>
-  <si>
-    <t>₹56  700 g</t>
-  </si>
-  <si>
-    <t>₹53  750 g</t>
-  </si>
-  <si>
-    <t>₹30  500 g</t>
-  </si>
-  <si>
-    <t>₹40  500 g</t>
-  </si>
-  <si>
-    <t>₹35  1 kg</t>
-  </si>
-  <si>
-    <t>₹45  250 g</t>
-  </si>
-  <si>
-    <t>₹50  1 pc</t>
-  </si>
-  <si>
-    <t>₹108  400 g</t>
-  </si>
-  <si>
-    <t>₹27  150 g</t>
-  </si>
-  <si>
-    <t>₹75  2.8 kg</t>
-  </si>
-  <si>
-    <t>₹25  1 kg</t>
-  </si>
-  <si>
-    <t>₹9  1 Pack</t>
-  </si>
-  <si>
-    <t>₹27  500 g</t>
-  </si>
-  <si>
-    <t>₹48  800 g</t>
-  </si>
-  <si>
-    <t>₹89  600 g</t>
-  </si>
-  <si>
-    <t>₹129  2.4 kg</t>
-  </si>
-  <si>
-    <t>₹22  500 g</t>
-  </si>
-  <si>
-    <t>₹20  250 g</t>
-  </si>
-  <si>
-    <t>₹49  300 g</t>
-  </si>
-  <si>
-    <t>₹40  250 g</t>
-  </si>
-  <si>
-    <t>₹15  250 g</t>
-  </si>
-  <si>
-    <t>₹27  1 pc</t>
-  </si>
-  <si>
-    <t>₹26  1 kg</t>
-  </si>
-  <si>
-    <t>₹70  500 g</t>
-  </si>
-  <si>
-    <t>₹23  450 g</t>
-  </si>
-  <si>
-    <t>₹51  600 g</t>
-  </si>
-  <si>
-    <t>₹33  150 g</t>
-  </si>
-  <si>
-    <t>₹33  100 g</t>
-  </si>
-  <si>
-    <t>₹37  150 g</t>
-  </si>
-  <si>
-    <t>₹31  100 g</t>
-  </si>
-  <si>
-    <t>₹73  100 g</t>
-  </si>
-  <si>
-    <t>₹120  100 g</t>
-  </si>
-  <si>
-    <t>₹70  700 g</t>
-  </si>
-  <si>
-    <t>₹32  400 g</t>
-  </si>
-  <si>
-    <t>₹29  50 g</t>
-  </si>
-  <si>
-    <t>₹28  400 g</t>
-  </si>
-  <si>
-    <t>₹109  250 g</t>
-  </si>
-  <si>
-    <t>₹90  250 g</t>
-  </si>
-  <si>
-    <t>₹66  600 g</t>
-  </si>
-  <si>
-    <t>₹109  100 g</t>
-  </si>
-  <si>
-    <t>₹45  150 g</t>
-  </si>
-  <si>
-    <t>₹45  500 g</t>
-  </si>
-  <si>
-    <t>₹40  400 g</t>
-  </si>
-  <si>
-    <t>₹71  600 g</t>
-  </si>
-  <si>
-    <t>₹60  300 g</t>
-  </si>
-  <si>
-    <t>₹45  100 g</t>
-  </si>
-  <si>
-    <t>₹75  300 g</t>
-  </si>
-  <si>
-    <t>₹30  200 g</t>
-  </si>
-  <si>
-    <t>₹199  2 kg</t>
-  </si>
-  <si>
-    <t>₹35  500 g</t>
-  </si>
-  <si>
-    <t>₹120  250 g</t>
-  </si>
-  <si>
-    <t>₹37  250 g</t>
-  </si>
-  <si>
-    <t>₹71  250 g</t>
-  </si>
-  <si>
-    <t>₹127  300 g</t>
-  </si>
-  <si>
-    <t>₹91  250 g</t>
-  </si>
-  <si>
-    <t>₹109  200 g</t>
-  </si>
-  <si>
-    <t>₹45  300 g</t>
-  </si>
-  <si>
-    <t>₹20  100 g</t>
-  </si>
-  <si>
-    <t>₹55  500 g</t>
-  </si>
-  <si>
-    <t>₹48  600 g</t>
-  </si>
-  <si>
-    <t>₹38  100 g</t>
-  </si>
-  <si>
-    <t>₹27  100 g</t>
-  </si>
-  <si>
-    <t>₹26  100 g</t>
-  </si>
-  <si>
-    <t>₹70  100 g</t>
-  </si>
-  <si>
-    <t>₹25  200 g</t>
-  </si>
-  <si>
-    <t>₹40  100 g</t>
-  </si>
-  <si>
-    <t>₹30  700 g</t>
-  </si>
-  <si>
-    <t>₹25  250 g</t>
-  </si>
-  <si>
-    <t>₹99  100 g</t>
-  </si>
-  <si>
-    <t>₹120  600 g</t>
-  </si>
-  <si>
-    <t>₹110  550 g</t>
-  </si>
-  <si>
-    <t>₹70  120 g</t>
-  </si>
-  <si>
-    <t>₹100  100 g</t>
-  </si>
-  <si>
-    <t>₹60  250 g</t>
-  </si>
-  <si>
-    <t>₹46  250 g</t>
-  </si>
-  <si>
-    <t>₹50  250 g</t>
-  </si>
-  <si>
-    <t>₹60  150 g</t>
-  </si>
-  <si>
-    <t>₹52  250 g</t>
-  </si>
-  <si>
-    <t>₹50  100 g</t>
-  </si>
-  <si>
-    <t>₹70  250 g</t>
-  </si>
-  <si>
-    <t>₹36  250 g</t>
-  </si>
-  <si>
-    <t>₹100  50 g</t>
-  </si>
-  <si>
-    <t>₹60  200 g</t>
-  </si>
-  <si>
-    <t>₹60  50 g</t>
-  </si>
-  <si>
-    <t>₹50  50 g</t>
-  </si>
-  <si>
-    <t>₹100  125 g</t>
-  </si>
-  <si>
-    <t>₹120  150 g</t>
-  </si>
-  <si>
-    <t>₹60  100 g</t>
-  </si>
-  <si>
-    <t>₹50  500 g</t>
-  </si>
-  <si>
-    <t>₹91  5 pcs</t>
-  </si>
-  <si>
-    <t>₹89  2 pcs</t>
-  </si>
-  <si>
-    <t>₹69  225 g</t>
-  </si>
-  <si>
-    <t>₹149  725 g</t>
-  </si>
-  <si>
-    <t>₹51  1 kg</t>
-  </si>
-  <si>
-    <t>₹42  600 g</t>
-  </si>
-  <si>
-    <t>₹75  500 g</t>
-  </si>
-  <si>
-    <t>₹12  250 g</t>
-  </si>
-  <si>
-    <t>₹32  700 g</t>
-  </si>
-  <si>
-    <t>₹18  350 g</t>
-  </si>
-  <si>
-    <t>₹63  700 g</t>
-  </si>
-  <si>
-    <t>₹44  900 g</t>
-  </si>
-  <si>
-    <t>₹13  450 g</t>
-  </si>
-  <si>
-    <t>₹49  600 g</t>
-  </si>
-  <si>
-    <t>₹73  250 g</t>
-  </si>
-  <si>
-    <t>₹60  290 g</t>
-  </si>
-  <si>
-    <t>₹30  150 g</t>
-  </si>
-  <si>
-    <t>₹90  2.2 kg</t>
-  </si>
-  <si>
-    <t>Vegetables</t>
-  </si>
-  <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>600 g</t>
-  </si>
-  <si>
-    <t>250 g</t>
-  </si>
-  <si>
-    <t>100 g</t>
-  </si>
-  <si>
-    <t>400 g</t>
-  </si>
-  <si>
-    <t>160 g</t>
-  </si>
-  <si>
-    <t>800 g</t>
-  </si>
-  <si>
-    <t>700 g</t>
-  </si>
-  <si>
-    <t>200 g</t>
-  </si>
-  <si>
-    <t>130 g</t>
-  </si>
-  <si>
-    <t>1 kg</t>
-  </si>
-  <si>
-    <t>2 kg</t>
-  </si>
-  <si>
-    <t>750 g</t>
-  </si>
-  <si>
-    <t>1 pc</t>
-  </si>
-  <si>
-    <t>150 g</t>
-  </si>
-  <si>
-    <t>2.8 kg</t>
-  </si>
-  <si>
-    <t>1 Pack</t>
-  </si>
-  <si>
-    <t>2.4 kg</t>
-  </si>
-  <si>
-    <t>300 g</t>
-  </si>
-  <si>
-    <t>450 g</t>
-  </si>
-  <si>
-    <t>50 g</t>
-  </si>
-  <si>
-    <t>550 g</t>
-  </si>
-  <si>
-    <t>120 g</t>
-  </si>
-  <si>
-    <t>125 g</t>
-  </si>
-  <si>
-    <t>5 pcs</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
-  </si>
-  <si>
-    <t>225 g</t>
-  </si>
-  <si>
-    <t>725 g</t>
-  </si>
-  <si>
-    <t>350 g</t>
-  </si>
-  <si>
-    <t>900 g</t>
-  </si>
-  <si>
-    <t>290 g</t>
-  </si>
-  <si>
-    <t>2.2 kg</t>
-  </si>
-  <si>
-    <t>2023-10-02 08:13:01</t>
-  </si>
-  <si>
-    <t>Coconut Chunks</t>
-  </si>
-  <si>
-    <t>Apple Royal Gala (Small) - Indian</t>
-  </si>
-  <si>
-    <t>Banana - Medium</t>
-  </si>
-  <si>
-    <t>Banana - Small</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe (Imported)</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Fruit Kamalam) - Imported</t>
-  </si>
-  <si>
-    <t>Orange - Green (Small)</t>
-  </si>
-  <si>
-    <t>Apple - Small</t>
-  </si>
-  <si>
-    <t>Pomegranate - Medium (Anaar)</t>
-  </si>
-  <si>
-    <t>Pear - Babbu Gosha (Indian)</t>
-  </si>
-  <si>
-    <t>Dry Dates (Khajoor)</t>
-  </si>
-  <si>
-    <t>Grapes - Imported</t>
-  </si>
-  <si>
-    <t>Pomegranate - Small (Anaar)</t>
-  </si>
-  <si>
-    <t>Sapota - Partial Ripe (Chikoo)</t>
-  </si>
-  <si>
-    <t>Brown Coconut - Medium (Nariyal)</t>
-  </si>
-  <si>
-    <t>Thai Guava (Amrudh)</t>
-  </si>
-  <si>
-    <t>Pear - Beauty Red (Imported)</t>
-  </si>
-  <si>
-    <t>Apple - Large</t>
-  </si>
-  <si>
-    <t>Avocado (Butter Fruit) - Indian</t>
-  </si>
-  <si>
-    <t>Kiwi - Zespri Gold (Imported)</t>
-  </si>
-  <si>
-    <t>Watermelon - Medium (Tarbuj)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green (Small) - Imported</t>
-  </si>
-  <si>
-    <t>Papaya - Small (Papita)</t>
-  </si>
-  <si>
-    <t>Custard Apple (Sharifa)</t>
-  </si>
-  <si>
-    <t>Pomegranate - Large (Anaar)</t>
-  </si>
-  <si>
-    <t>Kiwi Zespri - Green (Imported)</t>
-  </si>
-  <si>
-    <t>Pineapple - Rani (Whole Ananas)</t>
-  </si>
-  <si>
-    <t>Blueberry - Imported</t>
-  </si>
-  <si>
-    <t>Pear - Indian (Nakh)</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Sweet Lime - Greenish Yellow (Small)</t>
-  </si>
-  <si>
-    <t>Sweet Lime - Greenish Yellow (Medium)</t>
-  </si>
-  <si>
-    <t>Apple Golden Delicious - Small</t>
-  </si>
-  <si>
-    <t>Grapefruit - Imported</t>
-  </si>
-  <si>
-    <t>Malta (Sweet Orange) - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Granny (Sour Apple) - Indian</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Thai Guava - Pink (Amrudh)</t>
-  </si>
-  <si>
-    <t>Mini Orange (Mandarin) - Imported</t>
-  </si>
-  <si>
-    <t>Rambutan - Imported</t>
-  </si>
-  <si>
-    <t>Mangosteen (Mangustan)</t>
-  </si>
-  <si>
-    <t>Sun Melon (Sarda)</t>
-  </si>
-  <si>
-    <t>Apple - Fuji</t>
-  </si>
-  <si>
-    <t>Coconut Green (Nariyal) Opener</t>
-  </si>
-  <si>
-    <t>Kimia Dates (Khajoor) - Imported</t>
-  </si>
-  <si>
-    <t>Uncut Coconut - Green (Nariyal Pani)</t>
-  </si>
-  <si>
-    <t>Pear - Packham (Imported)</t>
-  </si>
-  <si>
-    <t>Apricot (Dried Khubani) - Imported</t>
-  </si>
-  <si>
-    <t>Avocado - Hass (Butter Fruit) - Imported</t>
-  </si>
-  <si>
-    <t>Sweet Tamarind (Imli) - Imported</t>
-  </si>
-  <si>
-    <t>Pineapple - Peeled (Ananas)</t>
-  </si>
-  <si>
-    <t>Fruit Gift Box - Pomegranate</t>
-  </si>
-  <si>
-    <t>Tender Coconut (Nariyal) Opener</t>
-  </si>
-  <si>
-    <t>30 Days Coconut Pack</t>
-  </si>
-  <si>
-    <t>Orange - Green (Medium)</t>
-  </si>
-  <si>
-    <t>Apple - Medium</t>
-  </si>
-  <si>
-    <t>Banana - Economy</t>
-  </si>
-  <si>
-    <t>Pineapple Opener (Corer and Slicer)</t>
-  </si>
-  <si>
-    <t>₹243</t>
-  </si>
-  <si>
-    <t>₹83</t>
-  </si>
-  <si>
-    <t>₹89</t>
-  </si>
-  <si>
-    <t>₹175</t>
-  </si>
-  <si>
-    <t>₹153</t>
-  </si>
-  <si>
-    <t>₹291</t>
-  </si>
-  <si>
-    <t>₹375</t>
-  </si>
-  <si>
-    <t>₹265</t>
-  </si>
-  <si>
-    <t>₹170</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹217</t>
-  </si>
-  <si>
-    <t>₹490</t>
-  </si>
-  <si>
-    <t>₹301</t>
-  </si>
-  <si>
-    <t>₹246</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹154</t>
-  </si>
-  <si>
-    <t>₹73</t>
-  </si>
-  <si>
-    <t>₹241</t>
-  </si>
-  <si>
-    <t>₹353</t>
-  </si>
-  <si>
-    <t>₹284</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹167</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹81</t>
-  </si>
-  <si>
-    <t>₹263</t>
-  </si>
-  <si>
-    <t>₹568</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹433</t>
-  </si>
-  <si>
-    <t>₹1012</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹253</t>
-  </si>
-  <si>
-    <t>₹468</t>
-  </si>
-  <si>
-    <t>₹355</t>
-  </si>
-  <si>
-    <t>₹704</t>
-  </si>
-  <si>
-    <t>₹145</t>
-  </si>
-  <si>
-    <t>₹524</t>
-  </si>
-  <si>
-    <t>₹75</t>
-  </si>
-  <si>
-    <t>₹255</t>
-  </si>
-  <si>
-    <t>₹34</t>
-  </si>
-  <si>
-    <t>₹55/Pack</t>
-  </si>
-  <si>
-    <t>₹220/kg</t>
-  </si>
-  <si>
-    <t>₹65/kg</t>
-  </si>
-  <si>
-    <t>₹61/kg</t>
-  </si>
-  <si>
     <t>₹160/pc</t>
   </si>
   <si>
     <t>₹130/kg</t>
   </si>
   <si>
+    <t>₹90/Pack</t>
+  </si>
+  <si>
+    <t>₹325/kg</t>
+  </si>
+  <si>
     <t>₹140/kg</t>
   </si>
   <si>
-    <t>₹90/Pack</t>
-  </si>
-  <si>
-    <t>₹325/kg</t>
-  </si>
-  <si>
     <t>₹39/Pack</t>
   </si>
   <si>
+    <t>₹460/kg</t>
+  </si>
+  <si>
+    <t>₹231/Pack</t>
+  </si>
+  <si>
+    <t>₹39/kg</t>
+  </si>
+  <si>
+    <t>₹129/Pack</t>
+  </si>
+  <si>
+    <t>₹330/kg</t>
+  </si>
+  <si>
+    <t>₹216/kg</t>
+  </si>
+  <si>
+    <t>₹320/kg</t>
+  </si>
+  <si>
+    <t>₹267/Pack</t>
+  </si>
+  <si>
+    <t>₹109/kg</t>
+  </si>
+  <si>
+    <t>₹299/Pack</t>
+  </si>
+  <si>
+    <t>₹244/kg</t>
+  </si>
+  <si>
+    <t>₹59/kg</t>
+  </si>
+  <si>
+    <t>₹525/kg</t>
+  </si>
+  <si>
+    <t>₹249/kg</t>
+  </si>
+  <si>
+    <t>₹266/kg</t>
+  </si>
+  <si>
+    <t>₹134/Pack</t>
+  </si>
+  <si>
+    <t>₹178/kg</t>
+  </si>
+  <si>
+    <t>₹383/kg</t>
+  </si>
+  <si>
+    <t>₹952/kg</t>
+  </si>
+  <si>
+    <t>₹1180/kg</t>
+  </si>
+  <si>
+    <t>₹89/kg</t>
+  </si>
+  <si>
+    <t>₹238/Pack</t>
+  </si>
+  <si>
+    <t>₹66/Pack</t>
+  </si>
+  <si>
+    <t>₹331/kg</t>
+  </si>
+  <si>
+    <t>₹330/Pack</t>
+  </si>
+  <si>
+    <t>₹704/kg</t>
+  </si>
+  <si>
+    <t>₹115/Pack</t>
+  </si>
+  <si>
+    <t>₹499/Pack</t>
+  </si>
+  <si>
+    <t>₹149/pc</t>
+  </si>
+  <si>
+    <t>₹170/kg</t>
+  </si>
+  <si>
+    <t>₹63/</t>
+  </si>
+  <si>
     <t>₹188/kg</t>
   </si>
   <si>
-    <t>₹460/kg</t>
-  </si>
-  <si>
     <t>₹430/kg</t>
   </si>
   <si>
-    <t>₹231/Pack</t>
-  </si>
-  <si>
-    <t>₹39/kg</t>
-  </si>
-  <si>
-    <t>₹129/Pack</t>
-  </si>
-  <si>
-    <t>₹216/kg</t>
-  </si>
-  <si>
-    <t>₹320/kg</t>
-  </si>
-  <si>
-    <t>₹267/Pack</t>
-  </si>
-  <si>
-    <t>₹109/kg</t>
-  </si>
-  <si>
-    <t>₹292/Pack</t>
-  </si>
-  <si>
-    <t>₹244/kg</t>
-  </si>
-  <si>
-    <t>₹525/kg</t>
-  </si>
-  <si>
-    <t>₹249/kg</t>
-  </si>
-  <si>
-    <t>₹266/kg</t>
-  </si>
-  <si>
-    <t>₹134/Pack</t>
-  </si>
-  <si>
-    <t>₹178/kg</t>
-  </si>
-  <si>
-    <t>₹383/kg</t>
-  </si>
-  <si>
-    <t>₹952/kg</t>
-  </si>
-  <si>
-    <t>₹1180/kg</t>
-  </si>
-  <si>
-    <t>₹89/kg</t>
-  </si>
-  <si>
-    <t>₹238/Pack</t>
-  </si>
-  <si>
-    <t>₹66/Pack</t>
-  </si>
-  <si>
-    <t>₹330/Pack</t>
-  </si>
-  <si>
-    <t>₹636/kg</t>
-  </si>
-  <si>
-    <t>₹115/Pack</t>
-  </si>
-  <si>
     <t>₹130/pc</t>
   </si>
   <si>
-    <t>₹499/Pack</t>
-  </si>
-  <si>
-    <t>₹149/pc</t>
-  </si>
-  <si>
-    <t>₹63/</t>
-  </si>
-  <si>
-    <t>₹230/kg</t>
-  </si>
-  <si>
     <t>₹55  100 g</t>
   </si>
   <si>
@@ -1928,6 +1946,9 @@
     <t>₹160  350 g</t>
   </si>
   <si>
+    <t>₹78  650 g</t>
+  </si>
+  <si>
     <t>₹85  650 g</t>
   </si>
   <si>
@@ -1946,132 +1967,135 @@
     <t>₹39  1 pc</t>
   </si>
   <si>
+    <t>₹184  400 g</t>
+  </si>
+  <si>
+    <t>₹200  800 g</t>
+  </si>
+  <si>
+    <t>₹231  2 pcs</t>
+  </si>
+  <si>
+    <t>₹117  3 kg</t>
+  </si>
+  <si>
+    <t>₹129  3 pcs</t>
+  </si>
+  <si>
+    <t>₹129  2 pcs</t>
+  </si>
+  <si>
+    <t>₹78  1.2 kg</t>
+  </si>
+  <si>
+    <t>₹130  600 g</t>
+  </si>
+  <si>
+    <t>₹192  600 g</t>
+  </si>
+  <si>
+    <t>₹267  4 pcs</t>
+  </si>
+  <si>
+    <t>₹121  1.1 kg</t>
+  </si>
+  <si>
+    <t>₹29  4 pcs</t>
+  </si>
+  <si>
+    <t>₹299  125 g</t>
+  </si>
+  <si>
+    <t>₹112  700 g</t>
+  </si>
+  <si>
+    <t>₹61  250 g</t>
+  </si>
+  <si>
+    <t>₹33  550 g</t>
+  </si>
+  <si>
+    <t>₹39  600 g</t>
+  </si>
+  <si>
+    <t>₹156  650 g</t>
+  </si>
+  <si>
+    <t>₹184  350 g</t>
+  </si>
+  <si>
+    <t>₹275  1.1 kg</t>
+  </si>
+  <si>
+    <t>₹160  600 g</t>
+  </si>
+  <si>
+    <t>₹134  2 pcs</t>
+  </si>
+  <si>
+    <t>₹125  700 g</t>
+  </si>
+  <si>
+    <t>₹115  300 g</t>
+  </si>
+  <si>
+    <t>₹238  250 g</t>
+  </si>
+  <si>
+    <t>₹295  250 g</t>
+  </si>
+  <si>
+    <t>₹99  1.1 kg</t>
+  </si>
+  <si>
+    <t>₹46  1 pc</t>
+  </si>
+  <si>
+    <t>₹238  450 g</t>
+  </si>
+  <si>
+    <t>₹66  1 pc</t>
+  </si>
+  <si>
+    <t>₹315  950 g</t>
+  </si>
+  <si>
+    <t>₹360  800 g</t>
+  </si>
+  <si>
+    <t>₹330  200 g</t>
+  </si>
+  <si>
+    <t>₹155  220 g</t>
+  </si>
+  <si>
+    <t>₹115  250 g</t>
+  </si>
+  <si>
+    <t>₹499  1 Unit</t>
+  </si>
+  <si>
+    <t>₹149  1 pc</t>
+  </si>
+  <si>
+    <t>₹255  1.5 kg</t>
+  </si>
+  <si>
+    <t>₹63  30 pcs</t>
+  </si>
+  <si>
     <t>₹66  350 g</t>
   </si>
   <si>
-    <t>₹184  400 g</t>
-  </si>
-  <si>
-    <t>₹200  800 g</t>
-  </si>
-  <si>
     <t>₹129  300 g</t>
   </si>
   <si>
-    <t>₹231  2 pcs</t>
-  </si>
-  <si>
-    <t>₹117  3 kg</t>
-  </si>
-  <si>
-    <t>₹129  3 pcs</t>
-  </si>
-  <si>
-    <t>₹78  1.2 kg</t>
-  </si>
-  <si>
-    <t>₹130  600 g</t>
-  </si>
-  <si>
-    <t>₹192  600 g</t>
-  </si>
-  <si>
-    <t>₹267  4 pcs</t>
-  </si>
-  <si>
-    <t>₹121  1.1 kg</t>
-  </si>
-  <si>
-    <t>₹292  125 g</t>
-  </si>
-  <si>
-    <t>₹112  700 g</t>
-  </si>
-  <si>
-    <t>₹61  250 g</t>
-  </si>
-  <si>
-    <t>₹36  600 g</t>
-  </si>
-  <si>
-    <t>₹39  600 g</t>
-  </si>
-  <si>
-    <t>₹156  650 g</t>
-  </si>
-  <si>
-    <t>₹184  350 g</t>
-  </si>
-  <si>
-    <t>₹275  1.1 kg</t>
-  </si>
-  <si>
-    <t>₹160  600 g</t>
-  </si>
-  <si>
-    <t>₹134  2 pcs</t>
-  </si>
-  <si>
-    <t>₹125  700 g</t>
-  </si>
-  <si>
-    <t>₹115  300 g</t>
-  </si>
-  <si>
-    <t>₹238  250 g</t>
-  </si>
-  <si>
-    <t>₹295  250 g</t>
-  </si>
-  <si>
-    <t>₹99  1.1 kg</t>
+    <t>₹95  1 pc</t>
   </si>
   <si>
     <t>₹230  500 g</t>
   </si>
   <si>
-    <t>₹46  1 pc</t>
-  </si>
-  <si>
-    <t>₹238  450 g</t>
-  </si>
-  <si>
-    <t>₹66  1 pc</t>
-  </si>
-  <si>
-    <t>₹360  800 g</t>
-  </si>
-  <si>
-    <t>₹330  200 g</t>
-  </si>
-  <si>
-    <t>₹140  220 g</t>
-  </si>
-  <si>
-    <t>₹115  250 g</t>
-  </si>
-  <si>
-    <t>₹499  1 Unit</t>
-  </si>
-  <si>
-    <t>₹149  1 pc</t>
-  </si>
-  <si>
-    <t>₹63  30 pcs</t>
-  </si>
-  <si>
-    <t>₹78  650 g</t>
-  </si>
-  <si>
-    <t>₹138  600 g</t>
-  </si>
-  <si>
-    <t>₹29  4 pcs</t>
-  </si>
-  <si>
-    <t>₹95  1 pc</t>
-  </si>
-  <si>
     <t>Fruits</t>
   </si>
   <si>
@@ -2093,19 +2117,28 @@
     <t>1.1 kg</t>
   </si>
   <si>
+    <t>950 g</t>
+  </si>
+  <si>
     <t>220 g</t>
   </si>
   <si>
     <t>1 Unit</t>
   </si>
   <si>
+    <t>1.5 kg</t>
+  </si>
+  <si>
     <t>30 pcs</t>
   </si>
   <si>
     <t>2023-09-29 00:31:18</t>
   </si>
   <si>
-    <t>2023-10-02 08:13:31</t>
+    <t>2023-10-04 07:13:01</t>
+  </si>
+  <si>
+    <t>2023-10-04 07:13:02</t>
   </si>
 </sst>
 </file>
@@ -2503,22 +2536,22 @@
         <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2529,22 +2562,22 @@
         <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F3" t="s">
         <v>458</v>
       </c>
-      <c r="F3" t="s">
-        <v>460</v>
-      </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2555,22 +2588,22 @@
         <v>169</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2581,22 +2614,22 @@
         <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2607,22 +2640,22 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2633,22 +2666,22 @@
         <v>172</v>
       </c>
       <c r="C7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2659,22 +2692,22 @@
         <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H8" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2685,22 +2718,22 @@
         <v>174</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2711,22 +2744,22 @@
         <v>175</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F10" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2737,22 +2770,22 @@
         <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2763,22 +2796,22 @@
         <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F12" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2789,22 +2822,22 @@
         <v>178</v>
       </c>
       <c r="C13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2815,22 +2848,22 @@
         <v>179</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2841,22 +2874,22 @@
         <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F15" t="s">
         <v>459</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2867,22 +2900,22 @@
         <v>181</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E16" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F16" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="G16" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2896,19 +2929,19 @@
         <v>269</v>
       </c>
       <c r="D17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F17" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G17" t="s">
         <v>269</v>
       </c>
       <c r="H17" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2919,22 +2952,22 @@
         <v>183</v>
       </c>
       <c r="C18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D18" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E18" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F18" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2945,22 +2978,22 @@
         <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E19" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F19" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H19" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2974,19 +3007,19 @@
         <v>271</v>
       </c>
       <c r="D20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E20" t="s">
+        <v>456</v>
+      </c>
+      <c r="F20" t="s">
         <v>458</v>
-      </c>
-      <c r="F20" t="s">
-        <v>471</v>
       </c>
       <c r="G20" t="s">
         <v>271</v>
       </c>
       <c r="H20" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2997,22 +3030,22 @@
         <v>186</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F21" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3023,22 +3056,22 @@
         <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F22" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3046,25 +3079,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F23" t="s">
         <v>469</v>
       </c>
       <c r="G23" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3072,25 +3105,25 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E24" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="H24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3098,25 +3131,25 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E25" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H25" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3124,25 +3157,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F26" t="s">
         <v>458</v>
       </c>
-      <c r="F26" t="s">
-        <v>463</v>
-      </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H26" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3150,25 +3183,25 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F27" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3176,25 +3209,25 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>275</v>
       </c>
       <c r="D28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F28" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="G28" t="s">
         <v>275</v>
       </c>
       <c r="H28" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3202,25 +3235,25 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D29" t="s">
         <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F29" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3228,25 +3261,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D30" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F30" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H30" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3254,25 +3287,25 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D31" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="E31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F31" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G31" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="H31" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3280,25 +3313,25 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C32" t="s">
         <v>278</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F32" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G32" t="s">
         <v>278</v>
       </c>
       <c r="H32" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3309,22 +3342,22 @@
         <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E33" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H33" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3332,25 +3365,25 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F34" t="s">
         <v>459</v>
       </c>
       <c r="G34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H34" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3358,25 +3391,25 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D35" t="s">
         <v>363</v>
       </c>
       <c r="E35" t="s">
+        <v>456</v>
+      </c>
+      <c r="F35" t="s">
         <v>458</v>
       </c>
-      <c r="F35" t="s">
-        <v>459</v>
-      </c>
       <c r="G35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3384,25 +3417,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D36" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F36" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H36" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3410,25 +3443,25 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C37" t="s">
         <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F37" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="G37" t="s">
         <v>272</v>
       </c>
       <c r="H37" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3436,7 +3469,7 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C38" t="s">
         <v>281</v>
@@ -3445,16 +3478,16 @@
         <v>365</v>
       </c>
       <c r="E38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F38" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G38" t="s">
         <v>281</v>
       </c>
       <c r="H38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3462,25 +3495,25 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E39" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F39" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="H39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3488,25 +3521,25 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F40" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G40" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="H40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3514,25 +3547,25 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D41" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="E41" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F41" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G41" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="H41" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3540,25 +3573,25 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D42" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E42" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F42" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3566,25 +3599,25 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="D43" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E43" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F43" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="G43" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3592,25 +3625,25 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D44" t="s">
         <v>369</v>
       </c>
       <c r="E44" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F44" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G44" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3618,25 +3651,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s">
         <v>370</v>
       </c>
       <c r="E45" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F45" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G45" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H45" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3644,25 +3677,25 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D46" t="s">
         <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="H46" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3670,25 +3703,25 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="D47" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E47" t="s">
+        <v>456</v>
+      </c>
+      <c r="F47" t="s">
         <v>458</v>
       </c>
-      <c r="F47" t="s">
-        <v>469</v>
-      </c>
       <c r="G47" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3696,25 +3729,25 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C48" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D48" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H48" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3725,22 +3758,22 @@
         <v>202</v>
       </c>
       <c r="C49" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E49" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F49" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="G49" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H49" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3748,25 +3781,25 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E50" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F50" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G50" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H50" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3774,25 +3807,25 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="D51" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F51" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="G51" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3800,25 +3833,25 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D52" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E52" t="s">
+        <v>456</v>
+      </c>
+      <c r="F52" t="s">
         <v>458</v>
       </c>
-      <c r="F52" t="s">
-        <v>460</v>
-      </c>
       <c r="G52" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H52" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3826,25 +3859,25 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D53" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="E53" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F53" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H53" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3852,25 +3885,25 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E54" t="s">
+        <v>456</v>
+      </c>
+      <c r="F54" t="s">
         <v>458</v>
       </c>
-      <c r="F54" t="s">
-        <v>473</v>
-      </c>
       <c r="G54" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H54" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3878,25 +3911,25 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D55" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E55" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H55" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3904,25 +3937,25 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D56" t="s">
         <v>377</v>
       </c>
       <c r="E56" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H56" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3930,25 +3963,25 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="E57" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F57" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G57" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="H57" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3956,25 +3989,25 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D58" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="E58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F58" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G58" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="H58" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3982,25 +4015,25 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
         <v>290</v>
       </c>
       <c r="D59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E59" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G59" t="s">
         <v>290</v>
       </c>
       <c r="H59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4008,25 +4041,25 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E60" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H60" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4034,25 +4067,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
         <v>290</v>
       </c>
       <c r="D61" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E61" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G61" t="s">
         <v>290</v>
       </c>
       <c r="H61" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4060,25 +4093,25 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E62" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F62" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G62" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H62" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4086,25 +4119,25 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="E63" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F63" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G63" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="H63" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4112,25 +4145,25 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E64" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F64" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4138,25 +4171,25 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E65" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F65" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H65" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4164,25 +4197,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E66" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F66" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G66" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H66" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4193,22 +4226,22 @@
         <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E67" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F67" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G67" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="H67" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4216,25 +4249,25 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D68" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
       <c r="E68" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F68" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="G68" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="H68" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4242,25 +4275,25 @@
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D69" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E69" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F69" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G69" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="H69" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4268,25 +4301,25 @@
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D70" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E70" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F70" t="s">
         <v>461</v>
       </c>
       <c r="G70" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H70" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4294,25 +4327,25 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D71" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E71" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F71" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G71" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H71" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4320,25 +4353,25 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E72" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F72" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G72" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="H72" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4346,25 +4379,25 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C73" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D73" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E73" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F73" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G73" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H73" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4372,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="D74" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E74" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F74" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="G74" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="H74" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4398,25 +4431,25 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="C75" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="D75" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="E75" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F75" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G75" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H75" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4427,22 +4460,22 @@
         <v>216</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="D76" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E76" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F76" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G76" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="H76" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4450,25 +4483,25 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D77" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="E77" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F77" t="s">
         <v>459</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="H77" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4476,25 +4509,25 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C78" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D78" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E78" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F78" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G78" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H78" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4502,25 +4535,25 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="D79" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E79" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F79" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="G79" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="H79" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4528,25 +4561,25 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D80" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="E80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F80" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="H80" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4554,25 +4587,25 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E81" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F81" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="G81" t="s">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="H81" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4580,25 +4613,25 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="E82" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F82" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G82" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="H82" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4609,22 +4642,22 @@
         <v>220</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D83" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E83" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F83" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G83" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="H83" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4632,25 +4665,25 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D84" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E84" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F84" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G84" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H84" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4658,25 +4691,25 @@
         <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D85" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="E85" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F85" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G85" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="H85" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4684,25 +4717,25 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C86" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E86" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F86" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G86" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H86" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4710,25 +4743,25 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C87" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="D87" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E87" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F87" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G87" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="H87" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4736,25 +4769,25 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D88" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E88" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F88" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="G88" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4762,25 +4795,25 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D89" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E89" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F89" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G89" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="H89" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4788,25 +4821,25 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E90" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F90" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H90" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4814,25 +4847,25 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D91" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F91" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="G91" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="H91" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4840,25 +4873,25 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E92" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F92" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G92" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H92" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4866,25 +4899,25 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="D93" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E93" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F93" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G93" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="H93" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4892,25 +4925,25 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D94" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E94" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F94" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G94" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H94" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4918,25 +4951,25 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="D95" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E95" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F95" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G95" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="H95" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4944,25 +4977,25 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="D96" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E96" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F96" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G96" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H96" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4970,25 +5003,25 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D97" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E97" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F97" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="G97" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="H97" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4996,25 +5029,25 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D98" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E98" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F98" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H98" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5022,25 +5055,25 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c r="C99" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D99" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E99" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F99" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G99" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="H99" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5048,25 +5081,25 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D100" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E100" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F100" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="G100" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H100" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5074,25 +5107,25 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E101" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F101" t="s">
         <v>461</v>
       </c>
       <c r="G101" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="H101" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5100,25 +5133,25 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="C102" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D102" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E102" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F102" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G102" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H102" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5126,25 +5159,25 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="C103" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E103" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F103" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G103" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="H103" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5152,25 +5185,25 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="D104" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F104" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G104" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="H104" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5178,25 +5211,25 @@
         <v>111</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="C105" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="D105" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F105" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G105" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="H105" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5204,25 +5237,25 @@
         <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="C106" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D106" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="E106" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F106" t="s">
         <v>461</v>
       </c>
       <c r="G106" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H106" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5230,25 +5263,25 @@
         <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="C107" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="D107" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E107" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F107" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="G107" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="H107" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5256,25 +5289,25 @@
         <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E108" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H108" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5282,25 +5315,25 @@
         <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="D109" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E109" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G109" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="H109" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5308,25 +5341,25 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C110" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E110" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F110" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G110" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="H110" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5334,25 +5367,25 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="D111" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="E111" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F111" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="G111" t="s">
-        <v>318</v>
+        <v>258</v>
       </c>
       <c r="H111" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5363,22 +5396,22 @@
         <v>240</v>
       </c>
       <c r="C112" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E112" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F112" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="G112" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H112" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5386,25 +5419,25 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D113" t="s">
-        <v>423</v>
+        <v>388</v>
       </c>
       <c r="E113" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F113" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G113" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="H113" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5415,22 +5448,22 @@
         <v>241</v>
       </c>
       <c r="C114" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="D114" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F114" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G114" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="H114" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5441,22 +5474,22 @@
         <v>242</v>
       </c>
       <c r="C115" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E115" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F115" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G115" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="H115" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5464,25 +5497,25 @@
         <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="D116" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E116" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F116" t="s">
         <v>461</v>
       </c>
       <c r="G116" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="H116" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5490,25 +5523,25 @@
         <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="D117" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E117" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F117" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="G117" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="H117" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5516,25 +5549,25 @@
         <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="C118" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D118" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E118" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F118" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="G118" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H118" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5542,25 +5575,25 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D119" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F119" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="G119" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="H119" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5568,25 +5601,25 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D120" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E120" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F120" t="s">
         <v>461</v>
       </c>
       <c r="G120" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="H120" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5594,25 +5627,25 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="C121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D121" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E121" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F121" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G121" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H121" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5620,25 +5653,25 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D122" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E122" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F122" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="G122" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H122" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5646,25 +5679,25 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C123" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="D123" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E123" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F123" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G123" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="H123" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5672,25 +5705,25 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="C124" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D124" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="E124" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F124" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G124" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H124" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5698,25 +5731,25 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C125" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D125" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E125" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F125" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="G125" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H125" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5724,25 +5757,25 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D126" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E126" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F126" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="G126" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H126" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5750,25 +5783,25 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="D127" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E127" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F127" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="G127" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="H127" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5776,25 +5809,25 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D128" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E128" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F128" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="G128" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H128" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5802,25 +5835,25 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C129" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="D129" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="E129" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F129" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G129" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="H129" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5828,25 +5861,25 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="C130" t="s">
         <v>323</v>
       </c>
       <c r="D130" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E130" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F130" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="G130" t="s">
         <v>323</v>
       </c>
       <c r="H130" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5854,25 +5887,25 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C131" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D131" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E131" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F131" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="G131" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H131" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5880,25 +5913,25 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="D132" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E132" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F132" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G132" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="H132" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5906,25 +5939,25 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D133" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="E133" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F133" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="G133" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H133" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5932,25 +5965,25 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="C134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D134" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="E134" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F134" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="G134" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H134" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5958,25 +5991,25 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="D135" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="E135" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F135" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G135" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="H135" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5984,25 +6017,25 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="D136" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E136" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F136" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G136" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="H136" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6010,25 +6043,25 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="C137" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D137" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E137" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F137" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="G137" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H137" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6036,25 +6069,25 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="C138" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="D138" t="s">
         <v>441</v>
       </c>
       <c r="E138" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F138" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G138" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="H138" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6062,25 +6095,25 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="C139" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="D139" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E139" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F139" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G139" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="H139" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6088,25 +6121,25 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="C140" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="D140" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E140" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F140" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="G140" t="s">
-        <v>247</v>
+        <v>323</v>
       </c>
       <c r="H140" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6114,25 +6147,25 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C141" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="D141" t="s">
         <v>442</v>
       </c>
       <c r="E141" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F141" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="G141" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="H141" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6140,25 +6173,25 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C142" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="D142" t="s">
         <v>443</v>
       </c>
       <c r="E142" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F142" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="G142" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="H142" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6166,25 +6199,25 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="C143" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="D143" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E143" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F143" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G143" t="s">
-        <v>247</v>
+        <v>330</v>
       </c>
       <c r="H143" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6192,25 +6225,25 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C144" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="D144" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E144" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F144" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G144" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="H144" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6218,25 +6251,25 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C145" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D145" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E145" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F145" t="s">
-        <v>460</v>
+        <v>485</v>
       </c>
       <c r="G145" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="H145" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6247,22 +6280,22 @@
         <v>250</v>
       </c>
       <c r="C146" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="D146" t="s">
         <v>446</v>
       </c>
       <c r="E146" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F146" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="G146" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="H146" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6270,25 +6303,25 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C147" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D147" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E147" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F147" t="s">
-        <v>461</v>
+        <v>485</v>
       </c>
       <c r="G147" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="H147" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6296,25 +6329,25 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C148" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D148" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E148" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F148" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="G148" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H148" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6322,25 +6355,25 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="C149" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="D149" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E149" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F149" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G149" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="H149" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6348,25 +6381,25 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="D150" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="E150" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F150" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G150" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H150" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6377,22 +6410,22 @@
         <v>252</v>
       </c>
       <c r="C151" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D151" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E151" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F151" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G151" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H151" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6400,25 +6433,25 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C152" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D152" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="E152" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F152" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
       <c r="G152" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="H152" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6426,25 +6459,25 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C153" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D153" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="E153" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F153" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G153" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="H153" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6452,25 +6485,25 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D154" t="s">
         <v>451</v>
       </c>
       <c r="E154" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F154" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="G154" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H154" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6478,25 +6511,25 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="C155" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="D155" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="E155" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F155" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="G155" t="s">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="H155" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6504,25 +6537,25 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C156" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="D156" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E156" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F156" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G156" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="H156" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6530,25 +6563,25 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C157" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D157" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E157" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F157" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G157" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H157" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6556,25 +6589,25 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="C158" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D158" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E158" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F158" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="G158" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="H158" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6582,25 +6615,25 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="C159" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="D159" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E159" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F159" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G159" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="H159" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6608,25 +6641,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="D160" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="E160" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F160" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="G160" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="H160" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -6636,7 +6669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6670,319 +6703,319 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="H2" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s">
         <v>550</v>
       </c>
       <c r="C3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D3" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="E3" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H3" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s">
         <v>551</v>
       </c>
       <c r="C4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D4" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F4" t="s">
         <v>480</v>
       </c>
       <c r="G4" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H4" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s">
         <v>552</v>
       </c>
       <c r="C5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D5" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F5" t="s">
         <v>480</v>
       </c>
       <c r="G5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H5" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>596</v>
       </c>
       <c r="D6" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="E6" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>596</v>
       </c>
       <c r="H6" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B7" t="s">
         <v>553</v>
       </c>
       <c r="C7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="E7" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F7" t="s">
         <v>487</v>
       </c>
       <c r="G7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H7" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>210</v>
       </c>
       <c r="C9" t="s">
-        <v>595</v>
+        <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E9" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F9" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G9" t="s">
-        <v>595</v>
+        <v>259</v>
       </c>
       <c r="H9" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F10" t="s">
-        <v>466</v>
+        <v>694</v>
       </c>
       <c r="G10" t="s">
-        <v>275</v>
+        <v>598</v>
       </c>
       <c r="H10" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>555</v>
       </c>
       <c r="C11" t="s">
-        <v>596</v>
+        <v>276</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>645</v>
       </c>
       <c r="E11" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G11" t="s">
-        <v>596</v>
+        <v>276</v>
       </c>
       <c r="H11" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="D12" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="E12" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G12" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H12" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B13" t="s">
         <v>556</v>
       </c>
       <c r="C13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D13" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="E13" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G13" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H13" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B14" t="s">
         <v>557</v>
@@ -6991,1189 +7024,1241 @@
         <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="E14" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G14" t="s">
         <v>321</v>
       </c>
       <c r="H14" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s">
         <v>558</v>
       </c>
       <c r="C15" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E15" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G15" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H15" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B16" t="s">
         <v>559</v>
       </c>
       <c r="C16" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="D16" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="E16" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G16" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H16" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s">
         <v>560</v>
       </c>
       <c r="C17" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="D17" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="E17" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F17" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="G17" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H17" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B18" t="s">
         <v>561</v>
       </c>
       <c r="C18" t="s">
-        <v>601</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="E18" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F18" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G18" t="s">
-        <v>601</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B19" t="s">
         <v>562</v>
       </c>
       <c r="C19" t="s">
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="D19" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="E19" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F19" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>604</v>
       </c>
       <c r="H19" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>563</v>
       </c>
       <c r="C20" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D20" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="E20" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F20" t="s">
-        <v>477</v>
+        <v>695</v>
       </c>
       <c r="G20" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H20" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B21" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C21" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D21" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="E21" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F21" t="s">
-        <v>484</v>
+        <v>696</v>
       </c>
       <c r="G21" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H21" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D22" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="E22" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F22" t="s">
-        <v>687</v>
+        <v>484</v>
       </c>
       <c r="G22" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H22" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B23" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C23" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D23" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="E23" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F23" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="G23" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="H23" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C24" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="D24" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E24" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F24" t="s">
-        <v>689</v>
+        <v>459</v>
       </c>
       <c r="G24" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="H24" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C25" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D25" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="E25" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G25" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H25" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C26" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D26" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="E26" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F26" t="s">
-        <v>460</v>
+        <v>698</v>
       </c>
       <c r="G26" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H26" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B27" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C27" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="D27" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="E27" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F27" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="G27" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H27" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C28" t="s">
-        <v>609</v>
+        <v>296</v>
       </c>
       <c r="D28" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="E28" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F28" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="G28" t="s">
-        <v>609</v>
+        <v>296</v>
       </c>
       <c r="H28" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="C29" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D29" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="E29" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F29" t="s">
         <v>482</v>
       </c>
       <c r="G29" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="H29" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C30" t="s">
         <v>286</v>
       </c>
       <c r="D30" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="E30" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G30" t="s">
         <v>286</v>
       </c>
       <c r="H30" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B31" t="s">
         <v>569</v>
       </c>
       <c r="C31" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D31" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="E31" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G31" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="H31" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B32" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>614</v>
       </c>
       <c r="D32" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="E32" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F32" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G32" t="s">
-        <v>272</v>
+        <v>614</v>
       </c>
       <c r="H32" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C33" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D33" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="E33" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G33" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H33" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B34" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C34" t="s">
         <v>321</v>
       </c>
       <c r="D34" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="E34" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F34" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G34" t="s">
         <v>321</v>
       </c>
       <c r="H34" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B35" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C35" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D35" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="E35" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F35" t="s">
         <v>487</v>
       </c>
       <c r="G35" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H35" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B36" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C36" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D36" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="E36" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F36" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G36" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H36" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B37" t="s">
         <v>555</v>
       </c>
       <c r="C37" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="D37" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="E37" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F37" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G37" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H37" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B38" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C38" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D38" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="E38" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F38" t="s">
         <v>484</v>
       </c>
       <c r="G38" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H38" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D39" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="E39" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G39" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H39" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B40" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C40" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D40" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E40" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G40" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H40" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B41" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C41" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="D41" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="E41" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G41" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H41" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C42" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="D42" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="E42" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G42" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H42" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B43" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C43" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D43" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="E43" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F43" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G43" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H43" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B44" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="C44" t="s">
-        <v>601</v>
+        <v>250</v>
       </c>
       <c r="D44" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="E44" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F44" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="G44" t="s">
-        <v>601</v>
+        <v>250</v>
       </c>
       <c r="H44" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B45" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C45" t="s">
-        <v>247</v>
+        <v>624</v>
       </c>
       <c r="D45" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="E45" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F45" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G45" t="s">
-        <v>247</v>
+        <v>624</v>
       </c>
       <c r="H45" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B46" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C46" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D46" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="E46" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F46" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G46" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H46" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B47" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="C47" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D47" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="E47" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F47" t="s">
-        <v>472</v>
+        <v>700</v>
       </c>
       <c r="G47" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="H47" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B48" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D48" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E48" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G48" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H48" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B49" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C49" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D49" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="E49" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F49" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G49" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="H49" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B50" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="C50" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D50" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="E50" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F50" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="G50" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="H50" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B51" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C51" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D51" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E51" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F51" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G51" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="H51" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B52" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C52" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D52" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="E52" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F52" t="s">
-        <v>460</v>
+        <v>702</v>
       </c>
       <c r="G52" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="H52" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B53" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C53" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D53" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="E53" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F53" t="s">
-        <v>693</v>
+        <v>470</v>
       </c>
       <c r="G53" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="H53" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B54" t="s">
-        <v>580</v>
+        <v>251</v>
       </c>
       <c r="C54" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D54" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="E54" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
+        <v>703</v>
       </c>
       <c r="G54" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="H54" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B55" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C55" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D55" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="E55" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F55" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="G55" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="H55" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>558</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="D56" t="s">
-        <v>681</v>
+        <v>448</v>
       </c>
       <c r="E56" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F56" t="s">
-        <v>686</v>
+        <v>457</v>
       </c>
       <c r="G56" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="H56" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B57" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C57" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D57" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="E57" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F57" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="G57" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="H57" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B58" t="s">
-        <v>589</v>
+        <v>237</v>
       </c>
       <c r="C58" t="s">
-        <v>296</v>
+        <v>635</v>
       </c>
       <c r="D58" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="E58" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="F58" t="s">
-        <v>690</v>
+        <v>476</v>
       </c>
       <c r="G58" t="s">
-        <v>296</v>
+        <v>635</v>
       </c>
       <c r="H58" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
+        <v>547</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D59" t="s">
+        <v>691</v>
+      </c>
+      <c r="E59" t="s">
+        <v>693</v>
+      </c>
+      <c r="F59" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" t="s">
+        <v>250</v>
+      </c>
+      <c r="H59" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>548</v>
+      </c>
+      <c r="B60" t="s">
+        <v>560</v>
+      </c>
+      <c r="C60" t="s">
+        <v>603</v>
+      </c>
+      <c r="D60" t="s">
+        <v>692</v>
+      </c>
+      <c r="E60" t="s">
+        <v>693</v>
+      </c>
+      <c r="F60" t="s">
+        <v>457</v>
+      </c>
+      <c r="G60" t="s">
+        <v>603</v>
+      </c>
+      <c r="H60" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
         <v>549</v>
       </c>
-      <c r="B59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" t="s">
-        <v>247</v>
-      </c>
-      <c r="D59" t="s">
-        <v>684</v>
-      </c>
-      <c r="E59" t="s">
-        <v>685</v>
-      </c>
-      <c r="F59" t="s">
-        <v>472</v>
-      </c>
-      <c r="G59" t="s">
-        <v>247</v>
-      </c>
-      <c r="H59" t="s">
-        <v>696</v>
+      <c r="B61" t="s">
+        <v>591</v>
+      </c>
+      <c r="C61" t="s">
+        <v>636</v>
+      </c>
+      <c r="D61" t="s">
+        <v>657</v>
+      </c>
+      <c r="E61" t="s">
+        <v>693</v>
+      </c>
+      <c r="F61" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" t="s">
+        <v>636</v>
+      </c>
+      <c r="H61" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>

--- a/Otipy/otipy_products.xlsx
+++ b/Otipy/otipy_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="734">
   <si>
     <t>product_name</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Ivy Gourd (Kundru)</t>
   </si>
   <si>
+    <t>Radish (With Leaves)</t>
+  </si>
+  <si>
     <t>Beans - French (Phali)</t>
   </si>
   <si>
@@ -146,399 +149,399 @@
     <t>Lotus Stem (Kamal Kakri)</t>
   </si>
   <si>
+    <t>Capsicum - Yellow (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Sprouts - Bajra (Millets)</t>
+  </si>
+  <si>
+    <t>Capsicum - Red (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Spinach (Paalak)</t>
+  </si>
+  <si>
+    <t>Sprouts - Kabuli Chana</t>
+  </si>
+  <si>
+    <t>Raw Papaya (Kacha Papita)</t>
+  </si>
+  <si>
+    <t>Cucumber - Green</t>
+  </si>
+  <si>
+    <t>Potato (Aloo)</t>
+  </si>
+  <si>
+    <t>Curry Leaves (Kadi Patta)</t>
+  </si>
+  <si>
+    <t>Tinda (Indian Squash)</t>
+  </si>
+  <si>
+    <t>Kachalu</t>
+  </si>
+  <si>
+    <t>Ridge Gourd (Tori)</t>
+  </si>
+  <si>
+    <t>Beans - Cluster (Gawar Phali)</t>
+  </si>
+  <si>
+    <t>Cucumber - Desi (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Cauliflower (Phool Gobhi)</t>
+  </si>
+  <si>
+    <t>Organic Ash Gourd (Safed Petha)</t>
+  </si>
+  <si>
+    <t>Organic Potato (Aloo)</t>
+  </si>
+  <si>
+    <t>Baby Carrot - Orange (Gajar)</t>
+  </si>
+  <si>
+    <t>Baby Potato (Aloo)</t>
+  </si>
+  <si>
+    <t>Snake Gourd (Chichinda)</t>
+  </si>
+  <si>
+    <t>Organic Beans - French (Phali)</t>
+  </si>
+  <si>
+    <t>Gooseberry (Amla)</t>
+  </si>
+  <si>
+    <t>Beans - Long (Sem Papda)</t>
+  </si>
+  <si>
+    <t>Tomato - Desi (Tamatar)</t>
+  </si>
+  <si>
+    <t>Betel Leaf (Paan Patta)</t>
+  </si>
+  <si>
+    <t>Durva Grass (Doob Grass)</t>
+  </si>
+  <si>
+    <t>Potato - Neelkanth (Sugar free Aloo)</t>
+  </si>
+  <si>
+    <t>Sweet Corn Cob (Bhutta)</t>
+  </si>
+  <si>
+    <t>Tomato - Hybrid (Tamatar)</t>
+  </si>
+  <si>
+    <t>Hydroponic Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Sweet Potato (Shakarkand)</t>
+  </si>
+  <si>
+    <t>Organic Tomato (Tamatar)</t>
+  </si>
+  <si>
+    <t>Yam (Jimikand)</t>
+  </si>
+  <si>
+    <t>Organic Turmeric - Raw (Haldi)</t>
+  </si>
+  <si>
+    <t>Sprouts - Chana</t>
+  </si>
+  <si>
+    <t>Sprouts - Kulthi</t>
+  </si>
+  <si>
+    <t>Sprouts - Lobia</t>
+  </si>
+  <si>
+    <t>Sprouts - Methi</t>
+  </si>
+  <si>
+    <t>Sprouts - Mix</t>
+  </si>
+  <si>
+    <t>Sprouts - Moong</t>
+  </si>
+  <si>
+    <t>Sprouts - Wheat</t>
+  </si>
+  <si>
+    <t>Sprouts - Moth</t>
+  </si>
+  <si>
+    <t>Coriander Leaves - Without Roots (Dhaniya)</t>
+  </si>
+  <si>
+    <t>Brinjal - Long (Purple Baingan)</t>
+  </si>
+  <si>
+    <t>Hydroponic Caesar Mix Salad</t>
+  </si>
+  <si>
+    <t>Hydroponic Leafy Salad (Seeds Dressing)</t>
+  </si>
+  <si>
+    <t>Organic Brinjal - Round (Baingan)</t>
+  </si>
+  <si>
+    <t>Organic Brinjal - Small (Chu Chu Baingan)</t>
+  </si>
+  <si>
+    <t>Wheat Grass</t>
+  </si>
+  <si>
+    <t>Organic Bhindi (Okra)</t>
+  </si>
+  <si>
+    <t>Ameranthus Microgreens</t>
+  </si>
+  <si>
+    <t>Hydroponic Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Arbi (Colocasia)</t>
+  </si>
+  <si>
+    <t>Asparagus (Shatavari)</t>
+  </si>
+  <si>
+    <t>Baby Corn</t>
+  </si>
+  <si>
+    <t>Beetroot (Chukandar)</t>
+  </si>
+  <si>
+    <t>Organic Beetroot (Chukandar)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Karela)</t>
+  </si>
+  <si>
+    <t>Organic Bitter Gourd (Karela)</t>
+  </si>
+  <si>
+    <t>Organic Bottle Gourd - Long (Lauki)</t>
+  </si>
+  <si>
+    <t>Cabbage - Red (Patta Gobhi)</t>
+  </si>
+  <si>
+    <t>Garlic (Lehsun)</t>
+  </si>
+  <si>
+    <t>Garlic Cloves - Peeled (Lehsun)</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Tomato - Cherry (Tamatar)</t>
+  </si>
+  <si>
+    <t>Chinese Cabbage</t>
+  </si>
+  <si>
+    <t>Chiya Seeds Microgreens</t>
+  </si>
+  <si>
+    <t>Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Hydroponic Red and Yellow Capsicum</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Lettuce - Iceberg</t>
+  </si>
+  <si>
+    <t>Lettuce - Red (Lollo Rosso)</t>
+  </si>
+  <si>
+    <t>Mongra</t>
+  </si>
+  <si>
+    <t>Mustard Microgreens</t>
+  </si>
+  <si>
+    <t>Organic Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Chilli - Hybrid (Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Cucumber - Hybrid (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Garlic (Lehsun)</t>
+  </si>
+  <si>
+    <t>Organic Ginger (Adrak)</t>
+  </si>
+  <si>
+    <t>Organic Lemon (Nimbu)</t>
+  </si>
+  <si>
+    <t>Organic Pumpkin (Kaddu)</t>
+  </si>
+  <si>
+    <t>Hydroponic Red and Yellow Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Hydroponic Red Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Sweet Corn - Pellets</t>
+  </si>
+  <si>
+    <t>Water Chestnut (Singhara)</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Radish Microgreens</t>
+  </si>
+  <si>
+    <t>Banana - Raw</t>
+  </si>
+  <si>
+    <t>Turmeric - Raw (Haldi)</t>
+  </si>
+  <si>
+    <t>Ready to Eat Salad</t>
+  </si>
+  <si>
+    <t>Sarson Leaves</t>
+  </si>
+  <si>
+    <t>Zucchini - Green</t>
+  </si>
+  <si>
+    <t>Zucchini - Yellow</t>
+  </si>
+  <si>
+    <t>Thai Ginger (Adrak)</t>
+  </si>
+  <si>
+    <t>Thai Snow Peas</t>
+  </si>
+  <si>
+    <t>Cut Ash Gourd (Safed Petha)</t>
+  </si>
+  <si>
+    <t>Cut Beetroot Julienne (Thin Stripes)</t>
+  </si>
+  <si>
+    <t>Cut Carrot - Julienne (Thin Stripes)</t>
+  </si>
+  <si>
+    <t>Cut Drumstick (Moringa)</t>
+  </si>
+  <si>
+    <t>Cut French Beans</t>
+  </si>
+  <si>
+    <t>Cut Fresh Mint (Without Root)</t>
+  </si>
+  <si>
+    <t>Cut Pulao Mix Vegetables</t>
+  </si>
+  <si>
+    <t>Cut Pumpkin (Kaddu)</t>
+  </si>
+  <si>
+    <t>Hydroponic Arugula (Gargeer)</t>
+  </si>
+  <si>
+    <t>Hydroponic Baby Corn</t>
+  </si>
+  <si>
+    <t>Hydroponic Baby Spinach (Paalak)</t>
+  </si>
+  <si>
+    <t>Hydroponic Basil (Tulsi)</t>
+  </si>
+  <si>
+    <t>Hydroponic Bok Choy</t>
+  </si>
+  <si>
+    <t>Hydroponic Celery Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Kale (Tuskan)</t>
+  </si>
+  <si>
+    <t>Hydroponic Leafy Salad Mix</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Butterhead</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Mix Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Red and Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Romaine</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Organic Carrot - Orange (Gajar)</t>
+  </si>
+  <si>
+    <t>Banana Leaf</t>
+  </si>
+  <si>
+    <t>Tadaa Boiled Sweet Corn Cob</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Kernels</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
+  </si>
+  <si>
     <t>Banana Flower</t>
   </si>
   <si>
-    <t>Capsicum - Yellow (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Sprouts - Bajra (Millets)</t>
-  </si>
-  <si>
-    <t>Capsicum - Red (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Spinach (Paalak)</t>
-  </si>
-  <si>
-    <t>Sprouts - Kabuli Chana</t>
-  </si>
-  <si>
-    <t>Raw Papaya (Kacha Papita)</t>
-  </si>
-  <si>
-    <t>Cucumber - Green</t>
-  </si>
-  <si>
-    <t>Potato (Aloo)</t>
-  </si>
-  <si>
-    <t>Curry Leaves (Kadi Patta)</t>
-  </si>
-  <si>
-    <t>Tinda (Indian Squash)</t>
-  </si>
-  <si>
-    <t>Kachalu</t>
-  </si>
-  <si>
-    <t>Ridge Gourd (Tori)</t>
-  </si>
-  <si>
-    <t>Beans - Cluster (Gawar Phali)</t>
-  </si>
-  <si>
-    <t>Cucumber - Desi (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Cauliflower (Phool Gobhi)</t>
-  </si>
-  <si>
-    <t>Organic Ash Gourd (Safed Petha)</t>
-  </si>
-  <si>
-    <t>Organic Potato (Aloo)</t>
-  </si>
-  <si>
-    <t>Baby Carrot - Orange (Gajar)</t>
-  </si>
-  <si>
-    <t>Baby Potato (Aloo)</t>
-  </si>
-  <si>
-    <t>Snake Gourd (Chichinda)</t>
-  </si>
-  <si>
-    <t>Organic Beans - French (Phali)</t>
-  </si>
-  <si>
-    <t>Gooseberry (Amla)</t>
-  </si>
-  <si>
-    <t>Beans - Long (Sem Papda)</t>
-  </si>
-  <si>
-    <t>Betel Leaf (Paan Patta)</t>
-  </si>
-  <si>
-    <t>Durva Grass (Doob Grass)</t>
-  </si>
-  <si>
-    <t>Potato - Neelkanth (Sugar free Aloo)</t>
-  </si>
-  <si>
-    <t>Sweet Corn Cob (Bhutta)</t>
-  </si>
-  <si>
-    <t>Tomato - Hybrid (Tamatar)</t>
-  </si>
-  <si>
-    <t>Hydroponic Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Sweet Potato (Shakarkand)</t>
-  </si>
-  <si>
-    <t>Organic Tomato (Tamatar)</t>
-  </si>
-  <si>
-    <t>Yam (Jimikand)</t>
-  </si>
-  <si>
-    <t>Organic Turmeric - Raw (Haldi)</t>
-  </si>
-  <si>
-    <t>Sprouts - Chana</t>
-  </si>
-  <si>
-    <t>Sprouts - Kulthi</t>
-  </si>
-  <si>
-    <t>Sprouts - Lobia</t>
-  </si>
-  <si>
-    <t>Sprouts - Methi</t>
-  </si>
-  <si>
-    <t>Sprouts - Mix</t>
-  </si>
-  <si>
-    <t>Sprouts - Moong</t>
-  </si>
-  <si>
-    <t>Sprouts - Wheat</t>
-  </si>
-  <si>
-    <t>Sprouts - Moth</t>
-  </si>
-  <si>
-    <t>Coriander Leaves - Without Roots (Dhaniya)</t>
-  </si>
-  <si>
-    <t>Brinjal - Long (Purple Baingan)</t>
-  </si>
-  <si>
-    <t>Hydroponic Caesar Mix Salad</t>
-  </si>
-  <si>
-    <t>Hydroponic Leafy Salad (Seeds Dressing)</t>
-  </si>
-  <si>
-    <t>Organic Brinjal - Round (Baingan)</t>
-  </si>
-  <si>
-    <t>Organic Brinjal - Small (Chu Chu Baingan)</t>
-  </si>
-  <si>
-    <t>Wheat Grass</t>
-  </si>
-  <si>
-    <t>Organic Bhindi (Okra)</t>
-  </si>
-  <si>
-    <t>Ameranthus Microgreens</t>
-  </si>
-  <si>
-    <t>Hydroponic Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Arbi (Colocasia)</t>
-  </si>
-  <si>
-    <t>Asparagus (Shatavari)</t>
-  </si>
-  <si>
-    <t>Baby Corn</t>
-  </si>
-  <si>
-    <t>Beetroot (Chukandar)</t>
-  </si>
-  <si>
-    <t>Organic Beetroot (Chukandar)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Karela)</t>
-  </si>
-  <si>
-    <t>Organic Bitter Gourd (Karela)</t>
-  </si>
-  <si>
-    <t>Organic Bottle Gourd - Long (Lauki)</t>
-  </si>
-  <si>
-    <t>Cabbage - Red (Patta Gobhi)</t>
-  </si>
-  <si>
-    <t>Garlic (Lehsun)</t>
-  </si>
-  <si>
-    <t>Garlic Cloves - Peeled (Lehsun)</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Tomato - Cherry (Tamatar)</t>
-  </si>
-  <si>
-    <t>Chinese Cabbage</t>
-  </si>
-  <si>
-    <t>Chiya Seeds Microgreens</t>
-  </si>
-  <si>
-    <t>Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Hydroponic Red and Yellow Capsicum</t>
-  </si>
-  <si>
-    <t>Leek</t>
-  </si>
-  <si>
-    <t>Lemon Grass</t>
-  </si>
-  <si>
-    <t>Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Lettuce - Iceberg</t>
-  </si>
-  <si>
-    <t>Lettuce - Red (Lollo Rosso)</t>
-  </si>
-  <si>
-    <t>Mongra</t>
-  </si>
-  <si>
-    <t>Mustard Microgreens</t>
-  </si>
-  <si>
-    <t>Organic Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Chilli - Hybrid (Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Cucumber - Hybrid (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Garlic (Lehsun)</t>
-  </si>
-  <si>
-    <t>Organic Ginger (Adrak)</t>
-  </si>
-  <si>
-    <t>Organic Lemon (Nimbu)</t>
-  </si>
-  <si>
-    <t>Organic Pumpkin (Kaddu)</t>
-  </si>
-  <si>
-    <t>Hydroponic Red and Yellow Cherry Tomato</t>
-  </si>
-  <si>
-    <t>Hydroponic Red Cherry Tomato</t>
-  </si>
-  <si>
-    <t>Sweet Corn - Pellets</t>
-  </si>
-  <si>
-    <t>Water Chestnut (Singhara)</t>
-  </si>
-  <si>
-    <t>Parsley</t>
-  </si>
-  <si>
-    <t>Radish Microgreens</t>
-  </si>
-  <si>
-    <t>Banana - Raw</t>
-  </si>
-  <si>
-    <t>Turmeric - Raw (Haldi)</t>
-  </si>
-  <si>
-    <t>Ready to Eat Salad</t>
-  </si>
-  <si>
-    <t>Sarson Leaves</t>
-  </si>
-  <si>
-    <t>Zucchini - Green</t>
-  </si>
-  <si>
-    <t>Zucchini - Yellow</t>
-  </si>
-  <si>
-    <t>Thai Snow Peas</t>
-  </si>
-  <si>
-    <t>Cut Ash Gourd (Safed Petha)</t>
-  </si>
-  <si>
-    <t>Cut Beetroot Julienne (Thin Stripes)</t>
-  </si>
-  <si>
-    <t>Cut Carrot - Julienne (Thin Stripes)</t>
-  </si>
-  <si>
-    <t>Cut Drumstick (Moringa)</t>
-  </si>
-  <si>
-    <t>Cut French Beans</t>
-  </si>
-  <si>
-    <t>Cut Fresh Mint (Without Root)</t>
-  </si>
-  <si>
-    <t>Cut Pulao Mix Vegetables</t>
-  </si>
-  <si>
-    <t>Cut Pumpkin (Kaddu)</t>
-  </si>
-  <si>
-    <t>Hydroponic Baby Spinach (Paalak)</t>
-  </si>
-  <si>
-    <t>Hydroponic Basil (Tulsi)</t>
-  </si>
-  <si>
-    <t>Hydroponic Bok Choy</t>
-  </si>
-  <si>
-    <t>Hydroponic Celery Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Kale (Tuskan)</t>
-  </si>
-  <si>
-    <t>Hydroponic Leafy Salad Mix</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Butterhead</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Mix Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Red and Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Romaine</t>
-  </si>
-  <si>
-    <t>Thyme</t>
-  </si>
-  <si>
-    <t>Organic Carrot - Orange (Gajar)</t>
-  </si>
-  <si>
-    <t>Banana Leaf</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Kernels</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
-  </si>
-  <si>
-    <t>Tomato - Desi (Tamatar)</t>
-  </si>
-  <si>
     <t>Organic Cabbage - Green (Patta Gobhi)</t>
   </si>
   <si>
     <t>Green Peas - Peeled (Matar)</t>
   </si>
   <si>
-    <t>Thai Ginger (Adrak)</t>
-  </si>
-  <si>
-    <t>Hydroponic Arugula (Gargeer)</t>
-  </si>
-  <si>
-    <t>Hydroponic Baby Corn</t>
-  </si>
-  <si>
-    <t>Tadaa Boiled Sweet Corn Cob</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
-  </si>
-  <si>
     <t>₹65</t>
   </si>
   <si>
@@ -572,6 +575,9 @@
     <t>₹80</t>
   </si>
   <si>
+    <t>₹50</t>
+  </si>
+  <si>
     <t>₹120</t>
   </si>
   <si>
@@ -653,9 +659,6 @@
     <t>₹55</t>
   </si>
   <si>
-    <t>₹50</t>
-  </si>
-  <si>
     <t>₹25</t>
   </si>
   <si>
@@ -782,6 +785,9 @@
     <t>₹260</t>
   </si>
   <si>
+    <t>₹625</t>
+  </si>
+  <si>
     <t>₹280</t>
   </si>
   <si>
@@ -803,9 +809,6 @@
     <t>₹88</t>
   </si>
   <si>
-    <t>₹625</t>
-  </si>
-  <si>
     <t>₹51/kg</t>
   </si>
   <si>
@@ -836,129 +839,132 @@
     <t>₹60/kg</t>
   </si>
   <si>
+    <t>₹240/kg</t>
+  </si>
+  <si>
+    <t>₹112/kg</t>
+  </si>
+  <si>
+    <t>₹45/kg</t>
+  </si>
+  <si>
+    <t>₹46/kg</t>
+  </si>
+  <si>
+    <t>₹162/kg</t>
+  </si>
+  <si>
+    <t>₹50/Pack</t>
+  </si>
+  <si>
+    <t>₹35/kg</t>
+  </si>
+  <si>
+    <t>₹146/kg</t>
+  </si>
+  <si>
+    <t>₹280/kg</t>
+  </si>
+  <si>
+    <t>₹32/kg</t>
+  </si>
+  <si>
+    <t>₹80/kg</t>
+  </si>
+  <si>
+    <t>₹180/kg</t>
+  </si>
+  <si>
+    <t>₹27/Pack</t>
+  </si>
+  <si>
+    <t>₹56/kg</t>
+  </si>
+  <si>
+    <t>₹25/kg</t>
+  </si>
+  <si>
+    <t>₹9/Pack</t>
+  </si>
+  <si>
+    <t>₹70/kg</t>
+  </si>
+  <si>
+    <t>₹54/kg</t>
+  </si>
+  <si>
+    <t>₹150/kg</t>
+  </si>
+  <si>
+    <t>₹41/kg</t>
+  </si>
+  <si>
+    <t>₹20/Pack</t>
+  </si>
+  <si>
+    <t>₹170/kg</t>
+  </si>
+  <si>
+    <t>₹120/kg</t>
+  </si>
+  <si>
+    <t>₹30/kg</t>
+  </si>
+  <si>
+    <t>₹31/Pack</t>
+  </si>
+  <si>
+    <t>₹70/Pack</t>
+  </si>
+  <si>
+    <t>₹85/kg</t>
+  </si>
+  <si>
+    <t>₹128/kg</t>
+  </si>
+  <si>
+    <t>₹33/Pack</t>
+  </si>
+  <si>
+    <t>₹37/Pack</t>
+  </si>
+  <si>
+    <t>₹730/kg</t>
+  </si>
+  <si>
+    <t>₹120/Pack</t>
+  </si>
+  <si>
+    <t>₹29/Pack</t>
+  </si>
+  <si>
+    <t>₹109/Pack</t>
+  </si>
+  <si>
+    <t>₹360/kg</t>
+  </si>
+  <si>
+    <t>₹1320/kg</t>
+  </si>
+  <si>
+    <t>₹45/Pack</t>
+  </si>
+  <si>
+    <t>₹81/kg</t>
+  </si>
+  <si>
+    <t>₹95/kg</t>
+  </si>
+  <si>
+    <t>₹200/kg</t>
+  </si>
+  <si>
+    <t>₹470/kg</t>
+  </si>
+  <si>
     <t>₹250/kg</t>
   </si>
   <si>
-    <t>₹45/kg</t>
-  </si>
-  <si>
-    <t>₹46/kg</t>
-  </si>
-  <si>
-    <t>₹162/kg</t>
-  </si>
-  <si>
-    <t>₹50/Pack</t>
-  </si>
-  <si>
-    <t>₹35/kg</t>
-  </si>
-  <si>
-    <t>₹161/kg</t>
-  </si>
-  <si>
-    <t>₹300/kg</t>
-  </si>
-  <si>
-    <t>₹32/kg</t>
-  </si>
-  <si>
-    <t>₹80/kg</t>
-  </si>
-  <si>
-    <t>₹94/kg</t>
-  </si>
-  <si>
-    <t>₹180/kg</t>
-  </si>
-  <si>
-    <t>₹240/kg</t>
-  </si>
-  <si>
-    <t>₹27/Pack</t>
-  </si>
-  <si>
-    <t>₹56/kg</t>
-  </si>
-  <si>
-    <t>₹25/kg</t>
-  </si>
-  <si>
-    <t>₹9/Pack</t>
-  </si>
-  <si>
-    <t>₹54/kg</t>
-  </si>
-  <si>
-    <t>₹150/kg</t>
-  </si>
-  <si>
-    <t>₹41/kg</t>
-  </si>
-  <si>
-    <t>₹20/Pack</t>
-  </si>
-  <si>
-    <t>₹170/kg</t>
-  </si>
-  <si>
-    <t>₹120/kg</t>
-  </si>
-  <si>
-    <t>₹31/Pack</t>
-  </si>
-  <si>
-    <t>₹30/kg</t>
-  </si>
-  <si>
-    <t>₹70/Pack</t>
-  </si>
-  <si>
-    <t>₹85/kg</t>
-  </si>
-  <si>
-    <t>₹128/kg</t>
-  </si>
-  <si>
-    <t>₹33/Pack</t>
-  </si>
-  <si>
-    <t>₹37/Pack</t>
-  </si>
-  <si>
-    <t>₹730/kg</t>
-  </si>
-  <si>
-    <t>₹120/Pack</t>
-  </si>
-  <si>
-    <t>₹29/Pack</t>
-  </si>
-  <si>
-    <t>₹109/Pack</t>
-  </si>
-  <si>
-    <t>₹360/kg</t>
-  </si>
-  <si>
-    <t>₹1320/kg</t>
-  </si>
-  <si>
-    <t>₹45/Pack</t>
-  </si>
-  <si>
-    <t>₹81/kg</t>
-  </si>
-  <si>
-    <t>₹95/kg</t>
-  </si>
-  <si>
-    <t>₹200/kg</t>
-  </si>
-  <si>
-    <t>₹470/kg</t>
-  </si>
-  <si>
     <t>₹30/Pack</t>
   </si>
   <si>
@@ -1010,6 +1016,9 @@
     <t>₹232/kg</t>
   </si>
   <si>
+    <t>₹541/kg</t>
+  </si>
+  <si>
     <t>₹46/Pack</t>
   </si>
   <si>
@@ -1019,15 +1028,15 @@
     <t>₹36/Pack</t>
   </si>
   <si>
+    <t>₹100/Pack</t>
+  </si>
+  <si>
     <t>₹75/Pack</t>
   </si>
   <si>
     <t>₹50/pack</t>
   </si>
   <si>
-    <t>₹100/Pack</t>
-  </si>
-  <si>
     <t>₹910/kg</t>
   </si>
   <si>
@@ -1040,9 +1049,6 @@
     <t>₹73/Pack</t>
   </si>
   <si>
-    <t>₹541/kg</t>
-  </si>
-  <si>
     <t>₹18  350 g</t>
   </si>
   <si>
@@ -1073,264 +1079,267 @@
     <t>₹36  600 g</t>
   </si>
   <si>
-    <t>₹125  500 g</t>
+    <t>₹120  500 g</t>
   </si>
   <si>
     <t>₹15  250 g</t>
   </si>
   <si>
+    <t>₹32  800 g</t>
+  </si>
+  <si>
+    <t>₹28  250 g</t>
+  </si>
+  <si>
+    <t>₹10  100 g</t>
+  </si>
+  <si>
+    <t>₹18  400 g</t>
+  </si>
+  <si>
+    <t>₹23  500 g</t>
+  </si>
+  <si>
+    <t>₹26  160 g</t>
+  </si>
+  <si>
+    <t>₹48  800 g</t>
+  </si>
+  <si>
+    <t>₹30  500 g</t>
+  </si>
+  <si>
+    <t>₹35  700 g</t>
+  </si>
+  <si>
+    <t>₹50  200 g</t>
+  </si>
+  <si>
+    <t>₹30  600 g</t>
+  </si>
+  <si>
+    <t>₹21  600 g</t>
+  </si>
+  <si>
+    <t>₹19  130 g</t>
+  </si>
+  <si>
+    <t>₹84  300 g</t>
+  </si>
+  <si>
+    <t>₹25  500 g</t>
+  </si>
+  <si>
+    <t>₹32  1 kg</t>
+  </si>
+  <si>
+    <t>₹80  2 kg</t>
+  </si>
+  <si>
+    <t>₹56  700 g</t>
+  </si>
+  <si>
+    <t>₹60  750 g</t>
+  </si>
+  <si>
+    <t>₹45  500 g</t>
+  </si>
+  <si>
+    <t>₹35  1 kg</t>
+  </si>
+  <si>
+    <t>₹45  250 g</t>
+  </si>
+  <si>
+    <t>₹96  400 g</t>
+  </si>
+  <si>
+    <t>₹27  150 g</t>
+  </si>
+  <si>
+    <t>₹20  500 g</t>
+  </si>
+  <si>
+    <t>₹28  500 g</t>
+  </si>
+  <si>
+    <t>₹25  1 kg</t>
+  </si>
+  <si>
+    <t>₹9  1 Pack</t>
+  </si>
+  <si>
+    <t>₹35  500 g</t>
+  </si>
+  <si>
+    <t>₹27  500 g</t>
+  </si>
+  <si>
+    <t>₹20  250 g</t>
+  </si>
+  <si>
+    <t>₹75  500 g</t>
+  </si>
+  <si>
+    <t>₹99  2.4 kg</t>
+  </si>
+  <si>
+    <t>₹51  300 g</t>
+  </si>
+  <si>
+    <t>₹30  250 g</t>
+  </si>
+  <si>
+    <t>₹30  1 kg</t>
+  </si>
+  <si>
+    <t>₹31  5 pcs</t>
+  </si>
+  <si>
+    <t>₹31  50 g</t>
+  </si>
+  <si>
+    <t>₹27  1 pc</t>
+  </si>
+  <si>
+    <t>₹70  500 g</t>
+  </si>
+  <si>
+    <t>₹80  1 kg</t>
+  </si>
+  <si>
+    <t>₹23  450 g</t>
+  </si>
+  <si>
+    <t>₹51  600 g</t>
+  </si>
+  <si>
+    <t>₹32  250 g</t>
+  </si>
+  <si>
+    <t>₹33  150 g</t>
+  </si>
+  <si>
+    <t>₹33  100 g</t>
+  </si>
+  <si>
+    <t>₹37  150 g</t>
+  </si>
+  <si>
+    <t>₹31  100 g</t>
+  </si>
+  <si>
+    <t>₹73  100 g</t>
+  </si>
+  <si>
+    <t>₹120  100 g</t>
+  </si>
+  <si>
+    <t>₹32  400 g</t>
+  </si>
+  <si>
+    <t>₹29  50 g</t>
+  </si>
+  <si>
+    <t>₹109  250 g</t>
+  </si>
+  <si>
+    <t>₹90  250 g</t>
+  </si>
+  <si>
+    <t>₹72  600 g</t>
+  </si>
+  <si>
+    <t>₹132  100 g</t>
+  </si>
+  <si>
+    <t>₹45  150 g</t>
+  </si>
+  <si>
+    <t>₹40  400 g</t>
+  </si>
+  <si>
+    <t>₹49  600 g</t>
+  </si>
+  <si>
+    <t>₹57  600 g</t>
+  </si>
+  <si>
+    <t>₹60  300 g</t>
+  </si>
+  <si>
+    <t>₹47  100 g</t>
+  </si>
+  <si>
+    <t>₹75  300 g</t>
+  </si>
+  <si>
+    <t>₹30  200 g</t>
+  </si>
+  <si>
+    <t>₹189  2 kg</t>
+  </si>
+  <si>
+    <t>₹120  250 g</t>
+  </si>
+  <si>
+    <t>₹30  150 g</t>
+  </si>
+  <si>
+    <t>₹37  250 g</t>
+  </si>
+  <si>
+    <t>₹86  250 g</t>
+  </si>
+  <si>
+    <t>₹109  300 g</t>
+  </si>
+  <si>
+    <t>₹125  250 g</t>
+  </si>
+  <si>
+    <t>₹90  500 g</t>
+  </si>
+  <si>
+    <t>₹109  200 g</t>
+  </si>
+  <si>
+    <t>₹71  300 g</t>
+  </si>
+  <si>
+    <t>₹20  100 g</t>
+  </si>
+  <si>
+    <t>₹55  500 g</t>
+  </si>
+  <si>
+    <t>₹48  600 g</t>
+  </si>
+  <si>
+    <t>₹32  100 g</t>
+  </si>
+  <si>
+    <t>₹26  100 g</t>
+  </si>
+  <si>
+    <t>₹90  2.2 kg</t>
+  </si>
+  <si>
+    <t>₹70  100 g</t>
+  </si>
+  <si>
+    <t>₹25  200 g</t>
+  </si>
+  <si>
+    <t>₹40  100 g</t>
+  </si>
+  <si>
+    <t>₹28  700 g</t>
+  </si>
+  <si>
     <t>₹25  250 g</t>
   </si>
   <si>
-    <t>₹10  100 g</t>
-  </si>
-  <si>
-    <t>₹18  400 g</t>
-  </si>
-  <si>
-    <t>₹23  500 g</t>
-  </si>
-  <si>
-    <t>₹26  160 g</t>
-  </si>
-  <si>
-    <t>₹48  800 g</t>
-  </si>
-  <si>
-    <t>₹30  500 g</t>
-  </si>
-  <si>
-    <t>₹35  700 g</t>
-  </si>
-  <si>
-    <t>₹50  200 g</t>
-  </si>
-  <si>
-    <t>₹30  600 g</t>
-  </si>
-  <si>
-    <t>₹21  600 g</t>
-  </si>
-  <si>
-    <t>₹21  130 g</t>
-  </si>
-  <si>
-    <t>₹90  300 g</t>
-  </si>
-  <si>
-    <t>₹25  500 g</t>
-  </si>
-  <si>
-    <t>₹32  1 kg</t>
-  </si>
-  <si>
-    <t>₹80  2 kg</t>
-  </si>
-  <si>
-    <t>₹56  700 g</t>
-  </si>
-  <si>
-    <t>₹71  750 g</t>
-  </si>
-  <si>
-    <t>₹45  500 g</t>
-  </si>
-  <si>
-    <t>₹35  1 kg</t>
-  </si>
-  <si>
-    <t>₹45  250 g</t>
-  </si>
-  <si>
-    <t>₹50  1 pc</t>
-  </si>
-  <si>
-    <t>₹96  400 g</t>
-  </si>
-  <si>
-    <t>₹27  150 g</t>
-  </si>
-  <si>
-    <t>₹28  500 g</t>
-  </si>
-  <si>
-    <t>₹25  1 kg</t>
-  </si>
-  <si>
-    <t>₹9  1 Pack</t>
-  </si>
-  <si>
-    <t>₹40  500 g</t>
-  </si>
-  <si>
-    <t>₹27  500 g</t>
-  </si>
-  <si>
-    <t>₹20  250 g</t>
-  </si>
-  <si>
-    <t>₹75  500 g</t>
-  </si>
-  <si>
-    <t>₹99  2.4 kg</t>
-  </si>
-  <si>
-    <t>₹20  500 g</t>
-  </si>
-  <si>
-    <t>₹51  300 g</t>
-  </si>
-  <si>
-    <t>₹30  250 g</t>
-  </si>
-  <si>
-    <t>₹31  5 pcs</t>
-  </si>
-  <si>
-    <t>₹31  50 g</t>
-  </si>
-  <si>
-    <t>₹27  1 pc</t>
-  </si>
-  <si>
-    <t>₹30  1 kg</t>
-  </si>
-  <si>
-    <t>₹70  500 g</t>
-  </si>
-  <si>
-    <t>₹90  1 kg</t>
-  </si>
-  <si>
-    <t>₹23  450 g</t>
-  </si>
-  <si>
-    <t>₹51  600 g</t>
-  </si>
-  <si>
-    <t>₹32  250 g</t>
-  </si>
-  <si>
-    <t>₹33  150 g</t>
-  </si>
-  <si>
-    <t>₹33  100 g</t>
-  </si>
-  <si>
-    <t>₹37  150 g</t>
-  </si>
-  <si>
-    <t>₹31  100 g</t>
-  </si>
-  <si>
-    <t>₹73  100 g</t>
-  </si>
-  <si>
-    <t>₹120  100 g</t>
-  </si>
-  <si>
-    <t>₹32  400 g</t>
-  </si>
-  <si>
-    <t>₹29  50 g</t>
-  </si>
-  <si>
-    <t>₹109  250 g</t>
-  </si>
-  <si>
-    <t>₹90  250 g</t>
-  </si>
-  <si>
-    <t>₹72  600 g</t>
-  </si>
-  <si>
-    <t>₹132  100 g</t>
-  </si>
-  <si>
-    <t>₹45  150 g</t>
-  </si>
-  <si>
-    <t>₹40  400 g</t>
-  </si>
-  <si>
-    <t>₹49  600 g</t>
-  </si>
-  <si>
-    <t>₹57  600 g</t>
-  </si>
-  <si>
-    <t>₹60  300 g</t>
-  </si>
-  <si>
-    <t>₹47  100 g</t>
-  </si>
-  <si>
-    <t>₹75  300 g</t>
-  </si>
-  <si>
-    <t>₹30  200 g</t>
-  </si>
-  <si>
-    <t>₹189  2 kg</t>
-  </si>
-  <si>
-    <t>₹120  250 g</t>
-  </si>
-  <si>
-    <t>₹30  150 g</t>
-  </si>
-  <si>
-    <t>₹37  250 g</t>
-  </si>
-  <si>
-    <t>₹86  250 g</t>
-  </si>
-  <si>
-    <t>₹109  300 g</t>
-  </si>
-  <si>
-    <t>₹125  250 g</t>
-  </si>
-  <si>
-    <t>₹90  500 g</t>
-  </si>
-  <si>
-    <t>₹109  200 g</t>
-  </si>
-  <si>
-    <t>₹71  300 g</t>
-  </si>
-  <si>
-    <t>₹20  100 g</t>
-  </si>
-  <si>
-    <t>₹55  500 g</t>
-  </si>
-  <si>
-    <t>₹48  600 g</t>
-  </si>
-  <si>
-    <t>₹32  100 g</t>
-  </si>
-  <si>
-    <t>₹26  100 g</t>
-  </si>
-  <si>
-    <t>₹90  2.2 kg</t>
-  </si>
-  <si>
-    <t>₹70  100 g</t>
-  </si>
-  <si>
-    <t>₹25  200 g</t>
-  </si>
-  <si>
-    <t>₹40  100 g</t>
-  </si>
-  <si>
-    <t>₹28  700 g</t>
-  </si>
-  <si>
     <t>₹99  100 g</t>
   </si>
   <si>
@@ -1343,6 +1352,9 @@
     <t>₹128  550 g</t>
   </si>
   <si>
+    <t>₹65  120 g</t>
+  </si>
+  <si>
     <t>₹60  250 g</t>
   </si>
   <si>
@@ -1367,15 +1379,18 @@
     <t>₹36  250 g</t>
   </si>
   <si>
+    <t>₹100  50 g</t>
+  </si>
+  <si>
+    <t>₹60  200 g</t>
+  </si>
+  <si>
     <t>₹75  100 g</t>
   </si>
   <si>
     <t>₹60  50 g</t>
   </si>
   <si>
-    <t>₹60  200 g</t>
-  </si>
-  <si>
     <t>₹50  50 g</t>
   </si>
   <si>
@@ -1394,27 +1409,24 @@
     <t>₹91  5 pcs</t>
   </si>
   <si>
+    <t>₹89  2 pcs</t>
+  </si>
+  <si>
     <t>₹69  225 g</t>
   </si>
   <si>
     <t>₹149  725 g</t>
   </si>
   <si>
+    <t>₹45  1 pc</t>
+  </si>
+  <si>
     <t>₹62  700 g</t>
   </si>
   <si>
     <t>₹73  250 g</t>
   </si>
   <si>
-    <t>₹65  120 g</t>
-  </si>
-  <si>
-    <t>₹100  50 g</t>
-  </si>
-  <si>
-    <t>₹89  2 pcs</t>
-  </si>
-  <si>
     <t>Vegetables</t>
   </si>
   <si>
@@ -1445,6 +1457,9 @@
     <t>250 g</t>
   </si>
   <si>
+    <t>800 g</t>
+  </si>
+  <si>
     <t>100 g</t>
   </si>
   <si>
@@ -1454,9 +1469,6 @@
     <t>160 g</t>
   </si>
   <si>
-    <t>800 g</t>
-  </si>
-  <si>
     <t>200 g</t>
   </si>
   <si>
@@ -1472,24 +1484,24 @@
     <t>750 g</t>
   </si>
   <si>
+    <t>150 g</t>
+  </si>
+  <si>
+    <t>1 Pack</t>
+  </si>
+  <si>
+    <t>2.4 kg</t>
+  </si>
+  <si>
+    <t>5 pcs</t>
+  </si>
+  <si>
+    <t>50 g</t>
+  </si>
+  <si>
     <t>1 pc</t>
   </si>
   <si>
-    <t>150 g</t>
-  </si>
-  <si>
-    <t>1 Pack</t>
-  </si>
-  <si>
-    <t>2.4 kg</t>
-  </si>
-  <si>
-    <t>5 pcs</t>
-  </si>
-  <si>
-    <t>50 g</t>
-  </si>
-  <si>
     <t>450 g</t>
   </si>
   <si>
@@ -1499,19 +1511,25 @@
     <t>550 g</t>
   </si>
   <si>
+    <t>120 g</t>
+  </si>
+  <si>
     <t>125 g</t>
   </si>
   <si>
+    <t>2 pcs</t>
+  </si>
+  <si>
     <t>225 g</t>
   </si>
   <si>
     <t>725 g</t>
   </si>
   <si>
-    <t>120 g</t>
-  </si>
-  <si>
-    <t>2 pcs</t>
+    <t>₹144/kg</t>
+  </si>
+  <si>
+    <t>₹31/kg</t>
   </si>
   <si>
     <t>2023-10-05 05:17:55</t>
@@ -1520,7 +1538,7 @@
     <t>2023-10-05 09:13:45</t>
   </si>
   <si>
-    <t>2023-10-11 10:37:11</t>
+    <t>2023-10-12 07:22:07</t>
   </si>
   <si>
     <t>Coconut Chunks</t>
@@ -1640,72 +1658,72 @@
     <t>Apple - Granny (Sour Apple) - Indian</t>
   </si>
   <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Thai Guava - Pink (Amrudh)</t>
+  </si>
+  <si>
+    <t>Mini Orange (Mandarin) - Imported</t>
+  </si>
+  <si>
+    <t>Mangosteen (Mangustan)</t>
+  </si>
+  <si>
+    <t>Sun Melon (Sarda)</t>
+  </si>
+  <si>
+    <t>Coconut Green (Nariyal) Opener</t>
+  </si>
+  <si>
+    <t>Kimia Dates (Khajoor) - Imported</t>
+  </si>
+  <si>
+    <t>Uncut Coconut - Green (Nariyal Pani)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala (Imported)</t>
+  </si>
+  <si>
+    <t>Pear - Packham (Imported)</t>
+  </si>
+  <si>
+    <t>Apricot (Dried Khubani) - Imported</t>
+  </si>
+  <si>
+    <t>Sweet Tamarind (Imli) - Imported</t>
+  </si>
+  <si>
+    <t>Pineapple - Peeled (Ananas)</t>
+  </si>
+  <si>
+    <t>Fruit Gift Box - Pomegranate</t>
+  </si>
+  <si>
+    <t>Tender Coconut (Nariyal) Opener</t>
+  </si>
+  <si>
+    <t>Apple - Medium</t>
+  </si>
+  <si>
+    <t>30 Days Coconut Pack</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Fruit Kamalam) - Imported</t>
+  </si>
+  <si>
+    <t>Avocado (Butter Fruit) - Indian</t>
+  </si>
+  <si>
+    <t>Banana - Economy</t>
+  </si>
+  <si>
+    <t>Pineapple Opener (Corer and Slicer)</t>
+  </si>
+  <si>
     <t>Banana - Nendran</t>
   </si>
   <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Thai Guava - Pink (Amrudh)</t>
-  </si>
-  <si>
-    <t>Mini Orange (Mandarin) - Imported</t>
-  </si>
-  <si>
-    <t>Mangosteen (Mangustan)</t>
-  </si>
-  <si>
-    <t>Sun Melon (Sarda)</t>
-  </si>
-  <si>
-    <t>Coconut Green (Nariyal) Opener</t>
-  </si>
-  <si>
-    <t>Kimia Dates (Khajoor) - Imported</t>
-  </si>
-  <si>
-    <t>Uncut Coconut - Green (Nariyal Pani)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala (Imported)</t>
-  </si>
-  <si>
-    <t>Pear - Packham (Imported)</t>
-  </si>
-  <si>
-    <t>Apricot (Dried Khubani) - Imported</t>
-  </si>
-  <si>
-    <t>Sweet Tamarind (Imli) - Imported</t>
-  </si>
-  <si>
-    <t>Pineapple - Peeled (Ananas)</t>
-  </si>
-  <si>
-    <t>Fruit Gift Box - Pomegranate</t>
-  </si>
-  <si>
-    <t>Tender Coconut (Nariyal) Opener</t>
-  </si>
-  <si>
-    <t>Apple - Medium</t>
-  </si>
-  <si>
-    <t>30 Days Coconut Pack</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Fruit Kamalam) - Imported</t>
-  </si>
-  <si>
-    <t>Avocado (Butter Fruit) - Indian</t>
-  </si>
-  <si>
-    <t>Banana - Economy</t>
-  </si>
-  <si>
-    <t>Pineapple Opener (Corer and Slicer)</t>
-  </si>
-  <si>
     <t>Rambutan - Imported</t>
   </si>
   <si>
@@ -1853,30 +1871,24 @@
     <t>₹220/kg</t>
   </si>
   <si>
+    <t>₹72/kg</t>
+  </si>
+  <si>
     <t>₹69/kg</t>
   </si>
   <si>
-    <t>₹67/kg</t>
-  </si>
-  <si>
     <t>₹600/kg</t>
   </si>
   <si>
     <t>₹86/kg</t>
   </si>
   <si>
-    <t>₹280/kg</t>
-  </si>
-  <si>
     <t>₹90/Pack</t>
   </si>
   <si>
     <t>₹325/kg</t>
   </si>
   <si>
-    <t>₹140/kg</t>
-  </si>
-  <si>
     <t>₹39/Pack</t>
   </si>
   <si>
@@ -1889,9 +1901,6 @@
     <t>₹231/Pack</t>
   </si>
   <si>
-    <t>₹39/kg</t>
-  </si>
-  <si>
     <t>₹129/Pack</t>
   </si>
   <si>
@@ -1994,12 +2003,12 @@
     <t>₹143  650 g</t>
   </si>
   <si>
+    <t>₹40  550 g</t>
+  </si>
+  <si>
     <t>₹38  550 g</t>
   </si>
   <si>
-    <t>₹37  550 g</t>
-  </si>
-  <si>
     <t>₹90  150 g</t>
   </si>
   <si>
@@ -2021,6 +2030,9 @@
     <t>₹150  600 g</t>
   </si>
   <si>
+    <t>₹60  500 g</t>
+  </si>
+  <si>
     <t>₹39  1 pc</t>
   </si>
   <si>
@@ -2033,7 +2045,7 @@
     <t>₹231  2 pcs</t>
   </si>
   <si>
-    <t>₹117  3 kg</t>
+    <t>₹110  3 kg</t>
   </si>
   <si>
     <t>₹129  3 pcs</t>
@@ -2189,13 +2201,22 @@
     <t>220 g</t>
   </si>
   <si>
+    <t>₹135/kg</t>
+  </si>
+  <si>
+    <t>₹67/Pack</t>
+  </si>
+  <si>
+    <t>₹132/Pack</t>
+  </si>
+  <si>
     <t>2023-09-29 00:31:18</t>
   </si>
   <si>
     <t>2023-10-05 05:18:28</t>
   </si>
   <si>
-    <t>2023-10-11 10:37:51</t>
+    <t>2023-10-12 07:22:37</t>
   </si>
 </sst>
 </file>
@@ -2553,7 +2574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2590,25 +2611,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H2" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2616,25 +2637,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H3" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2642,25 +2663,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F4" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H4" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2668,25 +2689,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E5" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F5" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H5" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2694,25 +2715,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2720,25 +2741,25 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2746,25 +2767,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F8" t="s">
-        <v>472</v>
-      </c>
-      <c r="G8" t="s">
-        <v>269</v>
+        <v>476</v>
       </c>
       <c r="H8" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2772,25 +2790,22 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F9" t="s">
-        <v>473</v>
-      </c>
-      <c r="G9" t="s">
-        <v>270</v>
+        <v>477</v>
       </c>
       <c r="H9" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2798,25 +2813,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F10" t="s">
-        <v>474</v>
-      </c>
-      <c r="G10" t="s">
-        <v>271</v>
+        <v>478</v>
       </c>
       <c r="H10" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2824,25 +2836,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D11" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F11" t="s">
-        <v>469</v>
-      </c>
-      <c r="G11" t="s">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="H11" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2850,25 +2859,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F12" t="s">
-        <v>472</v>
-      </c>
-      <c r="G12" t="s">
-        <v>273</v>
+        <v>476</v>
       </c>
       <c r="H12" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2876,25 +2882,22 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F13" t="s">
-        <v>475</v>
-      </c>
-      <c r="G13" t="s">
-        <v>272</v>
+        <v>479</v>
       </c>
       <c r="H13" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2902,25 +2905,22 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F14" t="s">
-        <v>475</v>
-      </c>
-      <c r="G14" t="s">
-        <v>264</v>
+        <v>480</v>
       </c>
       <c r="H14" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2928,25 +2928,22 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E15" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G15" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="H15" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2954,25 +2951,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E16" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F16" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" t="s">
-        <v>274</v>
+        <v>481</v>
       </c>
       <c r="H16" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2980,25 +2974,22 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F17" t="s">
-        <v>472</v>
-      </c>
-      <c r="G17" t="s">
-        <v>275</v>
+        <v>482</v>
       </c>
       <c r="H17" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3006,25 +2997,22 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E18" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F18" t="s">
-        <v>478</v>
-      </c>
-      <c r="G18" t="s">
-        <v>276</v>
+        <v>476</v>
       </c>
       <c r="H18" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3032,25 +3020,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E19" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F19" t="s">
-        <v>479</v>
-      </c>
-      <c r="G19" t="s">
-        <v>272</v>
+        <v>483</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3058,25 +3043,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D20" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E20" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F20" t="s">
-        <v>472</v>
-      </c>
-      <c r="G20" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="H20" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3084,25 +3066,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F21" t="s">
-        <v>468</v>
-      </c>
-      <c r="G21" t="s">
-        <v>267</v>
+        <v>476</v>
       </c>
       <c r="H21" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3110,25 +3089,22 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D22" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E22" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F22" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" t="s">
-        <v>277</v>
+        <v>472</v>
       </c>
       <c r="H22" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3136,25 +3112,22 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E23" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F23" t="s">
-        <v>469</v>
-      </c>
-      <c r="G23" t="s">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="H23" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3162,25 +3135,22 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F24" t="s">
-        <v>469</v>
-      </c>
-      <c r="G24" t="s">
-        <v>278</v>
+        <v>473</v>
       </c>
       <c r="H24" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3188,25 +3158,22 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E25" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F25" t="s">
-        <v>481</v>
-      </c>
-      <c r="G25" t="s">
-        <v>279</v>
+        <v>473</v>
       </c>
       <c r="H25" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3214,25 +3181,25 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F26" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
+        <v>503</v>
       </c>
       <c r="H26" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3240,25 +3207,22 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
-      </c>
-      <c r="G27" t="s">
-        <v>267</v>
+        <v>486</v>
       </c>
       <c r="H27" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3266,25 +3230,22 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F28" t="s">
-        <v>473</v>
-      </c>
-      <c r="G28" t="s">
-        <v>281</v>
+        <v>476</v>
       </c>
       <c r="H28" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3292,25 +3253,22 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="D29" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E29" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F29" t="s">
-        <v>483</v>
-      </c>
-      <c r="G29" t="s">
-        <v>266</v>
+        <v>477</v>
       </c>
       <c r="H29" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3318,25 +3276,25 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D30" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E30" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="H30" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3344,25 +3302,22 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D31" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E31" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F31" t="s">
-        <v>484</v>
-      </c>
-      <c r="G31" t="s">
-        <v>283</v>
+        <v>472</v>
       </c>
       <c r="H31" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3370,25 +3325,22 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="E32" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F32" t="s">
-        <v>472</v>
-      </c>
-      <c r="G32" t="s">
-        <v>272</v>
+        <v>488</v>
       </c>
       <c r="H32" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3396,25 +3348,22 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E33" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F33" t="s">
-        <v>472</v>
-      </c>
-      <c r="G33" t="s">
-        <v>265</v>
+        <v>476</v>
       </c>
       <c r="H33" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3422,25 +3371,22 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C34" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E34" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F34" t="s">
-        <v>473</v>
-      </c>
-      <c r="G34" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="H34" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3448,25 +3394,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C35" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="E35" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F35" t="s">
-        <v>468</v>
-      </c>
-      <c r="G35" t="s">
-        <v>264</v>
+        <v>477</v>
       </c>
       <c r="H35" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3474,25 +3417,25 @@
         <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D36" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="E36" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="G36" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="H36" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3500,25 +3443,22 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D37" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E37" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F37" t="s">
-        <v>485</v>
-      </c>
-      <c r="G37" t="s">
-        <v>277</v>
+        <v>479</v>
       </c>
       <c r="H37" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3526,25 +3466,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E38" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F38" t="s">
-        <v>477</v>
-      </c>
-      <c r="G38" t="s">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="H38" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3552,25 +3489,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C39" t="s">
         <v>286</v>
       </c>
       <c r="D39" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E39" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F39" t="s">
-        <v>486</v>
-      </c>
-      <c r="G39" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="H39" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3578,25 +3512,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E40" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F40" t="s">
-        <v>477</v>
-      </c>
-      <c r="G40" t="s">
-        <v>285</v>
+        <v>482</v>
       </c>
       <c r="H40" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3604,25 +3535,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s">
         <v>267</v>
       </c>
       <c r="D41" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E41" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F41" t="s">
-        <v>472</v>
-      </c>
-      <c r="G41" t="s">
-        <v>267</v>
+        <v>476</v>
       </c>
       <c r="H41" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3630,25 +3558,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
         <v>286</v>
       </c>
       <c r="D42" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E42" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F42" t="s">
-        <v>486</v>
-      </c>
-      <c r="G42" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="H42" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3656,25 +3581,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E43" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F43" t="s">
-        <v>469</v>
-      </c>
-      <c r="G43" t="s">
-        <v>266</v>
+        <v>473</v>
       </c>
       <c r="H43" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3682,25 +3604,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C44" t="s">
         <v>287</v>
       </c>
       <c r="D44" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E44" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F44" t="s">
-        <v>472</v>
-      </c>
-      <c r="G44" t="s">
-        <v>287</v>
+        <v>476</v>
       </c>
       <c r="H44" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3708,25 +3627,25 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C45" t="s">
         <v>288</v>
       </c>
       <c r="D45" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E45" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F45" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G45" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="H45" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3734,25 +3653,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C46" t="s">
         <v>289</v>
       </c>
       <c r="D46" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E46" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
-      </c>
-      <c r="G46" t="s">
-        <v>289</v>
+        <v>490</v>
       </c>
       <c r="H46" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3760,25 +3676,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D47" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E47" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F47" t="s">
-        <v>472</v>
-      </c>
-      <c r="G47" t="s">
-        <v>282</v>
+        <v>476</v>
       </c>
       <c r="H47" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3786,25 +3699,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E48" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F48" t="s">
-        <v>472</v>
-      </c>
-      <c r="G48" t="s">
-        <v>290</v>
+        <v>476</v>
       </c>
       <c r="H48" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3812,25 +3722,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D49" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E49" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F49" t="s">
-        <v>472</v>
-      </c>
-      <c r="G49" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="H49" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3838,25 +3745,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E50" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F50" t="s">
-        <v>475</v>
-      </c>
-      <c r="G50" t="s">
-        <v>282</v>
+        <v>479</v>
       </c>
       <c r="H50" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3864,25 +3768,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E51" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F51" t="s">
-        <v>479</v>
-      </c>
-      <c r="G51" t="s">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="H51" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3890,25 +3791,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D52" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E52" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
-      </c>
-      <c r="G52" t="s">
-        <v>291</v>
+        <v>476</v>
       </c>
       <c r="H52" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3916,25 +3814,22 @@
         <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D53" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E53" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F53" t="s">
-        <v>488</v>
-      </c>
-      <c r="G53" t="s">
-        <v>292</v>
+        <v>491</v>
       </c>
       <c r="H53" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3942,25 +3837,22 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D54" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E54" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F54" t="s">
-        <v>472</v>
-      </c>
-      <c r="G54" t="s">
-        <v>266</v>
+        <v>476</v>
       </c>
       <c r="H54" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3968,25 +3860,22 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D55" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E55" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F55" t="s">
-        <v>475</v>
-      </c>
-      <c r="G55" t="s">
-        <v>293</v>
+        <v>479</v>
       </c>
       <c r="H55" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3994,25 +3883,22 @@
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>288</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E56" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F56" t="s">
-        <v>473</v>
-      </c>
-      <c r="G56" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="H56" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4020,25 +3906,22 @@
         <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E57" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F57" t="s">
-        <v>472</v>
-      </c>
-      <c r="G57" t="s">
-        <v>267</v>
+        <v>476</v>
       </c>
       <c r="H57" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4046,25 +3929,22 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D58" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E58" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F58" t="s">
-        <v>482</v>
-      </c>
-      <c r="G58" t="s">
-        <v>294</v>
+        <v>486</v>
       </c>
       <c r="H58" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4072,25 +3952,22 @@
         <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C59" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D59" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E59" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F59" t="s">
-        <v>475</v>
-      </c>
-      <c r="G59" t="s">
-        <v>295</v>
+        <v>479</v>
       </c>
       <c r="H59" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4098,25 +3975,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D60" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E60" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
-      </c>
-      <c r="G60" t="s">
-        <v>272</v>
+        <v>479</v>
       </c>
       <c r="H60" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4124,25 +3998,25 @@
         <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E61" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F61" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G61" t="s">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="H61" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4150,25 +4024,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D62" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F62" t="s">
-        <v>490</v>
-      </c>
-      <c r="G62" t="s">
-        <v>296</v>
+        <v>492</v>
       </c>
       <c r="H62" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4176,25 +4047,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="E63" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F63" t="s">
-        <v>473</v>
-      </c>
-      <c r="G63" t="s">
-        <v>278</v>
+        <v>493</v>
       </c>
       <c r="H63" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4202,25 +4070,22 @@
         <v>70</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C64" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E64" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F64" t="s">
-        <v>485</v>
-      </c>
-      <c r="G64" t="s">
-        <v>286</v>
+        <v>477</v>
       </c>
       <c r="H64" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4228,25 +4093,22 @@
         <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D65" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E65" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F65" t="s">
-        <v>473</v>
-      </c>
-      <c r="G65" t="s">
-        <v>297</v>
+        <v>494</v>
       </c>
       <c r="H65" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4254,25 +4116,25 @@
         <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E66" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
+        <v>504</v>
       </c>
       <c r="H66" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4280,25 +4142,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C67" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="D67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E67" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F67" t="s">
-        <v>473</v>
-      </c>
-      <c r="G67" t="s">
-        <v>265</v>
+        <v>476</v>
       </c>
       <c r="H67" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4306,25 +4165,22 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E68" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F68" t="s">
-        <v>491</v>
-      </c>
-      <c r="G68" t="s">
-        <v>263</v>
+        <v>477</v>
       </c>
       <c r="H68" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4335,22 +4191,19 @@
         <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="D69" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F69" t="s">
-        <v>469</v>
-      </c>
-      <c r="G69" t="s">
-        <v>299</v>
+        <v>495</v>
       </c>
       <c r="H69" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4364,19 +4217,16 @@
         <v>300</v>
       </c>
       <c r="D70" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F70" t="s">
-        <v>475</v>
-      </c>
-      <c r="G70" t="s">
-        <v>300</v>
+        <v>473</v>
       </c>
       <c r="H70" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4384,25 +4234,22 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
         <v>301</v>
       </c>
       <c r="D71" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E71" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F71" t="s">
-        <v>486</v>
-      </c>
-      <c r="G71" t="s">
-        <v>301</v>
+        <v>479</v>
       </c>
       <c r="H71" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4410,25 +4257,22 @@
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E72" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F72" t="s">
-        <v>476</v>
-      </c>
-      <c r="G72" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="H72" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4436,25 +4280,22 @@
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D73" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E73" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F73" t="s">
-        <v>486</v>
-      </c>
-      <c r="G73" t="s">
-        <v>301</v>
+        <v>481</v>
       </c>
       <c r="H73" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4462,7 +4303,7 @@
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C74" t="s">
         <v>302</v>
@@ -4471,16 +4312,13 @@
         <v>400</v>
       </c>
       <c r="E74" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F74" t="s">
-        <v>486</v>
-      </c>
-      <c r="G74" t="s">
-        <v>302</v>
+        <v>489</v>
       </c>
       <c r="H74" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4488,25 +4326,22 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D75" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E75" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F75" t="s">
-        <v>486</v>
-      </c>
-      <c r="G75" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="H75" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4514,25 +4349,22 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D76" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F76" t="s">
-        <v>486</v>
-      </c>
-      <c r="G76" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
       <c r="H76" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4540,25 +4372,22 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E77" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F77" t="s">
-        <v>476</v>
-      </c>
-      <c r="G77" t="s">
-        <v>296</v>
+        <v>489</v>
       </c>
       <c r="H77" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4566,25 +4395,22 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C78" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D78" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E78" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F78" t="s">
-        <v>486</v>
-      </c>
-      <c r="G78" t="s">
-        <v>301</v>
+        <v>481</v>
       </c>
       <c r="H78" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4592,25 +4418,22 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E79" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F79" t="s">
-        <v>476</v>
-      </c>
-      <c r="G79" t="s">
-        <v>303</v>
+        <v>489</v>
       </c>
       <c r="H79" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4618,25 +4441,22 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="D80" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="E80" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
-      </c>
-      <c r="G80" t="s">
-        <v>267</v>
+        <v>481</v>
       </c>
       <c r="H80" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4644,25 +4464,22 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="E81" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F81" t="s">
         <v>476</v>
       </c>
-      <c r="G81" t="s">
-        <v>304</v>
-      </c>
       <c r="H81" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4670,25 +4487,22 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D82" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E82" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F82" t="s">
-        <v>476</v>
-      </c>
-      <c r="G82" t="s">
-        <v>304</v>
+        <v>481</v>
       </c>
       <c r="H82" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4696,25 +4510,22 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="D83" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="E83" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F83" t="s">
-        <v>468</v>
-      </c>
-      <c r="G83" t="s">
-        <v>264</v>
+        <v>481</v>
       </c>
       <c r="H83" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4722,25 +4533,22 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D84" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="E84" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F84" t="s">
-        <v>477</v>
-      </c>
-      <c r="G84" t="s">
-        <v>282</v>
+        <v>472</v>
       </c>
       <c r="H84" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4751,22 +4559,19 @@
         <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D85" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E85" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F85" t="s">
-        <v>490</v>
-      </c>
-      <c r="G85" t="s">
-        <v>305</v>
+        <v>482</v>
       </c>
       <c r="H85" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4774,25 +4579,22 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D86" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E86" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F86" t="s">
-        <v>477</v>
-      </c>
-      <c r="G86" t="s">
-        <v>282</v>
+        <v>493</v>
       </c>
       <c r="H86" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4800,25 +4602,22 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D87" t="s">
         <v>406</v>
       </c>
       <c r="E87" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F87" t="s">
-        <v>475</v>
-      </c>
-      <c r="G87" t="s">
-        <v>306</v>
+        <v>482</v>
       </c>
       <c r="H87" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4832,19 +4631,16 @@
         <v>307</v>
       </c>
       <c r="D88" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E88" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F88" t="s">
-        <v>475</v>
-      </c>
-      <c r="G88" t="s">
-        <v>307</v>
+        <v>479</v>
       </c>
       <c r="H88" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4855,22 +4651,19 @@
         <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="D89" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E89" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F89" t="s">
-        <v>469</v>
-      </c>
-      <c r="G89" t="s">
-        <v>295</v>
+        <v>479</v>
       </c>
       <c r="H89" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4881,22 +4674,19 @@
         <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D90" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E90" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F90" t="s">
-        <v>476</v>
-      </c>
-      <c r="G90" t="s">
-        <v>308</v>
+        <v>473</v>
       </c>
       <c r="H90" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4904,25 +4694,22 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="C91" t="s">
         <v>309</v>
       </c>
       <c r="D91" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E91" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F91" t="s">
-        <v>486</v>
-      </c>
-      <c r="G91" t="s">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="H91" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4930,25 +4717,22 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C92" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D92" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="E92" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F92" t="s">
-        <v>468</v>
-      </c>
-      <c r="G92" t="s">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="H92" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4956,25 +4740,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D93" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E93" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F93" t="s">
         <v>472</v>
       </c>
-      <c r="G93" t="s">
-        <v>265</v>
-      </c>
       <c r="H93" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4982,25 +4763,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D94" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E94" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F94" t="s">
-        <v>472</v>
-      </c>
-      <c r="G94" t="s">
-        <v>272</v>
+        <v>476</v>
       </c>
       <c r="H94" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5008,25 +4786,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="E95" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F95" t="s">
-        <v>477</v>
-      </c>
-      <c r="G95" t="s">
-        <v>264</v>
+        <v>476</v>
       </c>
       <c r="H95" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5037,22 +4812,19 @@
         <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D96" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E96" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F96" t="s">
-        <v>469</v>
-      </c>
-      <c r="G96" t="s">
-        <v>310</v>
+        <v>482</v>
       </c>
       <c r="H96" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5066,19 +4838,16 @@
         <v>311</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E97" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F97" t="s">
-        <v>469</v>
-      </c>
-      <c r="G97" t="s">
-        <v>311</v>
+        <v>473</v>
       </c>
       <c r="H97" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5092,19 +4861,16 @@
         <v>312</v>
       </c>
       <c r="D98" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E98" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F98" t="s">
-        <v>482</v>
-      </c>
-      <c r="G98" t="s">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="H98" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5118,19 +4884,19 @@
         <v>313</v>
       </c>
       <c r="D99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F99" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G99" t="s">
         <v>313</v>
       </c>
       <c r="H99" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5141,22 +4907,19 @@
         <v>235</v>
       </c>
       <c r="C100" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="D100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E100" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F100" t="s">
-        <v>482</v>
-      </c>
-      <c r="G100" t="s">
-        <v>273</v>
+        <v>481</v>
       </c>
       <c r="H100" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5167,22 +4930,19 @@
         <v>236</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E101" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F101" t="s">
-        <v>480</v>
-      </c>
-      <c r="G101" t="s">
-        <v>314</v>
+        <v>486</v>
       </c>
       <c r="H101" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5193,22 +4953,19 @@
         <v>237</v>
       </c>
       <c r="C102" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D102" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E102" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F102" t="s">
-        <v>483</v>
-      </c>
-      <c r="G102" t="s">
-        <v>315</v>
+        <v>484</v>
       </c>
       <c r="H102" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5216,25 +4973,22 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C103" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="D103" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="E103" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F103" t="s">
-        <v>475</v>
-      </c>
-      <c r="G103" t="s">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="H103" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5242,25 +4996,22 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C104" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="D104" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="E104" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F104" t="s">
-        <v>472</v>
-      </c>
-      <c r="G104" t="s">
-        <v>272</v>
+        <v>479</v>
       </c>
       <c r="H104" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5271,22 +5022,19 @@
         <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="D105" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="E105" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F105" t="s">
-        <v>475</v>
-      </c>
-      <c r="G105" t="s">
-        <v>316</v>
+        <v>476</v>
       </c>
       <c r="H105" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5297,22 +5045,19 @@
         <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E106" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F106" t="s">
-        <v>486</v>
-      </c>
-      <c r="G106" t="s">
-        <v>312</v>
+        <v>479</v>
       </c>
       <c r="H106" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5323,22 +5068,19 @@
         <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D107" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E107" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F107" t="s">
-        <v>475</v>
-      </c>
-      <c r="G107" t="s">
-        <v>317</v>
+        <v>489</v>
       </c>
       <c r="H107" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5349,22 +5091,19 @@
         <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D108" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E108" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F108" t="s">
-        <v>475</v>
-      </c>
-      <c r="G108" t="s">
-        <v>318</v>
+        <v>479</v>
       </c>
       <c r="H108" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5375,22 +5114,19 @@
         <v>243</v>
       </c>
       <c r="C109" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D109" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E109" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F109" t="s">
-        <v>482</v>
-      </c>
-      <c r="G109" t="s">
-        <v>319</v>
+        <v>479</v>
       </c>
       <c r="H109" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5398,25 +5134,22 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D110" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E110" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F110" t="s">
-        <v>475</v>
-      </c>
-      <c r="G110" t="s">
-        <v>320</v>
+        <v>486</v>
       </c>
       <c r="H110" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5424,25 +5157,22 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="C111" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D111" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E111" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F111" t="s">
-        <v>472</v>
-      </c>
-      <c r="G111" t="s">
-        <v>321</v>
+        <v>479</v>
       </c>
       <c r="H111" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5450,25 +5180,22 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="C112" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="D112" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E112" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F112" t="s">
-        <v>480</v>
-      </c>
-      <c r="G112" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
       <c r="H112" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5476,25 +5203,22 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D113" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E113" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F113" t="s">
-        <v>482</v>
-      </c>
-      <c r="G113" t="s">
-        <v>322</v>
+        <v>484</v>
       </c>
       <c r="H113" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5505,22 +5229,19 @@
         <v>245</v>
       </c>
       <c r="C114" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D114" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E114" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F114" t="s">
-        <v>476</v>
-      </c>
-      <c r="G114" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="H114" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5531,22 +5252,19 @@
         <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="D115" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E115" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F115" t="s">
-        <v>472</v>
-      </c>
-      <c r="G115" t="s">
-        <v>323</v>
+        <v>481</v>
       </c>
       <c r="H115" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5557,22 +5275,19 @@
         <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="D116" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E116" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
-      </c>
-      <c r="G116" t="s">
-        <v>282</v>
+        <v>476</v>
       </c>
       <c r="H116" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5583,22 +5298,19 @@
         <v>248</v>
       </c>
       <c r="C117" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="D117" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E117" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F117" t="s">
-        <v>476</v>
-      </c>
-      <c r="G117" t="s">
-        <v>324</v>
+        <v>473</v>
       </c>
       <c r="H117" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5609,22 +5321,19 @@
         <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D118" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E118" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F118" t="s">
-        <v>476</v>
-      </c>
-      <c r="G118" t="s">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="H118" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5632,25 +5341,22 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C119" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D119" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E119" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F119" t="s">
-        <v>476</v>
-      </c>
-      <c r="G119" t="s">
-        <v>325</v>
+        <v>481</v>
       </c>
       <c r="H119" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5658,25 +5364,22 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="C120" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="D120" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E120" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F120" t="s">
-        <v>492</v>
-      </c>
-      <c r="G120" t="s">
-        <v>266</v>
+        <v>481</v>
       </c>
       <c r="H120" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5684,25 +5387,22 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C121" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="D121" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="E121" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F121" t="s">
-        <v>475</v>
-      </c>
-      <c r="G121" t="s">
-        <v>304</v>
+        <v>496</v>
       </c>
       <c r="H121" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5710,25 +5410,22 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>251</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D122" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="E122" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F122" t="s">
-        <v>476</v>
-      </c>
-      <c r="G122" t="s">
-        <v>298</v>
+        <v>479</v>
       </c>
       <c r="H122" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5736,25 +5433,22 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C123" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D123" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E123" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F123" t="s">
-        <v>480</v>
-      </c>
-      <c r="G123" t="s">
-        <v>326</v>
+        <v>481</v>
       </c>
       <c r="H123" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5762,25 +5456,22 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>437</v>
       </c>
       <c r="E124" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F124" t="s">
-        <v>472</v>
-      </c>
-      <c r="G124" t="s">
-        <v>272</v>
+        <v>484</v>
       </c>
       <c r="H124" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5788,25 +5479,22 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C125" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="D125" t="s">
-        <v>436</v>
+        <v>363</v>
       </c>
       <c r="E125" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F125" t="s">
         <v>476</v>
       </c>
-      <c r="G125" t="s">
-        <v>327</v>
-      </c>
       <c r="H125" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5814,25 +5502,22 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C126" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D126" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="E126" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F126" t="s">
-        <v>475</v>
-      </c>
-      <c r="G126" t="s">
-        <v>306</v>
+        <v>481</v>
       </c>
       <c r="H126" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5840,25 +5525,22 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="C127" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="E127" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F127" t="s">
-        <v>468</v>
-      </c>
-      <c r="G127" t="s">
-        <v>266</v>
+        <v>479</v>
       </c>
       <c r="H127" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5866,25 +5548,22 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>185</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D128" t="s">
-        <v>354</v>
+        <v>439</v>
       </c>
       <c r="E128" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F128" t="s">
-        <v>475</v>
-      </c>
-      <c r="G128" t="s">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="H128" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5892,25 +5571,22 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C129" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="D129" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E129" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F129" t="s">
-        <v>476</v>
-      </c>
-      <c r="G129" t="s">
-        <v>328</v>
+        <v>479</v>
       </c>
       <c r="H129" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5918,25 +5594,22 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D130" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E130" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F130" t="s">
-        <v>472</v>
-      </c>
-      <c r="G130" t="s">
-        <v>329</v>
+        <v>481</v>
       </c>
       <c r="H130" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5944,25 +5617,22 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="D131" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E131" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F131" t="s">
-        <v>469</v>
-      </c>
-      <c r="G131" t="s">
-        <v>312</v>
+        <v>476</v>
       </c>
       <c r="H131" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5970,25 +5640,22 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C132" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E132" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F132" t="s">
-        <v>493</v>
-      </c>
-      <c r="G132" t="s">
-        <v>330</v>
+        <v>473</v>
       </c>
       <c r="H132" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5996,25 +5663,22 @@
         <v>139</v>
       </c>
       <c r="B133" t="s">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="C133" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="D133" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="E133" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F133" t="s">
-        <v>476</v>
-      </c>
-      <c r="G133" t="s">
-        <v>304</v>
+        <v>497</v>
       </c>
       <c r="H133" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6022,25 +5686,22 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C134" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="D134" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E134" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F134" t="s">
-        <v>475</v>
-      </c>
-      <c r="G134" t="s">
-        <v>285</v>
+        <v>498</v>
       </c>
       <c r="H134" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6048,25 +5709,22 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C135" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="D135" t="s">
-        <v>443</v>
+        <v>405</v>
       </c>
       <c r="E135" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F135" t="s">
-        <v>475</v>
-      </c>
-      <c r="G135" t="s">
-        <v>331</v>
+        <v>481</v>
       </c>
       <c r="H135" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6074,25 +5732,22 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D136" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E136" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F136" t="s">
-        <v>475</v>
-      </c>
-      <c r="G136" t="s">
-        <v>277</v>
+        <v>479</v>
       </c>
       <c r="H136" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6100,25 +5755,22 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>334</v>
       </c>
       <c r="D137" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E137" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F137" t="s">
-        <v>486</v>
-      </c>
-      <c r="G137" t="s">
-        <v>268</v>
+        <v>479</v>
       </c>
       <c r="H137" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6126,25 +5778,22 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C138" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="D138" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E138" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F138" t="s">
-        <v>475</v>
-      </c>
-      <c r="G138" t="s">
-        <v>332</v>
+        <v>479</v>
       </c>
       <c r="H138" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6152,25 +5801,22 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="C139" t="s">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="D139" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E139" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F139" t="s">
-        <v>476</v>
-      </c>
-      <c r="G139" t="s">
-        <v>320</v>
+        <v>489</v>
       </c>
       <c r="H139" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6178,25 +5824,22 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C140" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="D140" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E140" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F140" t="s">
-        <v>475</v>
-      </c>
-      <c r="G140" t="s">
-        <v>298</v>
+        <v>479</v>
       </c>
       <c r="H140" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6204,25 +5847,22 @@
         <v>147</v>
       </c>
       <c r="B141" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D141" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E141" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F141" t="s">
-        <v>475</v>
-      </c>
-      <c r="G141" t="s">
-        <v>333</v>
+        <v>481</v>
       </c>
       <c r="H141" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6230,25 +5870,22 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="C142" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D142" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E142" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F142" t="s">
-        <v>476</v>
-      </c>
-      <c r="G142" t="s">
-        <v>334</v>
+        <v>479</v>
       </c>
       <c r="H142" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6256,25 +5893,22 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C143" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="D143" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E143" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F143" t="s">
-        <v>490</v>
-      </c>
-      <c r="G143" t="s">
-        <v>268</v>
+        <v>479</v>
       </c>
       <c r="H143" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6282,25 +5916,22 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="D144" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E144" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F144" t="s">
-        <v>480</v>
-      </c>
-      <c r="G144" t="s">
-        <v>268</v>
+        <v>493</v>
       </c>
       <c r="H144" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6308,25 +5939,22 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C145" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="D145" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E145" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F145" t="s">
-        <v>490</v>
-      </c>
-      <c r="G145" t="s">
-        <v>335</v>
+        <v>484</v>
       </c>
       <c r="H145" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6334,25 +5962,22 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D146" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E146" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F146" t="s">
-        <v>494</v>
-      </c>
-      <c r="G146" t="s">
-        <v>336</v>
+        <v>481</v>
       </c>
       <c r="H146" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6360,25 +5985,22 @@
         <v>153</v>
       </c>
       <c r="B147" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="C147" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="D147" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="E147" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F147" t="s">
-        <v>476</v>
-      </c>
-      <c r="G147" t="s">
-        <v>304</v>
+        <v>493</v>
       </c>
       <c r="H147" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6386,25 +6008,22 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="E148" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F148" t="s">
-        <v>486</v>
-      </c>
-      <c r="G148" t="s">
-        <v>268</v>
+        <v>484</v>
       </c>
       <c r="H148" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6412,25 +6031,22 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C149" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="D149" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E149" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F149" t="s">
-        <v>486</v>
-      </c>
-      <c r="G149" t="s">
-        <v>268</v>
+        <v>493</v>
       </c>
       <c r="H149" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6438,25 +6054,22 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="D150" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E150" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F150" t="s">
-        <v>486</v>
-      </c>
-      <c r="G150" t="s">
-        <v>304</v>
+        <v>499</v>
       </c>
       <c r="H150" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6464,25 +6077,22 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="D151" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="E151" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F151" t="s">
-        <v>486</v>
-      </c>
-      <c r="G151" t="s">
-        <v>268</v>
+        <v>481</v>
       </c>
       <c r="H151" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6490,25 +6100,22 @@
         <v>158</v>
       </c>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D152" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="E152" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F152" t="s">
-        <v>486</v>
-      </c>
-      <c r="G152" t="s">
-        <v>268</v>
+        <v>489</v>
       </c>
       <c r="H152" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6516,25 +6123,22 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="C153" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="D153" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E153" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F153" t="s">
-        <v>476</v>
-      </c>
-      <c r="G153" t="s">
-        <v>337</v>
+        <v>489</v>
       </c>
       <c r="H153" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6542,25 +6146,22 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C154" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="D154" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E154" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F154" t="s">
-        <v>472</v>
-      </c>
-      <c r="G154" t="s">
-        <v>264</v>
+        <v>489</v>
       </c>
       <c r="H154" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6568,25 +6169,22 @@
         <v>161</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C155" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="D155" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="E155" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F155" t="s">
         <v>489</v>
       </c>
-      <c r="G155" t="s">
-        <v>338</v>
-      </c>
       <c r="H155" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6594,25 +6192,22 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>259</v>
+        <v>180</v>
       </c>
       <c r="C156" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D156" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="E156" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F156" t="s">
-        <v>495</v>
-      </c>
-      <c r="G156" t="s">
-        <v>259</v>
+        <v>489</v>
       </c>
       <c r="H156" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6620,25 +6215,22 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C157" t="s">
-        <v>259</v>
+        <v>340</v>
       </c>
       <c r="D157" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E157" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F157" t="s">
-        <v>496</v>
-      </c>
-      <c r="G157" t="s">
-        <v>259</v>
+        <v>481</v>
       </c>
       <c r="H157" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6646,25 +6238,22 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="C158" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D158" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E158" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F158" t="s">
-        <v>495</v>
-      </c>
-      <c r="G158" t="s">
-        <v>259</v>
+        <v>476</v>
       </c>
       <c r="H158" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6672,25 +6261,22 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="C159" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="D159" t="s">
-        <v>392</v>
+        <v>463</v>
       </c>
       <c r="E159" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F159" t="s">
-        <v>473</v>
-      </c>
-      <c r="G159" t="s">
-        <v>297</v>
+        <v>492</v>
       </c>
       <c r="H159" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6698,25 +6284,25 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="D160" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E160" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F160" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="G160" t="s">
-        <v>339</v>
+        <v>261</v>
       </c>
       <c r="H160" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6727,22 +6313,19 @@
         <v>261</v>
       </c>
       <c r="C161" t="s">
-        <v>340</v>
+        <v>261</v>
       </c>
       <c r="D161" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E161" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F161" t="s">
-        <v>475</v>
-      </c>
-      <c r="G161" t="s">
-        <v>340</v>
+        <v>501</v>
       </c>
       <c r="H161" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6750,25 +6333,22 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C162" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
       <c r="D162" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E162" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F162" t="s">
-        <v>497</v>
-      </c>
-      <c r="G162" t="s">
-        <v>341</v>
+        <v>501</v>
       </c>
       <c r="H162" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6776,25 +6356,22 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>261</v>
       </c>
       <c r="C163" t="s">
-        <v>336</v>
+        <v>261</v>
       </c>
       <c r="D163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E163" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F163" t="s">
-        <v>490</v>
-      </c>
-      <c r="G163" t="s">
-        <v>336</v>
+        <v>501</v>
       </c>
       <c r="H163" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6802,25 +6379,22 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C164" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D164" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="E164" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F164" t="s">
-        <v>480</v>
-      </c>
-      <c r="G164" t="s">
-        <v>268</v>
+        <v>502</v>
       </c>
       <c r="H164" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6828,25 +6402,22 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C165" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D165" t="s">
         <v>465</v>
       </c>
       <c r="E165" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F165" t="s">
-        <v>498</v>
-      </c>
-      <c r="G165" t="s">
-        <v>259</v>
+        <v>501</v>
       </c>
       <c r="H165" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6854,25 +6425,22 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="D166" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="E166" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F166" t="s">
-        <v>495</v>
-      </c>
-      <c r="G166" t="s">
-        <v>259</v>
+        <v>494</v>
       </c>
       <c r="H166" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6880,25 +6448,45 @@
         <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
-        <v>259</v>
+        <v>342</v>
       </c>
       <c r="D167" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="E167" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="F167" t="s">
-        <v>495</v>
-      </c>
-      <c r="G167" t="s">
-        <v>259</v>
+        <v>472</v>
       </c>
       <c r="H167" t="s">
-        <v>501</v>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>174</v>
+      </c>
+      <c r="B168" t="s">
+        <v>263</v>
+      </c>
+      <c r="C168" t="s">
+        <v>343</v>
+      </c>
+      <c r="D168" t="s">
+        <v>469</v>
+      </c>
+      <c r="E168" t="s">
+        <v>470</v>
+      </c>
+      <c r="F168" t="s">
+        <v>479</v>
+      </c>
+      <c r="H168" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -6942,1640 +6530,1484 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="D2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F2" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="G2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="H2" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D3" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E4" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F4" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G4" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="H4" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="D5" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E5" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G5" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H5" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D6" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E6" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G6" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="H6" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="D7" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G7" t="s">
-        <v>612</v>
+        <v>497</v>
       </c>
       <c r="H7" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="E8" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F8" t="s">
-        <v>493</v>
-      </c>
-      <c r="G8" t="s">
-        <v>613</v>
+        <v>497</v>
       </c>
       <c r="H8" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D9" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E9" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
-      </c>
-      <c r="G9" t="s">
-        <v>614</v>
+        <v>489</v>
       </c>
       <c r="H9" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D10" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E10" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F10" t="s">
-        <v>472</v>
-      </c>
-      <c r="G10" t="s">
-        <v>615</v>
+        <v>476</v>
       </c>
       <c r="H10" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E11" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F11" t="s">
-        <v>713</v>
-      </c>
-      <c r="G11" t="s">
-        <v>264</v>
+        <v>717</v>
       </c>
       <c r="H11" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E12" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F12" t="s">
-        <v>482</v>
-      </c>
-      <c r="G12" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="H12" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C13" t="s">
-        <v>616</v>
+        <v>282</v>
       </c>
       <c r="D13" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E13" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
-      </c>
-      <c r="G13" t="s">
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="H13" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D14" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E14" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F14" t="s">
-        <v>480</v>
-      </c>
-      <c r="G14" t="s">
-        <v>617</v>
+        <v>484</v>
       </c>
       <c r="H14" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="C15" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D15" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E15" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F15" t="s">
-        <v>480</v>
-      </c>
-      <c r="G15" t="s">
-        <v>618</v>
+        <v>484</v>
       </c>
       <c r="H15" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="D16" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="E16" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F16" t="s">
-        <v>469</v>
-      </c>
-      <c r="G16" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="H16" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C17" t="s">
-        <v>619</v>
+        <v>296</v>
       </c>
       <c r="D17" t="s">
-        <v>393</v>
+        <v>671</v>
       </c>
       <c r="E17" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F17" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G17" t="s">
-        <v>619</v>
+        <v>296</v>
       </c>
       <c r="H17" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C18" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D18" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E18" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F18" t="s">
-        <v>485</v>
-      </c>
-      <c r="G18" t="s">
-        <v>620</v>
+        <v>494</v>
       </c>
       <c r="H18" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C19" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D19" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="E19" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F19" t="s">
-        <v>485</v>
-      </c>
-      <c r="G19" t="s">
-        <v>621</v>
+        <v>494</v>
       </c>
       <c r="H19" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D20" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="E20" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F20" t="s">
-        <v>477</v>
-      </c>
-      <c r="G20" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="H20" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="D21" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E21" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="H21" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C22" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D22" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E22" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F22" t="s">
-        <v>498</v>
-      </c>
-      <c r="G22" t="s">
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="H22" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>270</v>
       </c>
       <c r="D23" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="E23" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F23" t="s">
-        <v>714</v>
-      </c>
-      <c r="G23" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="H23" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B24" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C24" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="D24" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E24" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F24" t="s">
-        <v>715</v>
-      </c>
-      <c r="G24" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="H24" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="D25" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="E25" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F25" t="s">
-        <v>498</v>
-      </c>
-      <c r="G25" t="s">
-        <v>626</v>
+        <v>500</v>
       </c>
       <c r="H25" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B26" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="C26" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D26" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E26" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F26" t="s">
-        <v>716</v>
-      </c>
-      <c r="G26" t="s">
-        <v>627</v>
+        <v>720</v>
       </c>
       <c r="H26" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C27" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D27" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="E27" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F27" t="s">
-        <v>469</v>
-      </c>
-      <c r="G27" t="s">
-        <v>628</v>
+        <v>473</v>
       </c>
       <c r="H27" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B28" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="C28" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D28" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="E28" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F28" t="s">
-        <v>469</v>
-      </c>
-      <c r="G28" t="s">
-        <v>629</v>
+        <v>473</v>
       </c>
       <c r="H28" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B29" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="C29" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D29" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E29" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F29" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G29" t="s">
-        <v>630</v>
+        <v>728</v>
       </c>
       <c r="H29" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B30" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C30" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D30" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E30" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F30" t="s">
-        <v>717</v>
-      </c>
-      <c r="G30" t="s">
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="H30" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B31" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C31" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="D31" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="E31" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F31" t="s">
-        <v>718</v>
-      </c>
-      <c r="G31" t="s">
-        <v>632</v>
+        <v>722</v>
       </c>
       <c r="H31" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B32" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D32" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E32" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F32" t="s">
-        <v>494</v>
-      </c>
-      <c r="G32" t="s">
-        <v>633</v>
+        <v>499</v>
       </c>
       <c r="H32" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B33" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="C33" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D33" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="E33" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F33" t="s">
-        <v>468</v>
-      </c>
-      <c r="G33" t="s">
-        <v>611</v>
+        <v>472</v>
       </c>
       <c r="H33" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B34" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="D34" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="E34" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F34" t="s">
-        <v>468</v>
-      </c>
-      <c r="G34" t="s">
-        <v>634</v>
+        <v>472</v>
       </c>
       <c r="H34" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B35" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C35" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="D35" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E35" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F35" t="s">
-        <v>475</v>
-      </c>
-      <c r="G35" t="s">
-        <v>635</v>
+        <v>479</v>
       </c>
       <c r="H35" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
         <v>287</v>
       </c>
       <c r="D36" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E36" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F36" t="s">
-        <v>493</v>
-      </c>
-      <c r="G36" t="s">
-        <v>287</v>
+        <v>497</v>
       </c>
       <c r="H36" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B37" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E37" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F37" t="s">
-        <v>469</v>
-      </c>
-      <c r="G37" t="s">
-        <v>272</v>
+        <v>473</v>
       </c>
       <c r="H37" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B38" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="C38" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E38" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F38" t="s">
-        <v>713</v>
-      </c>
-      <c r="G38" t="s">
-        <v>285</v>
+        <v>717</v>
       </c>
       <c r="H38" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B39" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C39" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D39" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E39" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F39" t="s">
-        <v>467</v>
-      </c>
-      <c r="G39" t="s">
-        <v>636</v>
+        <v>471</v>
       </c>
       <c r="H39" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B40" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C40" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D40" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E40" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F40" t="s">
-        <v>469</v>
-      </c>
-      <c r="G40" t="s">
-        <v>637</v>
+        <v>473</v>
       </c>
       <c r="H40" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>597</v>
       </c>
       <c r="C41" t="s">
-        <v>295</v>
+        <v>641</v>
       </c>
       <c r="D41" t="s">
-        <v>408</v>
+        <v>693</v>
       </c>
       <c r="E41" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F41" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="G41" t="s">
-        <v>295</v>
+        <v>729</v>
       </c>
       <c r="H41" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B42" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>313</v>
       </c>
       <c r="D42" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E42" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F42" t="s">
-        <v>498</v>
-      </c>
-      <c r="G42" t="s">
-        <v>638</v>
+        <v>472</v>
       </c>
       <c r="H42" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B43" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="C43" t="s">
-        <v>312</v>
+        <v>642</v>
       </c>
       <c r="D43" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="E43" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F43" t="s">
-        <v>468</v>
-      </c>
-      <c r="G43" t="s">
-        <v>312</v>
+        <v>486</v>
       </c>
       <c r="H43" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B44" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C44" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D44" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="E44" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F44" t="s">
-        <v>482</v>
-      </c>
-      <c r="G44" t="s">
-        <v>639</v>
+        <v>479</v>
       </c>
       <c r="H44" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B45" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="C45" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D45" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="E45" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F45" t="s">
-        <v>475</v>
-      </c>
-      <c r="G45" t="s">
-        <v>640</v>
+        <v>722</v>
       </c>
       <c r="H45" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B46" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="C46" t="s">
-        <v>641</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="E46" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F46" t="s">
-        <v>718</v>
-      </c>
-      <c r="G46" t="s">
-        <v>641</v>
+        <v>494</v>
       </c>
       <c r="H46" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B47" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>645</v>
       </c>
       <c r="D47" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="E47" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F47" t="s">
-        <v>485</v>
-      </c>
-      <c r="G47" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="H47" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B48" t="s">
-        <v>597</v>
+        <v>183</v>
       </c>
       <c r="C48" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D48" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="E48" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F48" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="G48" t="s">
-        <v>642</v>
+        <v>730</v>
       </c>
       <c r="H48" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>604</v>
       </c>
       <c r="C49" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="D49" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="E49" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F49" t="s">
-        <v>485</v>
-      </c>
-      <c r="G49" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="H49" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B50" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C50" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="D50" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="E50" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F50" t="s">
-        <v>719</v>
+        <v>480</v>
       </c>
       <c r="G50" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="H50" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B51" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C51" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D51" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="E51" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F51" t="s">
-        <v>479</v>
-      </c>
-      <c r="G51" t="s">
-        <v>644</v>
+        <v>484</v>
       </c>
       <c r="H51" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B52" t="s">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="C52" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D52" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="E52" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F52" t="s">
-        <v>480</v>
-      </c>
-      <c r="G52" t="s">
-        <v>645</v>
+        <v>479</v>
       </c>
       <c r="H52" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B53" t="s">
-        <v>250</v>
+        <v>607</v>
       </c>
       <c r="C53" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D53" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="E53" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F53" t="s">
-        <v>475</v>
-      </c>
-      <c r="G53" t="s">
-        <v>646</v>
+        <v>473</v>
       </c>
       <c r="H53" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B54" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="C54" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D54" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="E54" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F54" t="s">
-        <v>469</v>
-      </c>
-      <c r="G54" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="H54" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B55" t="s">
         <v>602</v>
       </c>
       <c r="C55" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D55" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="E55" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F55" t="s">
-        <v>720</v>
-      </c>
-      <c r="G55" t="s">
-        <v>648</v>
+        <v>494</v>
       </c>
       <c r="H55" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B56" t="s">
-        <v>596</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="D56" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="E56" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F56" t="s">
-        <v>485</v>
+        <v>725</v>
       </c>
       <c r="G56" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="H56" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B57" t="s">
-        <v>210</v>
+        <v>609</v>
       </c>
       <c r="C57" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="D57" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="E57" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F57" t="s">
-        <v>721</v>
-      </c>
-      <c r="G57" t="s">
-        <v>634</v>
+        <v>726</v>
       </c>
       <c r="H57" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B58" t="s">
-        <v>603</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D58" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="E58" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F58" t="s">
-        <v>722</v>
-      </c>
-      <c r="G58" t="s">
-        <v>650</v>
+        <v>471</v>
       </c>
       <c r="H58" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>610</v>
       </c>
       <c r="C59" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D59" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="E59" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
-      </c>
-      <c r="G59" t="s">
-        <v>651</v>
+        <v>486</v>
       </c>
       <c r="H59" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B60" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="C60" t="s">
-        <v>652</v>
+        <v>306</v>
       </c>
       <c r="D60" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="E60" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F60" t="s">
-        <v>482</v>
-      </c>
-      <c r="G60" t="s">
-        <v>652</v>
+        <v>721</v>
       </c>
       <c r="H60" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B61" t="s">
-        <v>605</v>
+        <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="D61" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="E61" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F61" t="s">
-        <v>717</v>
-      </c>
-      <c r="G61" t="s">
-        <v>305</v>
+        <v>494</v>
       </c>
       <c r="H61" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="C62" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
-        <v>709</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F62" t="s">
-        <v>485</v>
-      </c>
-      <c r="G62" t="s">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="H62" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B63" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="C63" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D63" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="E63" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F63" t="s">
-        <v>475</v>
-      </c>
-      <c r="G63" t="s">
-        <v>653</v>
+        <v>479</v>
       </c>
       <c r="H63" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B64" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C64" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D64" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="E64" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F64" t="s">
-        <v>723</v>
-      </c>
-      <c r="G64" t="s">
-        <v>654</v>
+        <v>727</v>
       </c>
       <c r="H64" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>

--- a/Otipy/otipy_products.xlsx
+++ b/Otipy/otipy_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="734">
   <si>
     <t>product_name</t>
   </si>
@@ -260,282 +260,282 @@
     <t>Sprouts - Lobia</t>
   </si>
   <si>
+    <t>Sprouts - Mix</t>
+  </si>
+  <si>
+    <t>Sprouts - Moong</t>
+  </si>
+  <si>
+    <t>Sprouts - Wheat</t>
+  </si>
+  <si>
+    <t>Sprouts - Moth</t>
+  </si>
+  <si>
+    <t>Coriander Leaves - Without Roots (Dhaniya)</t>
+  </si>
+  <si>
+    <t>Brinjal - Long (Purple Baingan)</t>
+  </si>
+  <si>
+    <t>Hydroponic Caesar Mix Salad</t>
+  </si>
+  <si>
+    <t>Hydroponic Leafy Salad (Seeds Dressing)</t>
+  </si>
+  <si>
+    <t>Organic Brinjal - Round (Baingan)</t>
+  </si>
+  <si>
+    <t>Organic Brinjal - Small (Chu Chu Baingan)</t>
+  </si>
+  <si>
+    <t>Wheat Grass</t>
+  </si>
+  <si>
+    <t>Organic Bhindi (Okra)</t>
+  </si>
+  <si>
+    <t>Ameranthus Microgreens</t>
+  </si>
+  <si>
+    <t>Hydroponic Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Arbi (Colocasia)</t>
+  </si>
+  <si>
+    <t>Asparagus (Shatavari)</t>
+  </si>
+  <si>
+    <t>Baby Corn</t>
+  </si>
+  <si>
+    <t>Beetroot (Chukandar)</t>
+  </si>
+  <si>
+    <t>Organic Beetroot (Chukandar)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Karela)</t>
+  </si>
+  <si>
+    <t>Organic Bitter Gourd (Karela)</t>
+  </si>
+  <si>
+    <t>Organic Bottle Gourd - Long (Lauki)</t>
+  </si>
+  <si>
+    <t>Cabbage - Red (Patta Gobhi)</t>
+  </si>
+  <si>
+    <t>Garlic (Lehsun)</t>
+  </si>
+  <si>
+    <t>Garlic Cloves - Peeled (Lehsun)</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Tomato - Cherry (Tamatar)</t>
+  </si>
+  <si>
+    <t>Chinese Cabbage</t>
+  </si>
+  <si>
+    <t>Chiya Seeds Microgreens</t>
+  </si>
+  <si>
+    <t>Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Hydroponic Red and Yellow Capsicum</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Lettuce - Iceberg</t>
+  </si>
+  <si>
+    <t>Lettuce - Red (Lollo Rosso)</t>
+  </si>
+  <si>
+    <t>Mongra</t>
+  </si>
+  <si>
+    <t>Mustard Microgreens</t>
+  </si>
+  <si>
+    <t>Organic Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Chilli - Hybrid (Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Cucumber - Hybrid (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Garlic (Lehsun)</t>
+  </si>
+  <si>
+    <t>Organic Ginger (Adrak)</t>
+  </si>
+  <si>
+    <t>Organic Lemon (Nimbu)</t>
+  </si>
+  <si>
+    <t>Organic Pumpkin (Kaddu)</t>
+  </si>
+  <si>
+    <t>Hydroponic Red and Yellow Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Hydroponic Red Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Sweet Corn - Pellets</t>
+  </si>
+  <si>
+    <t>Water Chestnut (Singhara)</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Radish Microgreens</t>
+  </si>
+  <si>
+    <t>Banana - Raw</t>
+  </si>
+  <si>
+    <t>Turmeric - Raw (Haldi)</t>
+  </si>
+  <si>
+    <t>Ready to Eat Salad</t>
+  </si>
+  <si>
+    <t>Sarson Leaves</t>
+  </si>
+  <si>
+    <t>Zucchini - Green</t>
+  </si>
+  <si>
+    <t>Zucchini - Yellow</t>
+  </si>
+  <si>
+    <t>Thai Ginger (Adrak)</t>
+  </si>
+  <si>
+    <t>Thai Snow Peas</t>
+  </si>
+  <si>
+    <t>Cut Ash Gourd (Safed Petha)</t>
+  </si>
+  <si>
+    <t>Cut Beetroot Julienne (Thin Stripes)</t>
+  </si>
+  <si>
+    <t>Cut Carrot - Julienne (Thin Stripes)</t>
+  </si>
+  <si>
+    <t>Cut Drumstick (Moringa)</t>
+  </si>
+  <si>
+    <t>Cut French Beans</t>
+  </si>
+  <si>
+    <t>Cut Fresh Mint (Without Root)</t>
+  </si>
+  <si>
+    <t>Cut Pulao Mix Vegetables</t>
+  </si>
+  <si>
+    <t>Cut Pumpkin (Kaddu)</t>
+  </si>
+  <si>
+    <t>Hydroponic Arugula (Gargeer)</t>
+  </si>
+  <si>
+    <t>Hydroponic Baby Corn</t>
+  </si>
+  <si>
+    <t>Hydroponic Baby Spinach (Paalak)</t>
+  </si>
+  <si>
+    <t>Hydroponic Basil (Tulsi)</t>
+  </si>
+  <si>
+    <t>Hydroponic Bok Choy</t>
+  </si>
+  <si>
+    <t>Hydroponic Celery Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Kale (Tuskan)</t>
+  </si>
+  <si>
+    <t>Hydroponic Leafy Salad Mix</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Butterhead</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Mix Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Red and Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Romaine</t>
+  </si>
+  <si>
+    <t>Thyme</t>
+  </si>
+  <si>
+    <t>Organic Carrot - Orange (Gajar)</t>
+  </si>
+  <si>
+    <t>Banana Leaf</t>
+  </si>
+  <si>
+    <t>Tadaa Boiled Sweet Corn Cob</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Kernels</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
+  </si>
+  <si>
+    <t>Banana Flower</t>
+  </si>
+  <si>
     <t>Sprouts - Methi</t>
   </si>
   <si>
-    <t>Sprouts - Mix</t>
-  </si>
-  <si>
-    <t>Sprouts - Moong</t>
-  </si>
-  <si>
-    <t>Sprouts - Wheat</t>
-  </si>
-  <si>
-    <t>Sprouts - Moth</t>
-  </si>
-  <si>
-    <t>Coriander Leaves - Without Roots (Dhaniya)</t>
-  </si>
-  <si>
-    <t>Brinjal - Long (Purple Baingan)</t>
-  </si>
-  <si>
-    <t>Hydroponic Caesar Mix Salad</t>
-  </si>
-  <si>
-    <t>Hydroponic Leafy Salad (Seeds Dressing)</t>
-  </si>
-  <si>
-    <t>Organic Brinjal - Round (Baingan)</t>
-  </si>
-  <si>
-    <t>Organic Brinjal - Small (Chu Chu Baingan)</t>
-  </si>
-  <si>
-    <t>Wheat Grass</t>
-  </si>
-  <si>
-    <t>Organic Bhindi (Okra)</t>
-  </si>
-  <si>
-    <t>Ameranthus Microgreens</t>
-  </si>
-  <si>
-    <t>Hydroponic Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Arbi (Colocasia)</t>
-  </si>
-  <si>
-    <t>Asparagus (Shatavari)</t>
-  </si>
-  <si>
-    <t>Baby Corn</t>
-  </si>
-  <si>
-    <t>Beetroot (Chukandar)</t>
-  </si>
-  <si>
-    <t>Organic Beetroot (Chukandar)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Karela)</t>
-  </si>
-  <si>
-    <t>Organic Bitter Gourd (Karela)</t>
-  </si>
-  <si>
-    <t>Organic Bottle Gourd - Long (Lauki)</t>
-  </si>
-  <si>
-    <t>Cabbage - Red (Patta Gobhi)</t>
-  </si>
-  <si>
-    <t>Garlic (Lehsun)</t>
-  </si>
-  <si>
-    <t>Garlic Cloves - Peeled (Lehsun)</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Tomato - Cherry (Tamatar)</t>
-  </si>
-  <si>
-    <t>Chinese Cabbage</t>
-  </si>
-  <si>
-    <t>Chiya Seeds Microgreens</t>
-  </si>
-  <si>
-    <t>Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Hydroponic Red and Yellow Capsicum</t>
-  </si>
-  <si>
-    <t>Leek</t>
-  </si>
-  <si>
-    <t>Lemon Grass</t>
-  </si>
-  <si>
-    <t>Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Lettuce - Iceberg</t>
-  </si>
-  <si>
-    <t>Lettuce - Red (Lollo Rosso)</t>
-  </si>
-  <si>
-    <t>Mongra</t>
-  </si>
-  <si>
-    <t>Mustard Microgreens</t>
-  </si>
-  <si>
-    <t>Organic Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Chilli - Hybrid (Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Cucumber - Hybrid (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Garlic (Lehsun)</t>
-  </si>
-  <si>
-    <t>Organic Ginger (Adrak)</t>
-  </si>
-  <si>
-    <t>Organic Lemon (Nimbu)</t>
-  </si>
-  <si>
-    <t>Organic Pumpkin (Kaddu)</t>
-  </si>
-  <si>
-    <t>Hydroponic Red and Yellow Cherry Tomato</t>
-  </si>
-  <si>
-    <t>Hydroponic Red Cherry Tomato</t>
-  </si>
-  <si>
-    <t>Sweet Corn - Pellets</t>
-  </si>
-  <si>
-    <t>Water Chestnut (Singhara)</t>
-  </si>
-  <si>
-    <t>Parsley</t>
-  </si>
-  <si>
-    <t>Radish Microgreens</t>
-  </si>
-  <si>
-    <t>Banana - Raw</t>
-  </si>
-  <si>
-    <t>Turmeric - Raw (Haldi)</t>
-  </si>
-  <si>
-    <t>Ready to Eat Salad</t>
-  </si>
-  <si>
-    <t>Sarson Leaves</t>
-  </si>
-  <si>
-    <t>Zucchini - Green</t>
-  </si>
-  <si>
-    <t>Zucchini - Yellow</t>
-  </si>
-  <si>
-    <t>Thai Ginger (Adrak)</t>
-  </si>
-  <si>
-    <t>Thai Snow Peas</t>
-  </si>
-  <si>
-    <t>Cut Ash Gourd (Safed Petha)</t>
-  </si>
-  <si>
-    <t>Cut Beetroot Julienne (Thin Stripes)</t>
-  </si>
-  <si>
-    <t>Cut Carrot - Julienne (Thin Stripes)</t>
-  </si>
-  <si>
-    <t>Cut Drumstick (Moringa)</t>
-  </si>
-  <si>
-    <t>Cut French Beans</t>
-  </si>
-  <si>
-    <t>Cut Fresh Mint (Without Root)</t>
-  </si>
-  <si>
-    <t>Cut Pulao Mix Vegetables</t>
-  </si>
-  <si>
-    <t>Cut Pumpkin (Kaddu)</t>
-  </si>
-  <si>
-    <t>Hydroponic Arugula (Gargeer)</t>
-  </si>
-  <si>
-    <t>Hydroponic Baby Corn</t>
-  </si>
-  <si>
-    <t>Hydroponic Baby Spinach (Paalak)</t>
-  </si>
-  <si>
-    <t>Hydroponic Basil (Tulsi)</t>
-  </si>
-  <si>
-    <t>Hydroponic Bok Choy</t>
-  </si>
-  <si>
-    <t>Hydroponic Celery Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Kale (Tuskan)</t>
-  </si>
-  <si>
-    <t>Hydroponic Leafy Salad Mix</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Butterhead</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Mix Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Red and Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Romaine</t>
-  </si>
-  <si>
-    <t>Thyme</t>
-  </si>
-  <si>
-    <t>Organic Carrot - Orange (Gajar)</t>
-  </si>
-  <si>
-    <t>Banana Leaf</t>
-  </si>
-  <si>
-    <t>Tadaa Boiled Sweet Corn Cob</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Kernels</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
-  </si>
-  <si>
-    <t>Banana Flower</t>
-  </si>
-  <si>
     <t>Organic Cabbage - Green (Patta Gobhi)</t>
   </si>
   <si>
@@ -683,126 +683,126 @@
     <t>₹168</t>
   </si>
   <si>
+    <t>₹800</t>
+  </si>
+  <si>
+    <t>₹135</t>
+  </si>
+  <si>
+    <t>₹105</t>
+  </si>
+  <si>
+    <t>₹39</t>
+  </si>
+  <si>
+    <t>₹134</t>
+  </si>
+  <si>
+    <t>₹400</t>
+  </si>
+  <si>
+    <t>₹136</t>
+  </si>
+  <si>
+    <t>₹1470</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹98</t>
+  </si>
+  <si>
+    <t>₹111</t>
+  </si>
+  <si>
+    <t>₹233</t>
+  </si>
+  <si>
+    <t>₹570</t>
+  </si>
+  <si>
+    <t>₹283</t>
+  </si>
+  <si>
+    <t>₹40</t>
+  </si>
+  <si>
+    <t>₹204</t>
+  </si>
+  <si>
+    <t>₹90</t>
+  </si>
+  <si>
+    <t>₹560</t>
+  </si>
+  <si>
+    <t>₹266</t>
+  </si>
+  <si>
+    <t>₹188</t>
+  </si>
+  <si>
+    <t>₹384</t>
+  </si>
+  <si>
+    <t>₹566</t>
+  </si>
+  <si>
+    <t>₹270</t>
+  </si>
+  <si>
+    <t>₹250</t>
+  </si>
+  <si>
+    <t>₹130</t>
+  </si>
+  <si>
+    <t>₹96</t>
+  </si>
+  <si>
+    <t>₹420</t>
+  </si>
+  <si>
+    <t>₹360</t>
+  </si>
+  <si>
+    <t>₹140</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>₹57</t>
+  </si>
+  <si>
+    <t>₹82</t>
+  </si>
+  <si>
+    <t>₹260</t>
+  </si>
+  <si>
+    <t>₹625</t>
+  </si>
+  <si>
+    <t>₹280</t>
+  </si>
+  <si>
+    <t>₹600</t>
+  </si>
+  <si>
+    <t>₹85</t>
+  </si>
+  <si>
+    <t>₹1010</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>₹47</t>
   </si>
   <si>
-    <t>₹800</t>
-  </si>
-  <si>
-    <t>₹135</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹39</t>
-  </si>
-  <si>
-    <t>₹134</t>
-  </si>
-  <si>
-    <t>₹400</t>
-  </si>
-  <si>
-    <t>₹136</t>
-  </si>
-  <si>
-    <t>₹1470</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹98</t>
-  </si>
-  <si>
-    <t>₹111</t>
-  </si>
-  <si>
-    <t>₹233</t>
-  </si>
-  <si>
-    <t>₹570</t>
-  </si>
-  <si>
-    <t>₹283</t>
-  </si>
-  <si>
-    <t>₹40</t>
-  </si>
-  <si>
-    <t>₹204</t>
-  </si>
-  <si>
-    <t>₹90</t>
-  </si>
-  <si>
-    <t>₹560</t>
-  </si>
-  <si>
-    <t>₹266</t>
-  </si>
-  <si>
-    <t>₹188</t>
-  </si>
-  <si>
-    <t>₹384</t>
-  </si>
-  <si>
-    <t>₹566</t>
-  </si>
-  <si>
-    <t>₹270</t>
-  </si>
-  <si>
-    <t>₹250</t>
-  </si>
-  <si>
-    <t>₹130</t>
-  </si>
-  <si>
-    <t>₹96</t>
-  </si>
-  <si>
-    <t>₹420</t>
-  </si>
-  <si>
-    <t>₹360</t>
-  </si>
-  <si>
-    <t>₹140</t>
-  </si>
-  <si>
-    <t>₹500</t>
-  </si>
-  <si>
-    <t>₹57</t>
-  </si>
-  <si>
-    <t>₹82</t>
-  </si>
-  <si>
-    <t>₹260</t>
-  </si>
-  <si>
-    <t>₹625</t>
-  </si>
-  <si>
-    <t>₹280</t>
-  </si>
-  <si>
-    <t>₹600</t>
-  </si>
-  <si>
-    <t>₹85</t>
-  </si>
-  <si>
-    <t>₹1010</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>₹102</t>
   </si>
   <si>
@@ -926,123 +926,123 @@
     <t>₹33/Pack</t>
   </si>
   <si>
+    <t>₹730/kg</t>
+  </si>
+  <si>
+    <t>₹120/Pack</t>
+  </si>
+  <si>
+    <t>₹29/Pack</t>
+  </si>
+  <si>
+    <t>₹109/Pack</t>
+  </si>
+  <si>
+    <t>₹360/kg</t>
+  </si>
+  <si>
+    <t>₹1320/kg</t>
+  </si>
+  <si>
+    <t>₹45/Pack</t>
+  </si>
+  <si>
+    <t>₹81/kg</t>
+  </si>
+  <si>
+    <t>₹95/kg</t>
+  </si>
+  <si>
+    <t>₹200/kg</t>
+  </si>
+  <si>
+    <t>₹470/kg</t>
+  </si>
+  <si>
+    <t>₹250/kg</t>
+  </si>
+  <si>
+    <t>₹30/Pack</t>
+  </si>
+  <si>
+    <t>₹189/pc</t>
+  </si>
+  <si>
+    <t>₹480/kg</t>
+  </si>
+  <si>
+    <t>₹148/kg</t>
+  </si>
+  <si>
+    <t>₹344/kg</t>
+  </si>
+  <si>
+    <t>₹363/kg</t>
+  </si>
+  <si>
+    <t>₹500/kg</t>
+  </si>
+  <si>
+    <t>₹180/Kg</t>
+  </si>
+  <si>
+    <t>₹236/kg</t>
+  </si>
+  <si>
+    <t>₹110/kg</t>
+  </si>
+  <si>
+    <t>₹320/kg</t>
+  </si>
+  <si>
+    <t>₹260/kg</t>
+  </si>
+  <si>
+    <t>₹125/kg</t>
+  </si>
+  <si>
+    <t>₹400/kg</t>
+  </si>
+  <si>
+    <t>₹99/Pack</t>
+  </si>
+  <si>
+    <t>₹62/kg</t>
+  </si>
+  <si>
+    <t>₹232/kg</t>
+  </si>
+  <si>
+    <t>₹541/kg</t>
+  </si>
+  <si>
+    <t>₹46/Pack</t>
+  </si>
+  <si>
+    <t>₹52/Pack</t>
+  </si>
+  <si>
+    <t>₹36/Pack</t>
+  </si>
+  <si>
+    <t>₹100/Pack</t>
+  </si>
+  <si>
+    <t>₹75/Pack</t>
+  </si>
+  <si>
+    <t>₹50/pack</t>
+  </si>
+  <si>
+    <t>₹910/kg</t>
+  </si>
+  <si>
+    <t>₹91/Pack</t>
+  </si>
+  <si>
     <t>₹37/Pack</t>
   </si>
   <si>
-    <t>₹730/kg</t>
-  </si>
-  <si>
-    <t>₹120/Pack</t>
-  </si>
-  <si>
-    <t>₹29/Pack</t>
-  </si>
-  <si>
-    <t>₹109/Pack</t>
-  </si>
-  <si>
-    <t>₹360/kg</t>
-  </si>
-  <si>
-    <t>₹1320/kg</t>
-  </si>
-  <si>
-    <t>₹45/Pack</t>
-  </si>
-  <si>
-    <t>₹81/kg</t>
-  </si>
-  <si>
-    <t>₹95/kg</t>
-  </si>
-  <si>
-    <t>₹200/kg</t>
-  </si>
-  <si>
-    <t>₹470/kg</t>
-  </si>
-  <si>
-    <t>₹250/kg</t>
-  </si>
-  <si>
-    <t>₹30/Pack</t>
-  </si>
-  <si>
-    <t>₹189/pc</t>
-  </si>
-  <si>
-    <t>₹480/kg</t>
-  </si>
-  <si>
-    <t>₹148/kg</t>
-  </si>
-  <si>
-    <t>₹344/kg</t>
-  </si>
-  <si>
-    <t>₹363/kg</t>
-  </si>
-  <si>
-    <t>₹500/kg</t>
-  </si>
-  <si>
-    <t>₹180/Kg</t>
-  </si>
-  <si>
-    <t>₹236/kg</t>
-  </si>
-  <si>
-    <t>₹110/kg</t>
-  </si>
-  <si>
-    <t>₹320/kg</t>
-  </si>
-  <si>
-    <t>₹260/kg</t>
-  </si>
-  <si>
-    <t>₹125/kg</t>
-  </si>
-  <si>
-    <t>₹400/kg</t>
-  </si>
-  <si>
-    <t>₹99/Pack</t>
-  </si>
-  <si>
-    <t>₹62/kg</t>
-  </si>
-  <si>
-    <t>₹232/kg</t>
-  </si>
-  <si>
-    <t>₹541/kg</t>
-  </si>
-  <si>
-    <t>₹46/Pack</t>
-  </si>
-  <si>
-    <t>₹52/Pack</t>
-  </si>
-  <si>
-    <t>₹36/Pack</t>
-  </si>
-  <si>
-    <t>₹100/Pack</t>
-  </si>
-  <si>
-    <t>₹75/Pack</t>
-  </si>
-  <si>
-    <t>₹50/pack</t>
-  </si>
-  <si>
-    <t>₹910/kg</t>
-  </si>
-  <si>
-    <t>₹91/Pack</t>
-  </si>
-  <si>
     <t>₹88/kg</t>
   </si>
   <si>
@@ -1223,204 +1223,204 @@
     <t>₹33  100 g</t>
   </si>
   <si>
+    <t>₹31  100 g</t>
+  </si>
+  <si>
+    <t>₹73  100 g</t>
+  </si>
+  <si>
+    <t>₹120  100 g</t>
+  </si>
+  <si>
+    <t>₹32  400 g</t>
+  </si>
+  <si>
+    <t>₹29  50 g</t>
+  </si>
+  <si>
+    <t>₹109  250 g</t>
+  </si>
+  <si>
+    <t>₹90  250 g</t>
+  </si>
+  <si>
+    <t>₹72  600 g</t>
+  </si>
+  <si>
+    <t>₹132  100 g</t>
+  </si>
+  <si>
+    <t>₹45  150 g</t>
+  </si>
+  <si>
+    <t>₹40  400 g</t>
+  </si>
+  <si>
+    <t>₹49  600 g</t>
+  </si>
+  <si>
+    <t>₹57  600 g</t>
+  </si>
+  <si>
+    <t>₹60  300 g</t>
+  </si>
+  <si>
+    <t>₹47  100 g</t>
+  </si>
+  <si>
+    <t>₹75  300 g</t>
+  </si>
+  <si>
+    <t>₹30  200 g</t>
+  </si>
+  <si>
+    <t>₹189  2 kg</t>
+  </si>
+  <si>
+    <t>₹120  250 g</t>
+  </si>
+  <si>
+    <t>₹30  150 g</t>
+  </si>
+  <si>
+    <t>₹37  250 g</t>
+  </si>
+  <si>
+    <t>₹86  250 g</t>
+  </si>
+  <si>
+    <t>₹109  300 g</t>
+  </si>
+  <si>
+    <t>₹125  250 g</t>
+  </si>
+  <si>
+    <t>₹90  500 g</t>
+  </si>
+  <si>
+    <t>₹109  200 g</t>
+  </si>
+  <si>
+    <t>₹71  300 g</t>
+  </si>
+  <si>
+    <t>₹20  100 g</t>
+  </si>
+  <si>
+    <t>₹55  500 g</t>
+  </si>
+  <si>
+    <t>₹48  600 g</t>
+  </si>
+  <si>
+    <t>₹32  100 g</t>
+  </si>
+  <si>
+    <t>₹26  100 g</t>
+  </si>
+  <si>
+    <t>₹90  2.2 kg</t>
+  </si>
+  <si>
+    <t>₹70  100 g</t>
+  </si>
+  <si>
+    <t>₹25  200 g</t>
+  </si>
+  <si>
+    <t>₹40  100 g</t>
+  </si>
+  <si>
+    <t>₹28  700 g</t>
+  </si>
+  <si>
+    <t>₹25  250 g</t>
+  </si>
+  <si>
+    <t>₹99  100 g</t>
+  </si>
+  <si>
+    <t>₹31  500 g</t>
+  </si>
+  <si>
+    <t>₹120  600 g</t>
+  </si>
+  <si>
+    <t>₹128  550 g</t>
+  </si>
+  <si>
+    <t>₹65  120 g</t>
+  </si>
+  <si>
+    <t>₹60  250 g</t>
+  </si>
+  <si>
+    <t>₹46  250 g</t>
+  </si>
+  <si>
+    <t>₹50  250 g</t>
+  </si>
+  <si>
+    <t>₹60  150 g</t>
+  </si>
+  <si>
+    <t>₹52  250 g</t>
+  </si>
+  <si>
+    <t>₹50  100 g</t>
+  </si>
+  <si>
+    <t>₹70  250 g</t>
+  </si>
+  <si>
+    <t>₹36  250 g</t>
+  </si>
+  <si>
+    <t>₹100  50 g</t>
+  </si>
+  <si>
+    <t>₹60  200 g</t>
+  </si>
+  <si>
+    <t>₹75  100 g</t>
+  </si>
+  <si>
+    <t>₹60  50 g</t>
+  </si>
+  <si>
+    <t>₹50  50 g</t>
+  </si>
+  <si>
+    <t>₹100  125 g</t>
+  </si>
+  <si>
+    <t>₹120  150 g</t>
+  </si>
+  <si>
+    <t>₹91  100 g</t>
+  </si>
+  <si>
+    <t>₹50  500 g</t>
+  </si>
+  <si>
+    <t>₹91  5 pcs</t>
+  </si>
+  <si>
+    <t>₹89  2 pcs</t>
+  </si>
+  <si>
+    <t>₹69  225 g</t>
+  </si>
+  <si>
+    <t>₹149  725 g</t>
+  </si>
+  <si>
+    <t>₹45  1 pc</t>
+  </si>
+  <si>
     <t>₹37  150 g</t>
   </si>
   <si>
-    <t>₹31  100 g</t>
-  </si>
-  <si>
-    <t>₹73  100 g</t>
-  </si>
-  <si>
-    <t>₹120  100 g</t>
-  </si>
-  <si>
-    <t>₹32  400 g</t>
-  </si>
-  <si>
-    <t>₹29  50 g</t>
-  </si>
-  <si>
-    <t>₹109  250 g</t>
-  </si>
-  <si>
-    <t>₹90  250 g</t>
-  </si>
-  <si>
-    <t>₹72  600 g</t>
-  </si>
-  <si>
-    <t>₹132  100 g</t>
-  </si>
-  <si>
-    <t>₹45  150 g</t>
-  </si>
-  <si>
-    <t>₹40  400 g</t>
-  </si>
-  <si>
-    <t>₹49  600 g</t>
-  </si>
-  <si>
-    <t>₹57  600 g</t>
-  </si>
-  <si>
-    <t>₹60  300 g</t>
-  </si>
-  <si>
-    <t>₹47  100 g</t>
-  </si>
-  <si>
-    <t>₹75  300 g</t>
-  </si>
-  <si>
-    <t>₹30  200 g</t>
-  </si>
-  <si>
-    <t>₹189  2 kg</t>
-  </si>
-  <si>
-    <t>₹120  250 g</t>
-  </si>
-  <si>
-    <t>₹30  150 g</t>
-  </si>
-  <si>
-    <t>₹37  250 g</t>
-  </si>
-  <si>
-    <t>₹86  250 g</t>
-  </si>
-  <si>
-    <t>₹109  300 g</t>
-  </si>
-  <si>
-    <t>₹125  250 g</t>
-  </si>
-  <si>
-    <t>₹90  500 g</t>
-  </si>
-  <si>
-    <t>₹109  200 g</t>
-  </si>
-  <si>
-    <t>₹71  300 g</t>
-  </si>
-  <si>
-    <t>₹20  100 g</t>
-  </si>
-  <si>
-    <t>₹55  500 g</t>
-  </si>
-  <si>
-    <t>₹48  600 g</t>
-  </si>
-  <si>
-    <t>₹32  100 g</t>
-  </si>
-  <si>
-    <t>₹26  100 g</t>
-  </si>
-  <si>
-    <t>₹90  2.2 kg</t>
-  </si>
-  <si>
-    <t>₹70  100 g</t>
-  </si>
-  <si>
-    <t>₹25  200 g</t>
-  </si>
-  <si>
-    <t>₹40  100 g</t>
-  </si>
-  <si>
-    <t>₹28  700 g</t>
-  </si>
-  <si>
-    <t>₹25  250 g</t>
-  </si>
-  <si>
-    <t>₹99  100 g</t>
-  </si>
-  <si>
-    <t>₹31  500 g</t>
-  </si>
-  <si>
-    <t>₹120  600 g</t>
-  </si>
-  <si>
-    <t>₹128  550 g</t>
-  </si>
-  <si>
-    <t>₹65  120 g</t>
-  </si>
-  <si>
-    <t>₹60  250 g</t>
-  </si>
-  <si>
-    <t>₹46  250 g</t>
-  </si>
-  <si>
-    <t>₹50  250 g</t>
-  </si>
-  <si>
-    <t>₹60  150 g</t>
-  </si>
-  <si>
-    <t>₹52  250 g</t>
-  </si>
-  <si>
-    <t>₹50  100 g</t>
-  </si>
-  <si>
-    <t>₹70  250 g</t>
-  </si>
-  <si>
-    <t>₹36  250 g</t>
-  </si>
-  <si>
-    <t>₹100  50 g</t>
-  </si>
-  <si>
-    <t>₹60  200 g</t>
-  </si>
-  <si>
-    <t>₹75  100 g</t>
-  </si>
-  <si>
-    <t>₹60  50 g</t>
-  </si>
-  <si>
-    <t>₹50  50 g</t>
-  </si>
-  <si>
-    <t>₹100  125 g</t>
-  </si>
-  <si>
-    <t>₹120  150 g</t>
-  </si>
-  <si>
-    <t>₹91  100 g</t>
-  </si>
-  <si>
-    <t>₹50  500 g</t>
-  </si>
-  <si>
-    <t>₹91  5 pcs</t>
-  </si>
-  <si>
-    <t>₹89  2 pcs</t>
-  </si>
-  <si>
-    <t>₹69  225 g</t>
-  </si>
-  <si>
-    <t>₹149  725 g</t>
-  </si>
-  <si>
-    <t>₹45  1 pc</t>
-  </si>
-  <si>
     <t>₹62  700 g</t>
   </si>
   <si>
@@ -1538,7 +1538,7 @@
     <t>2023-10-05 09:13:45</t>
   </si>
   <si>
-    <t>2023-10-12 07:22:07</t>
+    <t>2023-10-12 08:58:52</t>
   </si>
   <si>
     <t>Coconut Chunks</t>
@@ -2216,7 +2216,7 @@
     <t>2023-10-05 05:18:28</t>
   </si>
   <si>
-    <t>2023-10-12 07:22:37</t>
+    <t>2023-10-12 08:59:25</t>
   </si>
 </sst>
 </file>
@@ -2781,6 +2781,9 @@
       <c r="F8" t="s">
         <v>476</v>
       </c>
+      <c r="G8" t="s">
+        <v>270</v>
+      </c>
       <c r="H8" t="s">
         <v>507</v>
       </c>
@@ -2804,6 +2807,9 @@
       <c r="F9" t="s">
         <v>477</v>
       </c>
+      <c r="G9" t="s">
+        <v>271</v>
+      </c>
       <c r="H9" t="s">
         <v>507</v>
       </c>
@@ -2827,6 +2833,9 @@
       <c r="F10" t="s">
         <v>478</v>
       </c>
+      <c r="G10" t="s">
+        <v>272</v>
+      </c>
       <c r="H10" t="s">
         <v>507</v>
       </c>
@@ -2850,6 +2859,9 @@
       <c r="F11" t="s">
         <v>473</v>
       </c>
+      <c r="G11" t="s">
+        <v>273</v>
+      </c>
       <c r="H11" t="s">
         <v>507</v>
       </c>
@@ -2873,6 +2885,9 @@
       <c r="F12" t="s">
         <v>476</v>
       </c>
+      <c r="G12" t="s">
+        <v>274</v>
+      </c>
       <c r="H12" t="s">
         <v>507</v>
       </c>
@@ -2896,6 +2911,9 @@
       <c r="F13" t="s">
         <v>479</v>
       </c>
+      <c r="G13" t="s">
+        <v>273</v>
+      </c>
       <c r="H13" t="s">
         <v>507</v>
       </c>
@@ -2919,6 +2937,9 @@
       <c r="F14" t="s">
         <v>480</v>
       </c>
+      <c r="G14" t="s">
+        <v>267</v>
+      </c>
       <c r="H14" t="s">
         <v>507</v>
       </c>
@@ -2942,6 +2963,9 @@
       <c r="F15" t="s">
         <v>479</v>
       </c>
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
       <c r="H15" t="s">
         <v>507</v>
       </c>
@@ -2965,6 +2989,9 @@
       <c r="F16" t="s">
         <v>481</v>
       </c>
+      <c r="G16" t="s">
+        <v>265</v>
+      </c>
       <c r="H16" t="s">
         <v>507</v>
       </c>
@@ -2988,6 +3015,9 @@
       <c r="F17" t="s">
         <v>482</v>
       </c>
+      <c r="G17" t="s">
+        <v>276</v>
+      </c>
       <c r="H17" t="s">
         <v>507</v>
       </c>
@@ -3011,6 +3041,9 @@
       <c r="F18" t="s">
         <v>476</v>
       </c>
+      <c r="G18" t="s">
+        <v>277</v>
+      </c>
       <c r="H18" t="s">
         <v>507</v>
       </c>
@@ -3034,6 +3067,9 @@
       <c r="F19" t="s">
         <v>483</v>
       </c>
+      <c r="G19" t="s">
+        <v>278</v>
+      </c>
       <c r="H19" t="s">
         <v>507</v>
       </c>
@@ -3057,6 +3093,9 @@
       <c r="F20" t="s">
         <v>480</v>
       </c>
+      <c r="G20" t="s">
+        <v>273</v>
+      </c>
       <c r="H20" t="s">
         <v>507</v>
       </c>
@@ -3080,6 +3119,9 @@
       <c r="F21" t="s">
         <v>476</v>
       </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
       <c r="H21" t="s">
         <v>507</v>
       </c>
@@ -3103,6 +3145,9 @@
       <c r="F22" t="s">
         <v>472</v>
       </c>
+      <c r="G22" t="s">
+        <v>268</v>
+      </c>
       <c r="H22" t="s">
         <v>507</v>
       </c>
@@ -3126,6 +3171,9 @@
       <c r="F23" t="s">
         <v>484</v>
       </c>
+      <c r="G23" t="s">
+        <v>279</v>
+      </c>
       <c r="H23" t="s">
         <v>507</v>
       </c>
@@ -3149,6 +3197,9 @@
       <c r="F24" t="s">
         <v>473</v>
       </c>
+      <c r="G24" t="s">
+        <v>268</v>
+      </c>
       <c r="H24" t="s">
         <v>507</v>
       </c>
@@ -3172,6 +3223,9 @@
       <c r="F25" t="s">
         <v>473</v>
       </c>
+      <c r="G25" t="s">
+        <v>280</v>
+      </c>
       <c r="H25" t="s">
         <v>507</v>
       </c>
@@ -3221,6 +3275,9 @@
       <c r="F27" t="s">
         <v>486</v>
       </c>
+      <c r="G27" t="s">
+        <v>282</v>
+      </c>
       <c r="H27" t="s">
         <v>507</v>
       </c>
@@ -3244,6 +3301,9 @@
       <c r="F28" t="s">
         <v>476</v>
       </c>
+      <c r="G28" t="s">
+        <v>268</v>
+      </c>
       <c r="H28" t="s">
         <v>507</v>
       </c>
@@ -3267,6 +3327,9 @@
       <c r="F29" t="s">
         <v>477</v>
       </c>
+      <c r="G29" t="s">
+        <v>283</v>
+      </c>
       <c r="H29" t="s">
         <v>507</v>
       </c>
@@ -3316,6 +3379,9 @@
       <c r="F31" t="s">
         <v>472</v>
       </c>
+      <c r="G31" t="s">
+        <v>284</v>
+      </c>
       <c r="H31" t="s">
         <v>507</v>
       </c>
@@ -3339,6 +3405,9 @@
       <c r="F32" t="s">
         <v>488</v>
       </c>
+      <c r="G32" t="s">
+        <v>284</v>
+      </c>
       <c r="H32" t="s">
         <v>507</v>
       </c>
@@ -3362,6 +3431,9 @@
       <c r="F33" t="s">
         <v>476</v>
       </c>
+      <c r="G33" t="s">
+        <v>273</v>
+      </c>
       <c r="H33" t="s">
         <v>507</v>
       </c>
@@ -3385,6 +3457,9 @@
       <c r="F34" t="s">
         <v>476</v>
       </c>
+      <c r="G34" t="s">
+        <v>266</v>
+      </c>
       <c r="H34" t="s">
         <v>507</v>
       </c>
@@ -3408,6 +3483,9 @@
       <c r="F35" t="s">
         <v>477</v>
       </c>
+      <c r="G35" t="s">
+        <v>280</v>
+      </c>
       <c r="H35" t="s">
         <v>507</v>
       </c>
@@ -3457,6 +3535,9 @@
       <c r="F37" t="s">
         <v>479</v>
       </c>
+      <c r="G37" t="s">
+        <v>285</v>
+      </c>
       <c r="H37" t="s">
         <v>507</v>
       </c>
@@ -3480,6 +3561,9 @@
       <c r="F38" t="s">
         <v>482</v>
       </c>
+      <c r="G38" t="s">
+        <v>274</v>
+      </c>
       <c r="H38" t="s">
         <v>507</v>
       </c>
@@ -3503,6 +3587,9 @@
       <c r="F39" t="s">
         <v>489</v>
       </c>
+      <c r="G39" t="s">
+        <v>286</v>
+      </c>
       <c r="H39" t="s">
         <v>507</v>
       </c>
@@ -3526,6 +3613,9 @@
       <c r="F40" t="s">
         <v>482</v>
       </c>
+      <c r="G40" t="s">
+        <v>274</v>
+      </c>
       <c r="H40" t="s">
         <v>507</v>
       </c>
@@ -3549,6 +3639,9 @@
       <c r="F41" t="s">
         <v>476</v>
       </c>
+      <c r="G41" t="s">
+        <v>267</v>
+      </c>
       <c r="H41" t="s">
         <v>507</v>
       </c>
@@ -3572,6 +3665,9 @@
       <c r="F42" t="s">
         <v>489</v>
       </c>
+      <c r="G42" t="s">
+        <v>286</v>
+      </c>
       <c r="H42" t="s">
         <v>507</v>
       </c>
@@ -3595,6 +3691,9 @@
       <c r="F43" t="s">
         <v>473</v>
       </c>
+      <c r="G43" t="s">
+        <v>267</v>
+      </c>
       <c r="H43" t="s">
         <v>507</v>
       </c>
@@ -3618,6 +3717,9 @@
       <c r="F44" t="s">
         <v>476</v>
       </c>
+      <c r="G44" t="s">
+        <v>287</v>
+      </c>
       <c r="H44" t="s">
         <v>507</v>
       </c>
@@ -3667,6 +3769,9 @@
       <c r="F46" t="s">
         <v>490</v>
       </c>
+      <c r="G46" t="s">
+        <v>289</v>
+      </c>
       <c r="H46" t="s">
         <v>507</v>
       </c>
@@ -3690,6 +3795,9 @@
       <c r="F47" t="s">
         <v>476</v>
       </c>
+      <c r="G47" t="s">
+        <v>290</v>
+      </c>
       <c r="H47" t="s">
         <v>507</v>
       </c>
@@ -3713,6 +3821,9 @@
       <c r="F48" t="s">
         <v>476</v>
       </c>
+      <c r="G48" t="s">
+        <v>291</v>
+      </c>
       <c r="H48" t="s">
         <v>507</v>
       </c>
@@ -3736,6 +3847,9 @@
       <c r="F49" t="s">
         <v>476</v>
       </c>
+      <c r="G49" t="s">
+        <v>273</v>
+      </c>
       <c r="H49" t="s">
         <v>507</v>
       </c>
@@ -3759,6 +3873,9 @@
       <c r="F50" t="s">
         <v>479</v>
       </c>
+      <c r="G50" t="s">
+        <v>284</v>
+      </c>
       <c r="H50" t="s">
         <v>507</v>
       </c>
@@ -3782,6 +3899,9 @@
       <c r="F51" t="s">
         <v>480</v>
       </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
       <c r="H51" t="s">
         <v>507</v>
       </c>
@@ -3805,6 +3925,9 @@
       <c r="F52" t="s">
         <v>476</v>
       </c>
+      <c r="G52" t="s">
+        <v>292</v>
+      </c>
       <c r="H52" t="s">
         <v>507</v>
       </c>
@@ -3828,6 +3951,9 @@
       <c r="F53" t="s">
         <v>491</v>
       </c>
+      <c r="G53" t="s">
+        <v>293</v>
+      </c>
       <c r="H53" t="s">
         <v>507</v>
       </c>
@@ -3851,6 +3977,9 @@
       <c r="F54" t="s">
         <v>476</v>
       </c>
+      <c r="G54" t="s">
+        <v>267</v>
+      </c>
       <c r="H54" t="s">
         <v>507</v>
       </c>
@@ -3874,6 +4003,9 @@
       <c r="F55" t="s">
         <v>479</v>
       </c>
+      <c r="G55" t="s">
+        <v>294</v>
+      </c>
       <c r="H55" t="s">
         <v>507</v>
       </c>
@@ -3897,6 +4029,9 @@
       <c r="F56" t="s">
         <v>477</v>
       </c>
+      <c r="G56" t="s">
+        <v>288</v>
+      </c>
       <c r="H56" t="s">
         <v>507</v>
       </c>
@@ -3920,6 +4055,9 @@
       <c r="F57" t="s">
         <v>476</v>
       </c>
+      <c r="G57" t="s">
+        <v>268</v>
+      </c>
       <c r="H57" t="s">
         <v>507</v>
       </c>
@@ -3943,6 +4081,9 @@
       <c r="F58" t="s">
         <v>486</v>
       </c>
+      <c r="G58" t="s">
+        <v>295</v>
+      </c>
       <c r="H58" t="s">
         <v>507</v>
       </c>
@@ -3966,6 +4107,9 @@
       <c r="F59" t="s">
         <v>479</v>
       </c>
+      <c r="G59" t="s">
+        <v>296</v>
+      </c>
       <c r="H59" t="s">
         <v>507</v>
       </c>
@@ -3989,6 +4133,9 @@
       <c r="F60" t="s">
         <v>479</v>
       </c>
+      <c r="G60" t="s">
+        <v>273</v>
+      </c>
       <c r="H60" t="s">
         <v>507</v>
       </c>
@@ -4038,6 +4185,9 @@
       <c r="F62" t="s">
         <v>492</v>
       </c>
+      <c r="G62" t="s">
+        <v>298</v>
+      </c>
       <c r="H62" t="s">
         <v>507</v>
       </c>
@@ -4061,6 +4211,9 @@
       <c r="F63" t="s">
         <v>493</v>
       </c>
+      <c r="G63" t="s">
+        <v>298</v>
+      </c>
       <c r="H63" t="s">
         <v>507</v>
       </c>
@@ -4084,6 +4237,9 @@
       <c r="F64" t="s">
         <v>477</v>
       </c>
+      <c r="G64" t="s">
+        <v>280</v>
+      </c>
       <c r="H64" t="s">
         <v>507</v>
       </c>
@@ -4107,6 +4263,9 @@
       <c r="F65" t="s">
         <v>494</v>
       </c>
+      <c r="G65" t="s">
+        <v>286</v>
+      </c>
       <c r="H65" t="s">
         <v>507</v>
       </c>
@@ -4156,6 +4315,9 @@
       <c r="F67" t="s">
         <v>476</v>
       </c>
+      <c r="G67" t="s">
+        <v>299</v>
+      </c>
       <c r="H67" t="s">
         <v>507</v>
       </c>
@@ -4179,6 +4341,9 @@
       <c r="F68" t="s">
         <v>477</v>
       </c>
+      <c r="G68" t="s">
+        <v>284</v>
+      </c>
       <c r="H68" t="s">
         <v>507</v>
       </c>
@@ -4202,6 +4367,9 @@
       <c r="F69" t="s">
         <v>495</v>
       </c>
+      <c r="G69" t="s">
+        <v>264</v>
+      </c>
       <c r="H69" t="s">
         <v>507</v>
       </c>
@@ -4225,6 +4393,9 @@
       <c r="F70" t="s">
         <v>473</v>
       </c>
+      <c r="G70" t="s">
+        <v>300</v>
+      </c>
       <c r="H70" t="s">
         <v>507</v>
       </c>
@@ -4248,6 +4419,9 @@
       <c r="F71" t="s">
         <v>479</v>
       </c>
+      <c r="G71" t="s">
+        <v>301</v>
+      </c>
       <c r="H71" t="s">
         <v>507</v>
       </c>
@@ -4271,6 +4445,9 @@
       <c r="F72" t="s">
         <v>489</v>
       </c>
+      <c r="G72" t="s">
+        <v>302</v>
+      </c>
       <c r="H72" t="s">
         <v>507</v>
       </c>
@@ -4294,6 +4471,9 @@
       <c r="F73" t="s">
         <v>481</v>
       </c>
+      <c r="G73" t="s">
+        <v>302</v>
+      </c>
       <c r="H73" t="s">
         <v>507</v>
       </c>
@@ -4317,6 +4497,9 @@
       <c r="F74" t="s">
         <v>489</v>
       </c>
+      <c r="G74" t="s">
+        <v>302</v>
+      </c>
       <c r="H74" t="s">
         <v>507</v>
       </c>
@@ -4326,19 +4509,22 @@
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D75" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E75" t="s">
         <v>470</v>
       </c>
       <c r="F75" t="s">
         <v>489</v>
+      </c>
+      <c r="G75" t="s">
+        <v>302</v>
       </c>
       <c r="H75" t="s">
         <v>507</v>
@@ -4363,6 +4549,9 @@
       <c r="F76" t="s">
         <v>489</v>
       </c>
+      <c r="G76" t="s">
+        <v>302</v>
+      </c>
       <c r="H76" t="s">
         <v>507</v>
       </c>
@@ -4372,19 +4561,22 @@
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C77" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D77" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E77" t="s">
         <v>470</v>
       </c>
       <c r="F77" t="s">
-        <v>489</v>
+        <v>481</v>
+      </c>
+      <c r="G77" t="s">
+        <v>298</v>
       </c>
       <c r="H77" t="s">
         <v>507</v>
@@ -4395,19 +4587,22 @@
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C78" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D78" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E78" t="s">
         <v>470</v>
       </c>
       <c r="F78" t="s">
-        <v>481</v>
+        <v>489</v>
+      </c>
+      <c r="G78" t="s">
+        <v>302</v>
       </c>
       <c r="H78" t="s">
         <v>507</v>
@@ -4418,19 +4613,22 @@
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C79" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D79" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E79" t="s">
         <v>470</v>
       </c>
       <c r="F79" t="s">
-        <v>489</v>
+        <v>481</v>
+      </c>
+      <c r="G79" t="s">
+        <v>303</v>
       </c>
       <c r="H79" t="s">
         <v>507</v>
@@ -4441,19 +4639,22 @@
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="E80" t="s">
         <v>470</v>
       </c>
       <c r="F80" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G80" t="s">
+        <v>273</v>
       </c>
       <c r="H80" t="s">
         <v>507</v>
@@ -4464,19 +4665,22 @@
         <v>87</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="D81" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="E81" t="s">
         <v>470</v>
       </c>
       <c r="F81" t="s">
-        <v>476</v>
+        <v>481</v>
+      </c>
+      <c r="G81" t="s">
+        <v>304</v>
       </c>
       <c r="H81" t="s">
         <v>507</v>
@@ -4487,19 +4691,22 @@
         <v>88</v>
       </c>
       <c r="B82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
         <v>470</v>
       </c>
       <c r="F82" t="s">
         <v>481</v>
+      </c>
+      <c r="G82" t="s">
+        <v>304</v>
       </c>
       <c r="H82" t="s">
         <v>507</v>
@@ -4510,19 +4717,22 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="C83" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D83" t="s">
-        <v>405</v>
+        <v>345</v>
       </c>
       <c r="E83" t="s">
         <v>470</v>
       </c>
       <c r="F83" t="s">
-        <v>481</v>
+        <v>472</v>
+      </c>
+      <c r="G83" t="s">
+        <v>265</v>
       </c>
       <c r="H83" t="s">
         <v>507</v>
@@ -4533,19 +4743,22 @@
         <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="D84" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="E84" t="s">
         <v>470</v>
       </c>
       <c r="F84" t="s">
-        <v>472</v>
+        <v>482</v>
+      </c>
+      <c r="G84" t="s">
+        <v>284</v>
       </c>
       <c r="H84" t="s">
         <v>507</v>
@@ -4559,7 +4772,7 @@
         <v>225</v>
       </c>
       <c r="C85" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="D85" t="s">
         <v>406</v>
@@ -4568,7 +4781,10 @@
         <v>470</v>
       </c>
       <c r="F85" t="s">
-        <v>482</v>
+        <v>493</v>
+      </c>
+      <c r="G85" t="s">
+        <v>305</v>
       </c>
       <c r="H85" t="s">
         <v>507</v>
@@ -4579,19 +4795,22 @@
         <v>92</v>
       </c>
       <c r="B86" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D86" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E86" t="s">
         <v>470</v>
       </c>
       <c r="F86" t="s">
-        <v>493</v>
+        <v>482</v>
+      </c>
+      <c r="G86" t="s">
+        <v>284</v>
       </c>
       <c r="H86" t="s">
         <v>507</v>
@@ -4602,19 +4821,22 @@
         <v>93</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="D87" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E87" t="s">
         <v>470</v>
       </c>
       <c r="F87" t="s">
-        <v>482</v>
+        <v>479</v>
+      </c>
+      <c r="G87" t="s">
+        <v>306</v>
       </c>
       <c r="H87" t="s">
         <v>507</v>
@@ -4639,6 +4861,9 @@
       <c r="F88" t="s">
         <v>479</v>
       </c>
+      <c r="G88" t="s">
+        <v>307</v>
+      </c>
       <c r="H88" t="s">
         <v>507</v>
       </c>
@@ -4651,7 +4876,7 @@
         <v>228</v>
       </c>
       <c r="C89" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="D89" t="s">
         <v>409</v>
@@ -4660,7 +4885,10 @@
         <v>470</v>
       </c>
       <c r="F89" t="s">
-        <v>479</v>
+        <v>473</v>
+      </c>
+      <c r="G89" t="s">
+        <v>296</v>
       </c>
       <c r="H89" t="s">
         <v>507</v>
@@ -4674,7 +4902,7 @@
         <v>229</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D90" t="s">
         <v>410</v>
@@ -4683,7 +4911,10 @@
         <v>470</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>481</v>
+      </c>
+      <c r="G90" t="s">
+        <v>308</v>
       </c>
       <c r="H90" t="s">
         <v>507</v>
@@ -4694,7 +4925,7 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="C91" t="s">
         <v>309</v>
@@ -4706,7 +4937,10 @@
         <v>470</v>
       </c>
       <c r="F91" t="s">
-        <v>481</v>
+        <v>489</v>
+      </c>
+      <c r="G91" t="s">
+        <v>309</v>
       </c>
       <c r="H91" t="s">
         <v>507</v>
@@ -4717,19 +4951,22 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="D92" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="E92" t="s">
         <v>470</v>
       </c>
       <c r="F92" t="s">
-        <v>489</v>
+        <v>472</v>
+      </c>
+      <c r="G92" t="s">
+        <v>268</v>
       </c>
       <c r="H92" t="s">
         <v>507</v>
@@ -4740,19 +4977,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C93" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D93" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E93" t="s">
         <v>470</v>
       </c>
       <c r="F93" t="s">
-        <v>472</v>
+        <v>476</v>
+      </c>
+      <c r="G93" t="s">
+        <v>266</v>
       </c>
       <c r="H93" t="s">
         <v>507</v>
@@ -4763,19 +5003,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E94" t="s">
         <v>470</v>
       </c>
       <c r="F94" t="s">
         <v>476</v>
+      </c>
+      <c r="G94" t="s">
+        <v>273</v>
       </c>
       <c r="H94" t="s">
         <v>507</v>
@@ -4786,19 +5029,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D95" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="E95" t="s">
         <v>470</v>
       </c>
       <c r="F95" t="s">
-        <v>476</v>
+        <v>482</v>
+      </c>
+      <c r="G95" t="s">
+        <v>265</v>
       </c>
       <c r="H95" t="s">
         <v>507</v>
@@ -4812,7 +5058,7 @@
         <v>231</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="D96" t="s">
         <v>413</v>
@@ -4821,7 +5067,10 @@
         <v>470</v>
       </c>
       <c r="F96" t="s">
-        <v>482</v>
+        <v>473</v>
+      </c>
+      <c r="G96" t="s">
+        <v>310</v>
       </c>
       <c r="H96" t="s">
         <v>507</v>
@@ -4846,6 +5095,9 @@
       <c r="F97" t="s">
         <v>473</v>
       </c>
+      <c r="G97" t="s">
+        <v>311</v>
+      </c>
       <c r="H97" t="s">
         <v>507</v>
       </c>
@@ -4867,7 +5119,10 @@
         <v>470</v>
       </c>
       <c r="F98" t="s">
-        <v>473</v>
+        <v>486</v>
+      </c>
+      <c r="G98" t="s">
+        <v>312</v>
       </c>
       <c r="H98" t="s">
         <v>507</v>
@@ -4890,7 +5145,7 @@
         <v>470</v>
       </c>
       <c r="F99" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G99" t="s">
         <v>313</v>
@@ -4916,7 +5171,10 @@
         <v>470</v>
       </c>
       <c r="F100" t="s">
-        <v>481</v>
+        <v>486</v>
+      </c>
+      <c r="G100" t="s">
+        <v>314</v>
       </c>
       <c r="H100" t="s">
         <v>507</v>
@@ -4939,7 +5197,10 @@
         <v>470</v>
       </c>
       <c r="F101" t="s">
-        <v>486</v>
+        <v>484</v>
+      </c>
+      <c r="G101" t="s">
+        <v>315</v>
       </c>
       <c r="H101" t="s">
         <v>507</v>
@@ -4962,7 +5223,10 @@
         <v>470</v>
       </c>
       <c r="F102" t="s">
-        <v>484</v>
+        <v>487</v>
+      </c>
+      <c r="G102" t="s">
+        <v>316</v>
       </c>
       <c r="H102" t="s">
         <v>507</v>
@@ -4973,19 +5237,22 @@
         <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C103" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E103" t="s">
         <v>470</v>
       </c>
       <c r="F103" t="s">
-        <v>487</v>
+        <v>479</v>
+      </c>
+      <c r="G103" t="s">
+        <v>306</v>
       </c>
       <c r="H103" t="s">
         <v>507</v>
@@ -4996,19 +5263,22 @@
         <v>110</v>
       </c>
       <c r="B104" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="D104" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="E104" t="s">
         <v>470</v>
       </c>
       <c r="F104" t="s">
-        <v>479</v>
+        <v>476</v>
+      </c>
+      <c r="G104" t="s">
+        <v>273</v>
       </c>
       <c r="H104" t="s">
         <v>507</v>
@@ -5022,16 +5292,19 @@
         <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>273</v>
+        <v>317</v>
       </c>
       <c r="D105" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="E105" t="s">
         <v>470</v>
       </c>
       <c r="F105" t="s">
-        <v>476</v>
+        <v>479</v>
+      </c>
+      <c r="G105" t="s">
+        <v>317</v>
       </c>
       <c r="H105" t="s">
         <v>507</v>
@@ -5045,7 +5318,7 @@
         <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D106" t="s">
         <v>421</v>
@@ -5054,7 +5327,10 @@
         <v>470</v>
       </c>
       <c r="F106" t="s">
-        <v>479</v>
+        <v>489</v>
+      </c>
+      <c r="G106" t="s">
+        <v>312</v>
       </c>
       <c r="H106" t="s">
         <v>507</v>
@@ -5068,7 +5344,7 @@
         <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D107" t="s">
         <v>422</v>
@@ -5077,7 +5353,10 @@
         <v>470</v>
       </c>
       <c r="F107" t="s">
-        <v>489</v>
+        <v>479</v>
+      </c>
+      <c r="G107" t="s">
+        <v>318</v>
       </c>
       <c r="H107" t="s">
         <v>507</v>
@@ -5102,6 +5381,9 @@
       <c r="F108" t="s">
         <v>479</v>
       </c>
+      <c r="G108" t="s">
+        <v>319</v>
+      </c>
       <c r="H108" t="s">
         <v>507</v>
       </c>
@@ -5123,7 +5405,10 @@
         <v>470</v>
       </c>
       <c r="F109" t="s">
-        <v>479</v>
+        <v>486</v>
+      </c>
+      <c r="G109" t="s">
+        <v>320</v>
       </c>
       <c r="H109" t="s">
         <v>507</v>
@@ -5134,7 +5419,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C110" t="s">
         <v>321</v>
@@ -5146,7 +5431,10 @@
         <v>470</v>
       </c>
       <c r="F110" t="s">
-        <v>486</v>
+        <v>479</v>
+      </c>
+      <c r="G110" t="s">
+        <v>321</v>
       </c>
       <c r="H110" t="s">
         <v>507</v>
@@ -5157,7 +5445,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="s">
-        <v>240</v>
+        <v>196</v>
       </c>
       <c r="C111" t="s">
         <v>322</v>
@@ -5169,7 +5457,10 @@
         <v>470</v>
       </c>
       <c r="F111" t="s">
-        <v>479</v>
+        <v>476</v>
+      </c>
+      <c r="G111" t="s">
+        <v>322</v>
       </c>
       <c r="H111" t="s">
         <v>507</v>
@@ -5180,10 +5471,10 @@
         <v>118</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="C112" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="D112" t="s">
         <v>427</v>
@@ -5192,7 +5483,10 @@
         <v>470</v>
       </c>
       <c r="F112" t="s">
-        <v>476</v>
+        <v>484</v>
+      </c>
+      <c r="G112" t="s">
+        <v>306</v>
       </c>
       <c r="H112" t="s">
         <v>507</v>
@@ -5203,10 +5497,10 @@
         <v>119</v>
       </c>
       <c r="B113" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C113" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="D113" t="s">
         <v>428</v>
@@ -5215,7 +5509,10 @@
         <v>470</v>
       </c>
       <c r="F113" t="s">
-        <v>484</v>
+        <v>486</v>
+      </c>
+      <c r="G113" t="s">
+        <v>323</v>
       </c>
       <c r="H113" t="s">
         <v>507</v>
@@ -5229,7 +5526,7 @@
         <v>245</v>
       </c>
       <c r="C114" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="D114" t="s">
         <v>429</v>
@@ -5238,7 +5535,10 @@
         <v>470</v>
       </c>
       <c r="F114" t="s">
-        <v>486</v>
+        <v>481</v>
+      </c>
+      <c r="G114" t="s">
+        <v>312</v>
       </c>
       <c r="H114" t="s">
         <v>507</v>
@@ -5252,7 +5552,7 @@
         <v>246</v>
       </c>
       <c r="C115" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="D115" t="s">
         <v>430</v>
@@ -5261,7 +5561,10 @@
         <v>470</v>
       </c>
       <c r="F115" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G115" t="s">
+        <v>324</v>
       </c>
       <c r="H115" t="s">
         <v>507</v>
@@ -5275,7 +5578,7 @@
         <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="D116" t="s">
         <v>431</v>
@@ -5284,7 +5587,10 @@
         <v>470</v>
       </c>
       <c r="F116" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="G116" t="s">
+        <v>284</v>
       </c>
       <c r="H116" t="s">
         <v>507</v>
@@ -5298,7 +5604,7 @@
         <v>248</v>
       </c>
       <c r="C117" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="D117" t="s">
         <v>432</v>
@@ -5307,7 +5613,10 @@
         <v>470</v>
       </c>
       <c r="F117" t="s">
-        <v>473</v>
+        <v>481</v>
+      </c>
+      <c r="G117" t="s">
+        <v>325</v>
       </c>
       <c r="H117" t="s">
         <v>507</v>
@@ -5332,6 +5641,9 @@
       <c r="F118" t="s">
         <v>481</v>
       </c>
+      <c r="G118" t="s">
+        <v>326</v>
+      </c>
       <c r="H118" t="s">
         <v>507</v>
       </c>
@@ -5341,19 +5653,22 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D119" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E119" t="s">
         <v>470</v>
       </c>
       <c r="F119" t="s">
         <v>481</v>
+      </c>
+      <c r="G119" t="s">
+        <v>326</v>
       </c>
       <c r="H119" t="s">
         <v>507</v>
@@ -5364,10 +5679,10 @@
         <v>126</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="D120" t="s">
         <v>434</v>
@@ -5376,7 +5691,10 @@
         <v>470</v>
       </c>
       <c r="F120" t="s">
-        <v>481</v>
+        <v>496</v>
+      </c>
+      <c r="G120" t="s">
+        <v>267</v>
       </c>
       <c r="H120" t="s">
         <v>507</v>
@@ -5387,19 +5705,22 @@
         <v>127</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="D121" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E121" t="s">
         <v>470</v>
       </c>
       <c r="F121" t="s">
-        <v>496</v>
+        <v>479</v>
+      </c>
+      <c r="G121" t="s">
+        <v>304</v>
       </c>
       <c r="H121" t="s">
         <v>507</v>
@@ -5410,19 +5731,22 @@
         <v>128</v>
       </c>
       <c r="B122" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D122" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="E122" t="s">
         <v>470</v>
       </c>
       <c r="F122" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="G122" t="s">
+        <v>299</v>
       </c>
       <c r="H122" t="s">
         <v>507</v>
@@ -5433,10 +5757,10 @@
         <v>129</v>
       </c>
       <c r="B123" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="D123" t="s">
         <v>436</v>
@@ -5445,7 +5769,10 @@
         <v>470</v>
       </c>
       <c r="F123" t="s">
-        <v>481</v>
+        <v>484</v>
+      </c>
+      <c r="G123" t="s">
+        <v>327</v>
       </c>
       <c r="H123" t="s">
         <v>507</v>
@@ -5456,19 +5783,22 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C124" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="D124" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="E124" t="s">
         <v>470</v>
       </c>
       <c r="F124" t="s">
-        <v>484</v>
+        <v>476</v>
+      </c>
+      <c r="G124" t="s">
+        <v>273</v>
       </c>
       <c r="H124" t="s">
         <v>507</v>
@@ -5479,19 +5809,22 @@
         <v>131</v>
       </c>
       <c r="B125" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C125" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="D125" t="s">
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="E125" t="s">
         <v>470</v>
       </c>
       <c r="F125" t="s">
-        <v>476</v>
+        <v>481</v>
+      </c>
+      <c r="G125" t="s">
+        <v>328</v>
       </c>
       <c r="H125" t="s">
         <v>507</v>
@@ -5502,19 +5835,22 @@
         <v>132</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C126" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="D126" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="E126" t="s">
         <v>470</v>
       </c>
       <c r="F126" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="G126" t="s">
+        <v>306</v>
       </c>
       <c r="H126" t="s">
         <v>507</v>
@@ -5525,19 +5861,22 @@
         <v>133</v>
       </c>
       <c r="B127" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="D127" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="E127" t="s">
         <v>470</v>
       </c>
       <c r="F127" t="s">
-        <v>479</v>
+        <v>472</v>
+      </c>
+      <c r="G127" t="s">
+        <v>267</v>
       </c>
       <c r="H127" t="s">
         <v>507</v>
@@ -5548,10 +5887,10 @@
         <v>134</v>
       </c>
       <c r="B128" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="C128" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D128" t="s">
         <v>439</v>
@@ -5560,7 +5899,10 @@
         <v>470</v>
       </c>
       <c r="F128" t="s">
-        <v>472</v>
+        <v>479</v>
+      </c>
+      <c r="G128" t="s">
+        <v>265</v>
       </c>
       <c r="H128" t="s">
         <v>507</v>
@@ -5571,10 +5913,10 @@
         <v>135</v>
       </c>
       <c r="B129" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C129" t="s">
-        <v>265</v>
+        <v>329</v>
       </c>
       <c r="D129" t="s">
         <v>440</v>
@@ -5583,7 +5925,10 @@
         <v>470</v>
       </c>
       <c r="F129" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="G129" t="s">
+        <v>329</v>
       </c>
       <c r="H129" t="s">
         <v>507</v>
@@ -5594,7 +5939,7 @@
         <v>136</v>
       </c>
       <c r="B130" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
       <c r="C130" t="s">
         <v>330</v>
@@ -5606,7 +5951,10 @@
         <v>470</v>
       </c>
       <c r="F130" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G130" t="s">
+        <v>330</v>
       </c>
       <c r="H130" t="s">
         <v>507</v>
@@ -5617,10 +5965,10 @@
         <v>137</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="C131" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D131" t="s">
         <v>442</v>
@@ -5629,7 +5977,10 @@
         <v>470</v>
       </c>
       <c r="F131" t="s">
-        <v>476</v>
+        <v>473</v>
+      </c>
+      <c r="G131" t="s">
+        <v>312</v>
       </c>
       <c r="H131" t="s">
         <v>507</v>
@@ -5640,10 +5991,10 @@
         <v>138</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>254</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D132" t="s">
         <v>443</v>
@@ -5652,7 +6003,10 @@
         <v>470</v>
       </c>
       <c r="F132" t="s">
-        <v>473</v>
+        <v>497</v>
+      </c>
+      <c r="G132" t="s">
+        <v>331</v>
       </c>
       <c r="H132" t="s">
         <v>507</v>
@@ -5675,7 +6029,10 @@
         <v>470</v>
       </c>
       <c r="F133" t="s">
-        <v>497</v>
+        <v>498</v>
+      </c>
+      <c r="G133" t="s">
+        <v>332</v>
       </c>
       <c r="H133" t="s">
         <v>507</v>
@@ -5686,19 +6043,22 @@
         <v>140</v>
       </c>
       <c r="B134" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="C134" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="D134" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="E134" t="s">
         <v>470</v>
       </c>
       <c r="F134" t="s">
-        <v>498</v>
+        <v>481</v>
+      </c>
+      <c r="G134" t="s">
+        <v>304</v>
       </c>
       <c r="H134" t="s">
         <v>507</v>
@@ -5709,19 +6069,22 @@
         <v>141</v>
       </c>
       <c r="B135" t="s">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D135" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="E135" t="s">
         <v>470</v>
       </c>
       <c r="F135" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="G135" t="s">
+        <v>274</v>
       </c>
       <c r="H135" t="s">
         <v>507</v>
@@ -5732,10 +6095,10 @@
         <v>142</v>
       </c>
       <c r="B136" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="D136" t="s">
         <v>446</v>
@@ -5745,6 +6108,9 @@
       </c>
       <c r="F136" t="s">
         <v>479</v>
+      </c>
+      <c r="G136" t="s">
+        <v>333</v>
       </c>
       <c r="H136" t="s">
         <v>507</v>
@@ -5755,10 +6121,10 @@
         <v>143</v>
       </c>
       <c r="B137" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C137" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="D137" t="s">
         <v>447</v>
@@ -5768,6 +6134,9 @@
       </c>
       <c r="F137" t="s">
         <v>479</v>
+      </c>
+      <c r="G137" t="s">
+        <v>279</v>
       </c>
       <c r="H137" t="s">
         <v>507</v>
@@ -5778,10 +6147,10 @@
         <v>144</v>
       </c>
       <c r="B138" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D138" t="s">
         <v>448</v>
@@ -5790,7 +6159,10 @@
         <v>470</v>
       </c>
       <c r="F138" t="s">
-        <v>479</v>
+        <v>489</v>
+      </c>
+      <c r="G138" t="s">
+        <v>269</v>
       </c>
       <c r="H138" t="s">
         <v>507</v>
@@ -5801,10 +6173,10 @@
         <v>145</v>
       </c>
       <c r="B139" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="D139" t="s">
         <v>449</v>
@@ -5813,7 +6185,10 @@
         <v>470</v>
       </c>
       <c r="F139" t="s">
-        <v>489</v>
+        <v>479</v>
+      </c>
+      <c r="G139" t="s">
+        <v>334</v>
       </c>
       <c r="H139" t="s">
         <v>507</v>
@@ -5824,10 +6199,10 @@
         <v>146</v>
       </c>
       <c r="B140" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C140" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D140" t="s">
         <v>450</v>
@@ -5836,7 +6211,10 @@
         <v>470</v>
       </c>
       <c r="F140" t="s">
-        <v>479</v>
+        <v>481</v>
+      </c>
+      <c r="G140" t="s">
+        <v>321</v>
       </c>
       <c r="H140" t="s">
         <v>507</v>
@@ -5850,7 +6228,7 @@
         <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="D141" t="s">
         <v>451</v>
@@ -5859,7 +6237,10 @@
         <v>470</v>
       </c>
       <c r="F141" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="G141" t="s">
+        <v>299</v>
       </c>
       <c r="H141" t="s">
         <v>507</v>
@@ -5870,10 +6251,10 @@
         <v>148</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="C142" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="D142" t="s">
         <v>452</v>
@@ -5883,6 +6264,9 @@
       </c>
       <c r="F142" t="s">
         <v>479</v>
+      </c>
+      <c r="G142" t="s">
+        <v>335</v>
       </c>
       <c r="H142" t="s">
         <v>507</v>
@@ -5893,7 +6277,7 @@
         <v>149</v>
       </c>
       <c r="B143" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C143" t="s">
         <v>336</v>
@@ -5905,7 +6289,10 @@
         <v>470</v>
       </c>
       <c r="F143" t="s">
-        <v>479</v>
+        <v>493</v>
+      </c>
+      <c r="G143" t="s">
+        <v>336</v>
       </c>
       <c r="H143" t="s">
         <v>507</v>
@@ -5916,10 +6303,10 @@
         <v>150</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C144" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="D144" t="s">
         <v>454</v>
@@ -5928,7 +6315,10 @@
         <v>470</v>
       </c>
       <c r="F144" t="s">
-        <v>493</v>
+        <v>484</v>
+      </c>
+      <c r="G144" t="s">
+        <v>269</v>
       </c>
       <c r="H144" t="s">
         <v>507</v>
@@ -5939,10 +6329,10 @@
         <v>151</v>
       </c>
       <c r="B145" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="D145" t="s">
         <v>455</v>
@@ -5951,7 +6341,10 @@
         <v>470</v>
       </c>
       <c r="F145" t="s">
-        <v>484</v>
+        <v>481</v>
+      </c>
+      <c r="G145" t="s">
+        <v>337</v>
       </c>
       <c r="H145" t="s">
         <v>507</v>
@@ -5962,10 +6355,10 @@
         <v>152</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C146" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="D146" t="s">
         <v>456</v>
@@ -5974,7 +6367,10 @@
         <v>470</v>
       </c>
       <c r="F146" t="s">
-        <v>481</v>
+        <v>493</v>
+      </c>
+      <c r="G146" t="s">
+        <v>269</v>
       </c>
       <c r="H146" t="s">
         <v>507</v>
@@ -5991,13 +6387,16 @@
         <v>269</v>
       </c>
       <c r="D147" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E147" t="s">
         <v>470</v>
       </c>
       <c r="F147" t="s">
-        <v>493</v>
+        <v>484</v>
+      </c>
+      <c r="G147" t="s">
+        <v>269</v>
       </c>
       <c r="H147" t="s">
         <v>507</v>
@@ -6008,19 +6407,22 @@
         <v>154</v>
       </c>
       <c r="B148" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C148" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="D148" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E148" t="s">
         <v>470</v>
       </c>
       <c r="F148" t="s">
-        <v>484</v>
+        <v>493</v>
+      </c>
+      <c r="G148" t="s">
+        <v>338</v>
       </c>
       <c r="H148" t="s">
         <v>507</v>
@@ -6031,10 +6433,10 @@
         <v>155</v>
       </c>
       <c r="B149" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C149" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D149" t="s">
         <v>458</v>
@@ -6043,7 +6445,10 @@
         <v>470</v>
       </c>
       <c r="F149" t="s">
-        <v>493</v>
+        <v>499</v>
+      </c>
+      <c r="G149" t="s">
+        <v>336</v>
       </c>
       <c r="H149" t="s">
         <v>507</v>
@@ -6054,19 +6459,22 @@
         <v>156</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="C150" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="D150" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="E150" t="s">
         <v>470</v>
       </c>
       <c r="F150" t="s">
-        <v>499</v>
+        <v>481</v>
+      </c>
+      <c r="G150" t="s">
+        <v>304</v>
       </c>
       <c r="H150" t="s">
         <v>507</v>
@@ -6077,19 +6485,22 @@
         <v>157</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="D151" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="E151" t="s">
         <v>470</v>
       </c>
       <c r="F151" t="s">
-        <v>481</v>
+        <v>489</v>
+      </c>
+      <c r="G151" t="s">
+        <v>269</v>
       </c>
       <c r="H151" t="s">
         <v>507</v>
@@ -6106,13 +6517,16 @@
         <v>269</v>
       </c>
       <c r="D152" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E152" t="s">
         <v>470</v>
       </c>
       <c r="F152" t="s">
         <v>489</v>
+      </c>
+      <c r="G152" t="s">
+        <v>269</v>
       </c>
       <c r="H152" t="s">
         <v>507</v>
@@ -6123,19 +6537,22 @@
         <v>159</v>
       </c>
       <c r="B153" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="C153" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="D153" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="E153" t="s">
         <v>470</v>
       </c>
       <c r="F153" t="s">
         <v>489</v>
+      </c>
+      <c r="G153" t="s">
+        <v>304</v>
       </c>
       <c r="H153" t="s">
         <v>507</v>
@@ -6146,19 +6563,22 @@
         <v>160</v>
       </c>
       <c r="B154" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="D154" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="E154" t="s">
         <v>470</v>
       </c>
       <c r="F154" t="s">
         <v>489</v>
+      </c>
+      <c r="G154" t="s">
+        <v>269</v>
       </c>
       <c r="H154" t="s">
         <v>507</v>
@@ -6175,13 +6595,16 @@
         <v>269</v>
       </c>
       <c r="D155" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E155" t="s">
         <v>470</v>
       </c>
       <c r="F155" t="s">
         <v>489</v>
+      </c>
+      <c r="G155" t="s">
+        <v>269</v>
       </c>
       <c r="H155" t="s">
         <v>507</v>
@@ -6192,19 +6615,22 @@
         <v>162</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="C156" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="D156" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="E156" t="s">
         <v>470</v>
       </c>
       <c r="F156" t="s">
-        <v>489</v>
+        <v>481</v>
+      </c>
+      <c r="G156" t="s">
+        <v>339</v>
       </c>
       <c r="H156" t="s">
         <v>507</v>
@@ -6215,10 +6641,10 @@
         <v>163</v>
       </c>
       <c r="B157" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="C157" t="s">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="D157" t="s">
         <v>461</v>
@@ -6227,7 +6653,10 @@
         <v>470</v>
       </c>
       <c r="F157" t="s">
-        <v>481</v>
+        <v>476</v>
+      </c>
+      <c r="G157" t="s">
+        <v>265</v>
       </c>
       <c r="H157" t="s">
         <v>507</v>
@@ -6238,10 +6667,10 @@
         <v>164</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C158" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="D158" t="s">
         <v>462</v>
@@ -6250,7 +6679,10 @@
         <v>470</v>
       </c>
       <c r="F158" t="s">
-        <v>476</v>
+        <v>492</v>
+      </c>
+      <c r="G158" t="s">
+        <v>340</v>
       </c>
       <c r="H158" t="s">
         <v>507</v>
@@ -6261,10 +6693,10 @@
         <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>177</v>
+        <v>260</v>
       </c>
       <c r="C159" t="s">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="D159" t="s">
         <v>463</v>
@@ -6273,7 +6705,10 @@
         <v>470</v>
       </c>
       <c r="F159" t="s">
-        <v>492</v>
+        <v>500</v>
+      </c>
+      <c r="G159" t="s">
+        <v>260</v>
       </c>
       <c r="H159" t="s">
         <v>507</v>
@@ -6284,10 +6719,10 @@
         <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D160" t="s">
         <v>464</v>
@@ -6296,10 +6731,10 @@
         <v>470</v>
       </c>
       <c r="F160" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G160" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H160" t="s">
         <v>507</v>
@@ -6310,19 +6745,22 @@
         <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C161" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D161" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E161" t="s">
         <v>470</v>
       </c>
       <c r="F161" t="s">
         <v>501</v>
+      </c>
+      <c r="G161" t="s">
+        <v>260</v>
       </c>
       <c r="H161" t="s">
         <v>507</v>
@@ -6333,19 +6771,22 @@
         <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C162" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D162" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E162" t="s">
         <v>470</v>
       </c>
       <c r="F162" t="s">
         <v>501</v>
+      </c>
+      <c r="G162" t="s">
+        <v>260</v>
       </c>
       <c r="H162" t="s">
         <v>507</v>
@@ -6356,10 +6797,10 @@
         <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C163" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D163" t="s">
         <v>465</v>
@@ -6368,7 +6809,10 @@
         <v>470</v>
       </c>
       <c r="F163" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+      <c r="G163" t="s">
+        <v>260</v>
       </c>
       <c r="H163" t="s">
         <v>507</v>
@@ -6379,19 +6823,22 @@
         <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D164" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E164" t="s">
         <v>470</v>
       </c>
       <c r="F164" t="s">
-        <v>502</v>
+        <v>501</v>
+      </c>
+      <c r="G164" t="s">
+        <v>260</v>
       </c>
       <c r="H164" t="s">
         <v>507</v>
@@ -6402,19 +6849,22 @@
         <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="C165" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="D165" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E165" t="s">
         <v>470</v>
       </c>
       <c r="F165" t="s">
-        <v>501</v>
+        <v>494</v>
+      </c>
+      <c r="G165" t="s">
+        <v>309</v>
       </c>
       <c r="H165" t="s">
         <v>507</v>
@@ -6425,10 +6875,10 @@
         <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="C166" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="D166" t="s">
         <v>467</v>
@@ -6437,7 +6887,10 @@
         <v>470</v>
       </c>
       <c r="F166" t="s">
-        <v>494</v>
+        <v>489</v>
+      </c>
+      <c r="G166" t="s">
+        <v>341</v>
       </c>
       <c r="H166" t="s">
         <v>507</v>
@@ -6462,6 +6915,9 @@
       <c r="F167" t="s">
         <v>472</v>
       </c>
+      <c r="G167" t="s">
+        <v>342</v>
+      </c>
       <c r="H167" t="s">
         <v>507</v>
       </c>
@@ -6484,6 +6940,9 @@
       </c>
       <c r="F168" t="s">
         <v>479</v>
+      </c>
+      <c r="G168" t="s">
+        <v>343</v>
       </c>
       <c r="H168" t="s">
         <v>507</v>
@@ -6651,6 +7110,9 @@
       <c r="F6" t="s">
         <v>717</v>
       </c>
+      <c r="G6" t="s">
+        <v>617</v>
+      </c>
       <c r="H6" t="s">
         <v>733</v>
       </c>
@@ -6674,6 +7136,9 @@
       <c r="F7" t="s">
         <v>497</v>
       </c>
+      <c r="G7" t="s">
+        <v>618</v>
+      </c>
       <c r="H7" t="s">
         <v>733</v>
       </c>
@@ -6697,6 +7162,9 @@
       <c r="F8" t="s">
         <v>497</v>
       </c>
+      <c r="G8" t="s">
+        <v>619</v>
+      </c>
       <c r="H8" t="s">
         <v>733</v>
       </c>
@@ -6720,6 +7188,9 @@
       <c r="F9" t="s">
         <v>489</v>
       </c>
+      <c r="G9" t="s">
+        <v>620</v>
+      </c>
       <c r="H9" t="s">
         <v>733</v>
       </c>
@@ -6743,6 +7214,9 @@
       <c r="F10" t="s">
         <v>476</v>
       </c>
+      <c r="G10" t="s">
+        <v>621</v>
+      </c>
       <c r="H10" t="s">
         <v>733</v>
       </c>
@@ -6766,6 +7240,9 @@
       <c r="F11" t="s">
         <v>717</v>
       </c>
+      <c r="G11" t="s">
+        <v>265</v>
+      </c>
       <c r="H11" t="s">
         <v>733</v>
       </c>
@@ -6775,19 +7252,22 @@
         <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E12" t="s">
         <v>716</v>
       </c>
       <c r="F12" t="s">
         <v>486</v>
+      </c>
+      <c r="G12" t="s">
+        <v>312</v>
       </c>
       <c r="H12" t="s">
         <v>733</v>
@@ -6812,6 +7292,9 @@
       <c r="F13" t="s">
         <v>472</v>
       </c>
+      <c r="G13" t="s">
+        <v>282</v>
+      </c>
       <c r="H13" t="s">
         <v>733</v>
       </c>
@@ -6835,6 +7318,9 @@
       <c r="F14" t="s">
         <v>484</v>
       </c>
+      <c r="G14" t="s">
+        <v>622</v>
+      </c>
       <c r="H14" t="s">
         <v>733</v>
       </c>
@@ -6858,6 +7344,9 @@
       <c r="F15" t="s">
         <v>484</v>
       </c>
+      <c r="G15" t="s">
+        <v>623</v>
+      </c>
       <c r="H15" t="s">
         <v>733</v>
       </c>
@@ -6870,7 +7359,7 @@
         <v>579</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D16" t="s">
         <v>670</v>
@@ -6880,6 +7369,9 @@
       </c>
       <c r="F16" t="s">
         <v>473</v>
+      </c>
+      <c r="G16" t="s">
+        <v>314</v>
       </c>
       <c r="H16" t="s">
         <v>733</v>
@@ -6930,6 +7422,9 @@
       <c r="F18" t="s">
         <v>494</v>
       </c>
+      <c r="G18" t="s">
+        <v>624</v>
+      </c>
       <c r="H18" t="s">
         <v>733</v>
       </c>
@@ -6953,6 +7448,9 @@
       <c r="F19" t="s">
         <v>494</v>
       </c>
+      <c r="G19" t="s">
+        <v>625</v>
+      </c>
       <c r="H19" t="s">
         <v>733</v>
       </c>
@@ -6976,6 +7474,9 @@
       <c r="F20" t="s">
         <v>482</v>
       </c>
+      <c r="G20" t="s">
+        <v>626</v>
+      </c>
       <c r="H20" t="s">
         <v>733</v>
       </c>
@@ -6988,7 +7489,7 @@
         <v>577</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D21" t="s">
         <v>674</v>
@@ -7000,7 +7501,7 @@
         <v>480</v>
       </c>
       <c r="G21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H21" t="s">
         <v>733</v>
@@ -7025,6 +7526,9 @@
       <c r="F22" t="s">
         <v>500</v>
       </c>
+      <c r="G22" t="s">
+        <v>627</v>
+      </c>
       <c r="H22" t="s">
         <v>733</v>
       </c>
@@ -7048,6 +7552,9 @@
       <c r="F23" t="s">
         <v>718</v>
       </c>
+      <c r="G23" t="s">
+        <v>270</v>
+      </c>
       <c r="H23" t="s">
         <v>733</v>
       </c>
@@ -7071,6 +7578,9 @@
       <c r="F24" t="s">
         <v>719</v>
       </c>
+      <c r="G24" t="s">
+        <v>628</v>
+      </c>
       <c r="H24" t="s">
         <v>733</v>
       </c>
@@ -7080,7 +7590,7 @@
         <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
         <v>629</v>
@@ -7093,6 +7603,9 @@
       </c>
       <c r="F25" t="s">
         <v>500</v>
+      </c>
+      <c r="G25" t="s">
+        <v>629</v>
       </c>
       <c r="H25" t="s">
         <v>733</v>
@@ -7117,6 +7630,9 @@
       <c r="F26" t="s">
         <v>720</v>
       </c>
+      <c r="G26" t="s">
+        <v>630</v>
+      </c>
       <c r="H26" t="s">
         <v>733</v>
       </c>
@@ -7140,6 +7656,9 @@
       <c r="F27" t="s">
         <v>473</v>
       </c>
+      <c r="G27" t="s">
+        <v>631</v>
+      </c>
       <c r="H27" t="s">
         <v>733</v>
       </c>
@@ -7163,6 +7682,9 @@
       <c r="F28" t="s">
         <v>473</v>
       </c>
+      <c r="G28" t="s">
+        <v>632</v>
+      </c>
       <c r="H28" t="s">
         <v>733</v>
       </c>
@@ -7212,6 +7734,9 @@
       <c r="F30" t="s">
         <v>721</v>
       </c>
+      <c r="G30" t="s">
+        <v>634</v>
+      </c>
       <c r="H30" t="s">
         <v>733</v>
       </c>
@@ -7235,6 +7760,9 @@
       <c r="F31" t="s">
         <v>722</v>
       </c>
+      <c r="G31" t="s">
+        <v>635</v>
+      </c>
       <c r="H31" t="s">
         <v>733</v>
       </c>
@@ -7258,6 +7786,9 @@
       <c r="F32" t="s">
         <v>499</v>
       </c>
+      <c r="G32" t="s">
+        <v>636</v>
+      </c>
       <c r="H32" t="s">
         <v>733</v>
       </c>
@@ -7281,6 +7812,9 @@
       <c r="F33" t="s">
         <v>472</v>
       </c>
+      <c r="G33" t="s">
+        <v>617</v>
+      </c>
       <c r="H33" t="s">
         <v>733</v>
       </c>
@@ -7304,6 +7838,9 @@
       <c r="F34" t="s">
         <v>472</v>
       </c>
+      <c r="G34" t="s">
+        <v>637</v>
+      </c>
       <c r="H34" t="s">
         <v>733</v>
       </c>
@@ -7327,6 +7864,9 @@
       <c r="F35" t="s">
         <v>479</v>
       </c>
+      <c r="G35" t="s">
+        <v>638</v>
+      </c>
       <c r="H35" t="s">
         <v>733</v>
       </c>
@@ -7350,6 +7890,9 @@
       <c r="F36" t="s">
         <v>497</v>
       </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
       <c r="H36" t="s">
         <v>733</v>
       </c>
@@ -7373,6 +7916,9 @@
       <c r="F37" t="s">
         <v>473</v>
       </c>
+      <c r="G37" t="s">
+        <v>273</v>
+      </c>
       <c r="H37" t="s">
         <v>733</v>
       </c>
@@ -7396,6 +7942,9 @@
       <c r="F38" t="s">
         <v>717</v>
       </c>
+      <c r="G38" t="s">
+        <v>274</v>
+      </c>
       <c r="H38" t="s">
         <v>733</v>
       </c>
@@ -7419,6 +7968,9 @@
       <c r="F39" t="s">
         <v>471</v>
       </c>
+      <c r="G39" t="s">
+        <v>639</v>
+      </c>
       <c r="H39" t="s">
         <v>733</v>
       </c>
@@ -7442,6 +7994,9 @@
       <c r="F40" t="s">
         <v>473</v>
       </c>
+      <c r="G40" t="s">
+        <v>640</v>
+      </c>
       <c r="H40" t="s">
         <v>733</v>
       </c>
@@ -7480,7 +8035,7 @@
         <v>598</v>
       </c>
       <c r="C42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D42" t="s">
         <v>694</v>
@@ -7490,6 +8045,9 @@
       </c>
       <c r="F42" t="s">
         <v>472</v>
+      </c>
+      <c r="G42" t="s">
+        <v>312</v>
       </c>
       <c r="H42" t="s">
         <v>733</v>
@@ -7514,6 +8072,9 @@
       <c r="F43" t="s">
         <v>486</v>
       </c>
+      <c r="G43" t="s">
+        <v>642</v>
+      </c>
       <c r="H43" t="s">
         <v>733</v>
       </c>
@@ -7537,6 +8098,9 @@
       <c r="F44" t="s">
         <v>479</v>
       </c>
+      <c r="G44" t="s">
+        <v>643</v>
+      </c>
       <c r="H44" t="s">
         <v>733</v>
       </c>
@@ -7560,6 +8124,9 @@
       <c r="F45" t="s">
         <v>722</v>
       </c>
+      <c r="G45" t="s">
+        <v>644</v>
+      </c>
       <c r="H45" t="s">
         <v>733</v>
       </c>
@@ -7572,7 +8139,7 @@
         <v>602</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46" t="s">
         <v>698</v>
@@ -7582,6 +8149,9 @@
       </c>
       <c r="F46" t="s">
         <v>494</v>
+      </c>
+      <c r="G46" t="s">
+        <v>260</v>
       </c>
       <c r="H46" t="s">
         <v>733</v>
@@ -7606,6 +8176,9 @@
       <c r="F47" t="s">
         <v>495</v>
       </c>
+      <c r="G47" t="s">
+        <v>645</v>
+      </c>
       <c r="H47" t="s">
         <v>733</v>
       </c>
@@ -7655,6 +8228,9 @@
       <c r="F49" t="s">
         <v>723</v>
       </c>
+      <c r="G49" t="s">
+        <v>629</v>
+      </c>
       <c r="H49" t="s">
         <v>733</v>
       </c>
@@ -7704,6 +8280,9 @@
       <c r="F51" t="s">
         <v>484</v>
       </c>
+      <c r="G51" t="s">
+        <v>648</v>
+      </c>
       <c r="H51" t="s">
         <v>733</v>
       </c>
@@ -7713,7 +8292,7 @@
         <v>558</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" t="s">
         <v>649</v>
@@ -7726,6 +8305,9 @@
       </c>
       <c r="F52" t="s">
         <v>479</v>
+      </c>
+      <c r="G52" t="s">
+        <v>649</v>
       </c>
       <c r="H52" t="s">
         <v>733</v>
@@ -7750,6 +8332,9 @@
       <c r="F53" t="s">
         <v>473</v>
       </c>
+      <c r="G53" t="s">
+        <v>650</v>
+      </c>
       <c r="H53" t="s">
         <v>733</v>
       </c>
@@ -7773,6 +8358,9 @@
       <c r="F54" t="s">
         <v>724</v>
       </c>
+      <c r="G54" t="s">
+        <v>651</v>
+      </c>
       <c r="H54" t="s">
         <v>733</v>
       </c>
@@ -7796,6 +8384,9 @@
       <c r="F55" t="s">
         <v>494</v>
       </c>
+      <c r="G55" t="s">
+        <v>652</v>
+      </c>
       <c r="H55" t="s">
         <v>733</v>
       </c>
@@ -7845,6 +8436,9 @@
       <c r="F57" t="s">
         <v>726</v>
       </c>
+      <c r="G57" t="s">
+        <v>653</v>
+      </c>
       <c r="H57" t="s">
         <v>733</v>
       </c>
@@ -7868,6 +8462,9 @@
       <c r="F58" t="s">
         <v>471</v>
       </c>
+      <c r="G58" t="s">
+        <v>654</v>
+      </c>
       <c r="H58" t="s">
         <v>733</v>
       </c>
@@ -7891,6 +8488,9 @@
       <c r="F59" t="s">
         <v>486</v>
       </c>
+      <c r="G59" t="s">
+        <v>655</v>
+      </c>
       <c r="H59" t="s">
         <v>733</v>
       </c>
@@ -7903,7 +8503,7 @@
         <v>611</v>
       </c>
       <c r="C60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D60" t="s">
         <v>712</v>
@@ -7913,6 +8513,9 @@
       </c>
       <c r="F60" t="s">
         <v>721</v>
+      </c>
+      <c r="G60" t="s">
+        <v>305</v>
       </c>
       <c r="H60" t="s">
         <v>733</v>
@@ -7926,7 +8529,7 @@
         <v>196</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D61" t="s">
         <v>713</v>
@@ -7936,6 +8539,9 @@
       </c>
       <c r="F61" t="s">
         <v>494</v>
+      </c>
+      <c r="G61" t="s">
+        <v>260</v>
       </c>
       <c r="H61" t="s">
         <v>733</v>
@@ -7946,19 +8552,22 @@
         <v>568</v>
       </c>
       <c r="B62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C62" t="s">
         <v>296</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E62" t="s">
         <v>716</v>
       </c>
       <c r="F62" t="s">
         <v>473</v>
+      </c>
+      <c r="G62" t="s">
+        <v>296</v>
       </c>
       <c r="H62" t="s">
         <v>733</v>
@@ -7983,6 +8592,9 @@
       <c r="F63" t="s">
         <v>479</v>
       </c>
+      <c r="G63" t="s">
+        <v>656</v>
+      </c>
       <c r="H63" t="s">
         <v>733</v>
       </c>
@@ -8005,6 +8617,9 @@
       </c>
       <c r="F64" t="s">
         <v>727</v>
+      </c>
+      <c r="G64" t="s">
+        <v>657</v>
       </c>
       <c r="H64" t="s">
         <v>733</v>

--- a/Otipy/otipy_products.xlsx
+++ b/Otipy/otipy_products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="821">
   <si>
     <t>product_name</t>
   </si>
@@ -305,276 +305,276 @@
     <t>Organic Brinjal - Round (Baingan)</t>
   </si>
   <si>
+    <t>Organic Brinjal - Small (Chu Chu Baingan)</t>
+  </si>
+  <si>
     <t>Wheat Grass</t>
   </si>
   <si>
     <t>Organic Bhindi (Okra)</t>
   </si>
   <si>
+    <t>Hydroponic Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Arbi (Colocasia)</t>
+  </si>
+  <si>
+    <t>Asparagus (Shatavari)</t>
+  </si>
+  <si>
+    <t>Baby Corn</t>
+  </si>
+  <si>
+    <t>Beetroot (Chukandar)</t>
+  </si>
+  <si>
+    <t>Organic Beetroot (Chukandar)</t>
+  </si>
+  <si>
+    <t>Organic Spinach (Paalak)</t>
+  </si>
+  <si>
+    <t>Bitter Gourd (Karela)</t>
+  </si>
+  <si>
+    <t>Organic Bitter Gourd (Karela)</t>
+  </si>
+  <si>
+    <t>Organic Bottle Gourd - Long (Lauki)</t>
+  </si>
+  <si>
+    <t>Cabbage - Red (Patta Gobhi)</t>
+  </si>
+  <si>
+    <t>Organic Cabbage - Green (Patta Gobhi)</t>
+  </si>
+  <si>
+    <t>Garlic (Lehsun)</t>
+  </si>
+  <si>
+    <t>Garlic Cloves - Peeled (Lehsun)</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Tomato - Cherry (Tamatar)</t>
+  </si>
+  <si>
+    <t>Chinese Cabbage</t>
+  </si>
+  <si>
+    <t>Chiya Seeds Microgreens</t>
+  </si>
+  <si>
+    <t>Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Super Sweetcorn</t>
+  </si>
+  <si>
+    <t>Super Sweetcorn - Kernels (Pack of 2 - 250g Each)</t>
+  </si>
+  <si>
+    <t>Super Sweetcorn Kernels - Chat Masala (Pack of 2 - 145g Each)</t>
+  </si>
+  <si>
+    <t>Hydroponic Red and Yellow Capsicum</t>
+  </si>
+  <si>
+    <t>Knol Khol</t>
+  </si>
+  <si>
+    <t>Leek</t>
+  </si>
+  <si>
+    <t>Lemon Grass</t>
+  </si>
+  <si>
+    <t>Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Lettuce - Iceberg</t>
+  </si>
+  <si>
+    <t>Mongra</t>
+  </si>
+  <si>
+    <t>Mustard Microgreens</t>
+  </si>
+  <si>
+    <t>Organic Capsicum - Green (Shimla Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Chilli - Hybrid (Mirch)</t>
+  </si>
+  <si>
+    <t>Organic Cucumber - Seedless (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Cucumber - Hybrid (Kheera)</t>
+  </si>
+  <si>
+    <t>Organic Garlic (Lehsun)</t>
+  </si>
+  <si>
+    <t>Organic Ginger (Adrak)</t>
+  </si>
+  <si>
+    <t>Organic Lemon (Nimbu)</t>
+  </si>
+  <si>
+    <t>Organic Mustard Green (Sarson ka Saag)</t>
+  </si>
+  <si>
+    <t>Organic Pumpkin (Kaddu)</t>
+  </si>
+  <si>
+    <t>Organic Radish (Muli)</t>
+  </si>
+  <si>
+    <t>Hydroponic Red and Yellow Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Hydroponic Red Cherry Tomato</t>
+  </si>
+  <si>
+    <t>Sweet Corn - Pellets</t>
+  </si>
+  <si>
+    <t>Water Chestnut (Singhara)</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Radish Microgreens</t>
+  </si>
+  <si>
+    <t>Banana - Raw</t>
+  </si>
+  <si>
+    <t>Turmeric - Raw (Haldi)</t>
+  </si>
+  <si>
+    <t>Ready to Eat Salad</t>
+  </si>
+  <si>
+    <t>Sarson Leaves</t>
+  </si>
+  <si>
+    <t>Zucchini - Green</t>
+  </si>
+  <si>
+    <t>Zucchini - Yellow</t>
+  </si>
+  <si>
+    <t>Thai Ginger (Adrak)</t>
+  </si>
+  <si>
+    <t>Thai Snow Peas</t>
+  </si>
+  <si>
+    <t>Cut Beetroot Julienne (Thin Stripes)</t>
+  </si>
+  <si>
+    <t>Cut Carrot - Julienne (Thin Stripes)</t>
+  </si>
+  <si>
+    <t>Cut French Beans</t>
+  </si>
+  <si>
+    <t>Cut Fresh Mint (Without Root)</t>
+  </si>
+  <si>
+    <t>Cut Pulao Mix Vegetables</t>
+  </si>
+  <si>
+    <t>Cut Pumpkin (Kaddu)</t>
+  </si>
+  <si>
+    <t>Hydroponic Arugula (Gargeer)</t>
+  </si>
+  <si>
+    <t>Hydroponic Baby Corn</t>
+  </si>
+  <si>
+    <t>Hydroponic Baby Spinach (Paalak)</t>
+  </si>
+  <si>
+    <t>Hydroponic Basil (Tulsi)</t>
+  </si>
+  <si>
+    <t>Hydroponic Bok Choy</t>
+  </si>
+  <si>
+    <t>Hydroponic Celery Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Kale (Tuskan)</t>
+  </si>
+  <si>
+    <t>Hydroponic Leafy Salad Mix</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Butterhead</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Mix Herbs</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Red and Green</t>
+  </si>
+  <si>
+    <t>Hydroponic Lettuce - Romaine</t>
+  </si>
+  <si>
+    <t>Banana Leaf</t>
+  </si>
+  <si>
+    <t>Tadaa Boiled Sweet Corn Cob</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Kernels</t>
+  </si>
+  <si>
+    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
+  </si>
+  <si>
+    <t>Mango Leaves (Aam ka Patta)</t>
+  </si>
+  <si>
     <t>Ameranthus Microgreens</t>
   </si>
   <si>
-    <t>Hydroponic Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Arbi (Colocasia)</t>
-  </si>
-  <si>
-    <t>Asparagus (Shatavari)</t>
-  </si>
-  <si>
-    <t>Baby Corn</t>
-  </si>
-  <si>
-    <t>Beetroot (Chukandar)</t>
-  </si>
-  <si>
-    <t>Organic Beetroot (Chukandar)</t>
-  </si>
-  <si>
-    <t>Organic Spinach (Paalak)</t>
-  </si>
-  <si>
-    <t>Bitter Gourd (Karela)</t>
-  </si>
-  <si>
-    <t>Organic Bitter Gourd (Karela)</t>
-  </si>
-  <si>
-    <t>Organic Bottle Gourd - Long (Lauki)</t>
-  </si>
-  <si>
-    <t>Cabbage - Red (Patta Gobhi)</t>
-  </si>
-  <si>
-    <t>Organic Cabbage - Green (Patta Gobhi)</t>
-  </si>
-  <si>
-    <t>Garlic (Lehsun)</t>
-  </si>
-  <si>
-    <t>Garlic Cloves - Peeled (Lehsun)</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
-    <t>Tomato - Cherry (Tamatar)</t>
-  </si>
-  <si>
-    <t>Chinese Cabbage</t>
-  </si>
-  <si>
-    <t>Chiya Seeds Microgreens</t>
-  </si>
-  <si>
-    <t>Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Super Sweetcorn</t>
-  </si>
-  <si>
-    <t>Super Sweetcorn - Kernels (Pack of 2 - 250g Each)</t>
-  </si>
-  <si>
-    <t>Super Sweetcorn Kernels - Chat Masala (Pack of 2 - 145g Each)</t>
-  </si>
-  <si>
-    <t>Knol Khol</t>
-  </si>
-  <si>
-    <t>Leek</t>
-  </si>
-  <si>
-    <t>Lemon Grass</t>
-  </si>
-  <si>
-    <t>Lettuce - Green</t>
-  </si>
-  <si>
-    <t>Lettuce - Iceberg</t>
-  </si>
-  <si>
-    <t>Mongra</t>
-  </si>
-  <si>
-    <t>Mustard Microgreens</t>
-  </si>
-  <si>
-    <t>Organic Capsicum - Green (Shimla Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Chilli - Hybrid (Mirch)</t>
-  </si>
-  <si>
-    <t>Organic Cucumber - Seedless (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Cucumber - Hybrid (Kheera)</t>
-  </si>
-  <si>
-    <t>Organic Garlic (Lehsun)</t>
-  </si>
-  <si>
-    <t>Organic Ginger (Adrak)</t>
-  </si>
-  <si>
-    <t>Organic Lemon (Nimbu)</t>
-  </si>
-  <si>
-    <t>Organic Mustard Green (Sarson ka Saag)</t>
-  </si>
-  <si>
-    <t>Organic Pumpkin (Kaddu)</t>
-  </si>
-  <si>
-    <t>Organic Radish (Muli)</t>
-  </si>
-  <si>
-    <t>Hydroponic Red and Yellow Cherry Tomato</t>
-  </si>
-  <si>
-    <t>Hydroponic Red Cherry Tomato</t>
-  </si>
-  <si>
-    <t>Sweet Corn - Pellets</t>
-  </si>
-  <si>
-    <t>Water Chestnut (Singhara)</t>
-  </si>
-  <si>
-    <t>Parsley</t>
-  </si>
-  <si>
-    <t>Radish Microgreens</t>
-  </si>
-  <si>
-    <t>Banana - Raw</t>
-  </si>
-  <si>
-    <t>Turmeric - Raw (Haldi)</t>
-  </si>
-  <si>
-    <t>Ready to Eat Salad</t>
-  </si>
-  <si>
-    <t>Sarson Leaves</t>
-  </si>
-  <si>
-    <t>Zucchini - Green</t>
-  </si>
-  <si>
-    <t>Zucchini - Yellow</t>
-  </si>
-  <si>
-    <t>Thai Ginger (Adrak)</t>
-  </si>
-  <si>
-    <t>Thai Snow Peas</t>
+    <t>Green Peas - Peeled (Matar)</t>
+  </si>
+  <si>
+    <t>Lettuce - Red (Lollo Rosso)</t>
   </si>
   <si>
     <t>Cut Ash Gourd (Safed Petha)</t>
   </si>
   <si>
-    <t>Cut Beetroot Julienne (Thin Stripes)</t>
-  </si>
-  <si>
-    <t>Cut Carrot - Julienne (Thin Stripes)</t>
-  </si>
-  <si>
     <t>Cut Drumstick (Moringa)</t>
   </si>
   <si>
-    <t>Cut French Beans</t>
-  </si>
-  <si>
-    <t>Cut Fresh Mint (Without Root)</t>
-  </si>
-  <si>
-    <t>Cut Pulao Mix Vegetables</t>
-  </si>
-  <si>
-    <t>Cut Pumpkin (Kaddu)</t>
-  </si>
-  <si>
-    <t>Hydroponic Arugula (Gargeer)</t>
-  </si>
-  <si>
-    <t>Hydroponic Baby Corn</t>
-  </si>
-  <si>
-    <t>Hydroponic Basil (Tulsi)</t>
-  </si>
-  <si>
-    <t>Hydroponic Bok Choy</t>
-  </si>
-  <si>
-    <t>Hydroponic Celery Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Leafy Salad Mix</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Butterhead</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Mix Herbs</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Red and Green</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Romaine</t>
-  </si>
-  <si>
     <t>Thyme</t>
   </si>
   <si>
-    <t>Banana Leaf</t>
-  </si>
-  <si>
-    <t>Tadaa Boiled Sweet Corn Cob</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Chat Masala</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Cheese and Herbs</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Lemon &amp; Pepper</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Kernels</t>
-  </si>
-  <si>
-    <t>Tadaa Sweet Boiled Corn - Peri Peri</t>
-  </si>
-  <si>
-    <t>Mango Leaves (Aam ka Patta)</t>
-  </si>
-  <si>
-    <t>Organic Brinjal - Small (Chu Chu Baingan)</t>
-  </si>
-  <si>
-    <t>Green Peas - Peeled (Matar)</t>
-  </si>
-  <si>
-    <t>Hydroponic Red and Yellow Capsicum</t>
-  </si>
-  <si>
-    <t>Lettuce - Red (Lollo Rosso)</t>
-  </si>
-  <si>
-    <t>Hydroponic Baby Spinach (Paalak)</t>
-  </si>
-  <si>
-    <t>Hydroponic Kale (Tuskan)</t>
-  </si>
-  <si>
-    <t>Hydroponic Lettuce - Green</t>
-  </si>
-  <si>
     <t>₹120</t>
   </si>
   <si>
@@ -725,46 +725,52 @@
     <t>₹135</t>
   </si>
   <si>
+    <t>₹105</t>
+  </si>
+  <si>
     <t>₹39</t>
   </si>
   <si>
+    <t>₹400</t>
+  </si>
+  <si>
+    <t>₹146</t>
+  </si>
+  <si>
+    <t>₹1470</t>
+  </si>
+  <si>
+    <t>₹86</t>
+  </si>
+  <si>
+    <t>₹125</t>
+  </si>
+  <si>
+    <t>₹106</t>
+  </si>
+  <si>
+    <t>₹102</t>
+  </si>
+  <si>
+    <t>₹233</t>
+  </si>
+  <si>
+    <t>₹550</t>
+  </si>
+  <si>
+    <t>₹303</t>
+  </si>
+  <si>
+    <t>₹215</t>
+  </si>
+  <si>
     <t>₹134</t>
   </si>
   <si>
-    <t>₹400</t>
-  </si>
-  <si>
-    <t>₹146</t>
-  </si>
-  <si>
-    <t>₹1470</t>
-  </si>
-  <si>
-    <t>₹86</t>
-  </si>
-  <si>
-    <t>₹125</t>
-  </si>
-  <si>
-    <t>₹106</t>
-  </si>
-  <si>
     <t>₹205</t>
   </si>
   <si>
-    <t>₹102</t>
-  </si>
-  <si>
-    <t>₹233</t>
-  </si>
-  <si>
-    <t>₹550</t>
-  </si>
-  <si>
-    <t>₹303</t>
-  </si>
-  <si>
-    <t>₹215</t>
+    <t>₹560</t>
   </si>
   <si>
     <t>₹266</t>
@@ -827,21 +833,15 @@
     <t>₹46</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>₹88</t>
+  </si>
+  <si>
     <t>₹1000</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>₹105</t>
-  </si>
-  <si>
-    <t>₹88</t>
-  </si>
-  <si>
-    <t>₹560</t>
-  </si>
-  <si>
     <t>₹100/kg</t>
   </si>
   <si>
@@ -974,42 +974,45 @@
     <t>₹95/kg</t>
   </si>
   <si>
+    <t>₹360/kg</t>
+  </si>
+  <si>
+    <t>₹130/kg</t>
+  </si>
+  <si>
+    <t>₹1320/kg</t>
+  </si>
+  <si>
+    <t>₹45/Pack</t>
+  </si>
+  <si>
+    <t>₹200/kg</t>
+  </si>
+  <si>
+    <t>₹450/kg</t>
+  </si>
+  <si>
+    <t>₹270/kg</t>
+  </si>
+  <si>
+    <t>₹32/Pack</t>
+  </si>
+  <si>
+    <t>₹200/pc</t>
+  </si>
+  <si>
     <t>₹109/Pack</t>
   </si>
   <si>
-    <t>₹360/kg</t>
-  </si>
-  <si>
-    <t>₹130/kg</t>
-  </si>
-  <si>
-    <t>₹1320/kg</t>
-  </si>
-  <si>
-    <t>₹45/Pack</t>
-  </si>
-  <si>
-    <t>₹200/kg</t>
-  </si>
-  <si>
-    <t>₹450/kg</t>
-  </si>
-  <si>
-    <t>₹270/kg</t>
-  </si>
-  <si>
-    <t>₹32/Pack</t>
-  </si>
-  <si>
-    <t>₹200/pc</t>
-  </si>
-  <si>
     <t>₹45/pc</t>
   </si>
   <si>
     <t>₹180/Pack</t>
   </si>
   <si>
+    <t>₹480/kg</t>
+  </si>
+  <si>
     <t>₹148/kg</t>
   </si>
   <si>
@@ -1052,39 +1055,36 @@
     <t>₹91/Pack</t>
   </si>
   <si>
+    <t>₹46/Pack</t>
+  </si>
+  <si>
+    <t>₹52/Pack</t>
+  </si>
+  <si>
+    <t>₹36/Pack</t>
+  </si>
+  <si>
+    <t>₹100/Pack</t>
+  </si>
+  <si>
+    <t>₹75/Pack</t>
+  </si>
+  <si>
+    <t>₹50/pack</t>
+  </si>
+  <si>
+    <t>₹73/Pack</t>
+  </si>
+  <si>
+    <t>₹532/kg</t>
+  </si>
+  <si>
     <t>₹220/kg</t>
   </si>
   <si>
-    <t>₹46/Pack</t>
-  </si>
-  <si>
-    <t>₹52/Pack</t>
-  </si>
-  <si>
-    <t>₹36/Pack</t>
-  </si>
-  <si>
-    <t>₹100/Pack</t>
-  </si>
-  <si>
-    <t>₹50/pack</t>
-  </si>
-  <si>
     <t>₹900/kg</t>
   </si>
   <si>
-    <t>₹73/Pack</t>
-  </si>
-  <si>
-    <t>₹480/kg</t>
-  </si>
-  <si>
-    <t>₹532/kg</t>
-  </si>
-  <si>
-    <t>₹75/Pack</t>
-  </si>
-  <si>
     <t>₹50  500 g</t>
   </si>
   <si>
@@ -1280,57 +1280,60 @@
     <t>₹120  100 g</t>
   </si>
   <si>
+    <t>₹32  400 g</t>
+  </si>
+  <si>
     <t>₹29  50 g</t>
   </si>
   <si>
     <t>₹38  400 g</t>
   </si>
   <si>
+    <t>₹90  250 g</t>
+  </si>
+  <si>
+    <t>₹78  600 g</t>
+  </si>
+  <si>
+    <t>₹132  100 g</t>
+  </si>
+  <si>
+    <t>₹45  150 g</t>
+  </si>
+  <si>
+    <t>₹42  600 g</t>
+  </si>
+  <si>
+    <t>₹40  400 g</t>
+  </si>
+  <si>
+    <t>₹54  600 g</t>
+  </si>
+  <si>
+    <t>₹72  400 g</t>
+  </si>
+  <si>
+    <t>₹62  700 g</t>
+  </si>
+  <si>
+    <t>₹60  300 g</t>
+  </si>
+  <si>
+    <t>₹45  100 g</t>
+  </si>
+  <si>
+    <t>₹81  300 g</t>
+  </si>
+  <si>
+    <t>₹32  200 g</t>
+  </si>
+  <si>
+    <t>₹200  1.5 kg</t>
+  </si>
+  <si>
     <t>₹109  250 g</t>
   </si>
   <si>
-    <t>₹90  250 g</t>
-  </si>
-  <si>
-    <t>₹78  600 g</t>
-  </si>
-  <si>
-    <t>₹132  100 g</t>
-  </si>
-  <si>
-    <t>₹45  150 g</t>
-  </si>
-  <si>
-    <t>₹42  600 g</t>
-  </si>
-  <si>
-    <t>₹40  400 g</t>
-  </si>
-  <si>
-    <t>₹54  600 g</t>
-  </si>
-  <si>
-    <t>₹72  400 g</t>
-  </si>
-  <si>
-    <t>₹62  700 g</t>
-  </si>
-  <si>
-    <t>₹60  300 g</t>
-  </si>
-  <si>
-    <t>₹45  100 g</t>
-  </si>
-  <si>
-    <t>₹81  300 g</t>
-  </si>
-  <si>
-    <t>₹32  200 g</t>
-  </si>
-  <si>
-    <t>₹200  1.5 kg</t>
-  </si>
-  <si>
     <t>₹45  1 pc</t>
   </si>
   <si>
@@ -1340,6 +1343,9 @@
     <t>₹60  290 g</t>
   </si>
   <si>
+    <t>₹120  250 g</t>
+  </si>
+  <si>
     <t>₹37  250 g</t>
   </si>
   <si>
@@ -1370,9 +1376,6 @@
     <t>₹90  2.2 kg</t>
   </si>
   <si>
-    <t>₹120  250 g</t>
-  </si>
-  <si>
     <t>₹70  100 g</t>
   </si>
   <si>
@@ -1400,75 +1403,72 @@
     <t>₹91  100 g</t>
   </si>
   <si>
+    <t>₹46  250 g</t>
+  </si>
+  <si>
+    <t>₹50  250 g</t>
+  </si>
+  <si>
+    <t>₹52  250 g</t>
+  </si>
+  <si>
+    <t>₹70  250 g</t>
+  </si>
+  <si>
+    <t>₹36  250 g</t>
+  </si>
+  <si>
+    <t>₹100  50 g</t>
+  </si>
+  <si>
+    <t>₹60  200 g</t>
+  </si>
+  <si>
+    <t>₹75  100 g</t>
+  </si>
+  <si>
+    <t>₹60  50 g</t>
+  </si>
+  <si>
+    <t>₹50  50 g</t>
+  </si>
+  <si>
+    <t>₹100  125 g</t>
+  </si>
+  <si>
+    <t>₹60  150 g</t>
+  </si>
+  <si>
+    <t>₹120  150 g</t>
+  </si>
+  <si>
+    <t>₹91  5 pcs</t>
+  </si>
+  <si>
+    <t>₹89  2 pcs</t>
+  </si>
+  <si>
+    <t>₹69  225 g</t>
+  </si>
+  <si>
+    <t>₹149  725 g</t>
+  </si>
+  <si>
+    <t>₹29  11 pcs</t>
+  </si>
+  <si>
+    <t>₹73  250 g</t>
+  </si>
+  <si>
+    <t>₹133  250 g</t>
+  </si>
+  <si>
     <t>₹55  250 g</t>
   </si>
   <si>
-    <t>₹46  250 g</t>
-  </si>
-  <si>
-    <t>₹50  250 g</t>
-  </si>
-  <si>
-    <t>₹60  150 g</t>
-  </si>
-  <si>
-    <t>₹52  250 g</t>
-  </si>
-  <si>
-    <t>₹70  250 g</t>
-  </si>
-  <si>
-    <t>₹36  250 g</t>
-  </si>
-  <si>
-    <t>₹100  50 g</t>
-  </si>
-  <si>
-    <t>₹60  200 g</t>
-  </si>
-  <si>
-    <t>₹60  50 g</t>
-  </si>
-  <si>
-    <t>₹50  50 g</t>
-  </si>
-  <si>
-    <t>₹120  150 g</t>
-  </si>
-  <si>
     <t>₹90  100 g</t>
   </si>
   <si>
-    <t>₹91  5 pcs</t>
-  </si>
-  <si>
-    <t>₹89  2 pcs</t>
-  </si>
-  <si>
-    <t>₹69  225 g</t>
-  </si>
-  <si>
-    <t>₹149  725 g</t>
-  </si>
-  <si>
-    <t>₹29  11 pcs</t>
-  </si>
-  <si>
-    <t>₹32  400 g</t>
-  </si>
-  <si>
-    <t>₹73  250 g</t>
-  </si>
-  <si>
-    <t>₹133  250 g</t>
-  </si>
-  <si>
-    <t>₹75  100 g</t>
-  </si>
-  <si>
-    <t>₹100  125 g</t>
-  </si>
-  <si>
     <t>Vegetables</t>
   </si>
   <si>
@@ -1556,6 +1556,9 @@
     <t>120 g</t>
   </si>
   <si>
+    <t>125 g</t>
+  </si>
+  <si>
     <t>2 pcs</t>
   </si>
   <si>
@@ -1568,9 +1571,6 @@
     <t>11 pcs</t>
   </si>
   <si>
-    <t>125 g</t>
-  </si>
-  <si>
     <t>2023-10-17 16:52:41.416530+05:30</t>
   </si>
   <si>
@@ -1583,225 +1583,330 @@
     <t>2023-10-23 09:39:18.290784+05:30</t>
   </si>
   <si>
-    <t>2023-10-24 18:44:32.493256+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.530513+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.546138+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.561761+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.577390+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.593013+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.608636+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:44:32.615146+05:30</t>
+    <t>2023-10-25 09:38:05.767316+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.817523+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.825556+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.827578+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.835601+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.837622+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.845652+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.847671+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.855693+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.857713+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.865747+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.867769+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.875790+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.877809+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.885840+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.887860+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.895881+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.897904+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.905934+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.907956+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.915979+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.917999+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.926033+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.928053+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.936075+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.938093+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.946129+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.948150+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.956172+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.958190+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.966219+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.968239+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.976263+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.978282+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.986313+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.988333+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.996351+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:05.998370+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:06.006406+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:06.008422+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:06.016443+05:30</t>
   </si>
   <si>
     <t>Rambutan - Imported</t>
   </si>
   <si>
+    <t>Apple Royal Gala (Small) - Indian</t>
+  </si>
+  <si>
+    <t>Custard Golden Apple (Sugar Apple)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit - Red</t>
+  </si>
+  <si>
+    <t>Banana - Medium</t>
+  </si>
+  <si>
+    <t>Banana - Small</t>
+  </si>
+  <si>
+    <t>Grapes - Red Globe (Imported)</t>
+  </si>
+  <si>
+    <t>Dragon Fruit (Fruit Kamalam) - Imported</t>
+  </si>
+  <si>
+    <t>Orange - Green (Small)</t>
+  </si>
+  <si>
+    <t>Orange - Green (Medium)</t>
+  </si>
+  <si>
+    <t>Apple - Small</t>
+  </si>
+  <si>
+    <t>Guava - Green (Amrudh)</t>
+  </si>
+  <si>
+    <t>Banana - Yelakki (Elaichi Banana)</t>
+  </si>
+  <si>
+    <t>Pomegranate - Medium (Anaar)</t>
+  </si>
+  <si>
+    <t>Dry Dates (Khajoor)</t>
+  </si>
+  <si>
+    <t>Grapes - Imported</t>
+  </si>
+  <si>
+    <t>Pomegranate - Small (Anaar)</t>
+  </si>
+  <si>
+    <t>Apple - Large</t>
+  </si>
+  <si>
+    <t>Brown Coconut - Medium (Nariyal)</t>
+  </si>
+  <si>
+    <t>Pooja Nariyal</t>
+  </si>
+  <si>
+    <t>Pear - Beauty Red (Imported)</t>
+  </si>
+  <si>
     <t>Apple Ber (Jujube)</t>
   </si>
   <si>
-    <t>Apple Royal Gala (Small) - Indian</t>
-  </si>
-  <si>
-    <t>Custard Golden Apple (Sugar Apple)</t>
-  </si>
-  <si>
-    <t>Dragon Fruit - Red</t>
-  </si>
-  <si>
-    <t>Banana - Medium</t>
-  </si>
-  <si>
-    <t>Banana - Small</t>
-  </si>
-  <si>
-    <t>Grapes - Red Globe (Imported)</t>
-  </si>
-  <si>
-    <t>Dragon Fruit (Fruit Kamalam) - Imported</t>
-  </si>
-  <si>
-    <t>Orange - Green (Small)</t>
-  </si>
-  <si>
-    <t>Orange - Green (Medium)</t>
-  </si>
-  <si>
-    <t>Apple - Small</t>
-  </si>
-  <si>
-    <t>Banana - Yelakki (Elaichi Banana)</t>
-  </si>
-  <si>
-    <t>Pomegranate - Medium (Anaar)</t>
-  </si>
-  <si>
-    <t>Dry Dates (Khajoor)</t>
-  </si>
-  <si>
-    <t>Grapes - Imported</t>
-  </si>
-  <si>
-    <t>Pomegranate - Small (Anaar)</t>
+    <t>Kiwi - Zespri Gold (Imported)</t>
+  </si>
+  <si>
+    <t>Watermelon - Medium (Tarbuj)</t>
+  </si>
+  <si>
+    <t>Kiwi - Green (Small) - Imported</t>
+  </si>
+  <si>
+    <t>Apple Royal Gala - Imported</t>
+  </si>
+  <si>
+    <t>Papaya (Papita)</t>
+  </si>
+  <si>
+    <t>Papaya - Small (Papita)</t>
+  </si>
+  <si>
+    <t>Cut Sugarcane Pieces</t>
+  </si>
+  <si>
+    <t>Custard Apple (Sharifa)</t>
+  </si>
+  <si>
+    <t>Pomegranate - Large (Anaar)</t>
+  </si>
+  <si>
+    <t>Kiwi Zespri - Green (Imported)</t>
+  </si>
+  <si>
+    <t>Pineapple - Rani (Whole Ananas)</t>
+  </si>
+  <si>
+    <t>Blueberry - Imported</t>
+  </si>
+  <si>
+    <t>Malta (Sweet Orange) - Imported</t>
+  </si>
+  <si>
+    <t>Pear - Indian (Nakh)</t>
+  </si>
+  <si>
+    <t>Plum - Imported</t>
+  </si>
+  <si>
+    <t>Sweet Lime - Greenish Yellow (Small)</t>
+  </si>
+  <si>
+    <t>Malta - Large</t>
+  </si>
+  <si>
+    <t>Sweet Lime - Greenish Yellow (Medium)</t>
+  </si>
+  <si>
+    <t>Apple - Turkey</t>
+  </si>
+  <si>
+    <t>Apple Golden Delicious - Small</t>
+  </si>
+  <si>
+    <t>Grapefruit - Imported</t>
+  </si>
+  <si>
+    <t>Apple - Granny (Sour Apple) - Indian</t>
+  </si>
+  <si>
+    <t>Tender Coconut</t>
+  </si>
+  <si>
+    <t>Thai Guava - Pink (Amrudh)</t>
+  </si>
+  <si>
+    <t>Coconut Chunks</t>
+  </si>
+  <si>
+    <t>Mini Orange (Mandarin) - Imported</t>
+  </si>
+  <si>
+    <t>Mangosteen (Mangustan)</t>
+  </si>
+  <si>
+    <t>Sun Melon (Sarda)</t>
+  </si>
+  <si>
+    <t>Kimia Dates (Khajoor) - Imported</t>
+  </si>
+  <si>
+    <t>Uncut Coconut - Green (Nariyal Pani)</t>
+  </si>
+  <si>
+    <t>Figs (Anjeer)</t>
+  </si>
+  <si>
+    <t>Apple - Royal Gala (Imported)</t>
+  </si>
+  <si>
+    <t>Pear - Packham (Imported)</t>
+  </si>
+  <si>
+    <t>Apricot (Dried Khubani) - Imported</t>
+  </si>
+  <si>
+    <t>Avocado - Hass (Butter Fruit) - Imported</t>
+  </si>
+  <si>
+    <t>Sweet Tamarind (Imli) - Imported</t>
+  </si>
+  <si>
+    <t>Pineapple - Peeled (Ananas)</t>
+  </si>
+  <si>
+    <t>Ramphal</t>
+  </si>
+  <si>
+    <t>Tender Coconut (Nariyal) Opener</t>
+  </si>
+  <si>
+    <t>Sweet Lime - Greenish Yellow (Large)</t>
+  </si>
+  <si>
+    <t>Apple - Medium</t>
+  </si>
+  <si>
+    <t>30 Days Coconut Pack</t>
+  </si>
+  <si>
+    <t>Apple - Fuji (Indian)</t>
+  </si>
+  <si>
+    <t>Apple - Red Delicious (Medium)</t>
   </si>
   <si>
     <t>Sapota - Partial Ripe (Chikoo)</t>
   </si>
   <si>
-    <t>Apple - Large</t>
-  </si>
-  <si>
-    <t>Brown Coconut - Medium (Nariyal)</t>
-  </si>
-  <si>
-    <t>Pear - Beauty Red (Imported)</t>
-  </si>
-  <si>
-    <t>Kiwi - Zespri Gold (Imported)</t>
-  </si>
-  <si>
-    <t>Watermelon - Medium (Tarbuj)</t>
-  </si>
-  <si>
-    <t>Kiwi - Green (Small) - Imported</t>
-  </si>
-  <si>
-    <t>Apple Royal Gala - Imported</t>
-  </si>
-  <si>
-    <t>Papaya (Papita)</t>
-  </si>
-  <si>
-    <t>Papaya - Small (Papita)</t>
-  </si>
-  <si>
-    <t>Cut Sugarcane Pieces</t>
-  </si>
-  <si>
-    <t>Custard Apple (Sharifa)</t>
-  </si>
-  <si>
-    <t>Apple - Medium</t>
-  </si>
-  <si>
-    <t>Kiwi Zespri - Green (Imported)</t>
-  </si>
-  <si>
-    <t>Pineapple - Rani (Whole Ananas)</t>
-  </si>
-  <si>
-    <t>Blueberry - Imported</t>
-  </si>
-  <si>
-    <t>Malta (Sweet Orange) - Imported</t>
-  </si>
-  <si>
-    <t>Pear - Indian (Nakh)</t>
-  </si>
-  <si>
-    <t>Plum - Imported</t>
-  </si>
-  <si>
-    <t>Sweet Lime - Greenish Yellow (Small)</t>
-  </si>
-  <si>
-    <t>Sweet Lime - Greenish Yellow (Medium)</t>
-  </si>
-  <si>
-    <t>Apple - Turkey</t>
-  </si>
-  <si>
-    <t>Apple Golden Delicious - Small</t>
-  </si>
-  <si>
-    <t>Grapefruit - Imported</t>
-  </si>
-  <si>
-    <t>Apple - Granny (Sour Apple) - Indian</t>
-  </si>
-  <si>
-    <t>Tender Coconut</t>
-  </si>
-  <si>
-    <t>Thai Guava - Pink (Amrudh)</t>
-  </si>
-  <si>
-    <t>Coconut Chunks</t>
-  </si>
-  <si>
-    <t>Mini Orange (Mandarin) - Imported</t>
-  </si>
-  <si>
-    <t>Mangosteen (Mangustan)</t>
-  </si>
-  <si>
-    <t>Sun Melon (Sarda)</t>
-  </si>
-  <si>
-    <t>Kimia Dates (Khajoor) - Imported</t>
-  </si>
-  <si>
-    <t>Uncut Coconut - Green (Nariyal Pani)</t>
-  </si>
-  <si>
-    <t>Figs (Anjeer)</t>
-  </si>
-  <si>
-    <t>Apple - Royal Gala (Imported)</t>
-  </si>
-  <si>
-    <t>Pear - Packham (Imported)</t>
-  </si>
-  <si>
-    <t>Apricot (Dried Khubani) - Imported</t>
-  </si>
-  <si>
-    <t>Avocado - Hass (Butter Fruit) - Imported</t>
-  </si>
-  <si>
-    <t>Sweet Tamarind (Imli) - Imported</t>
-  </si>
-  <si>
-    <t>Pineapple - Peeled (Ananas)</t>
-  </si>
-  <si>
-    <t>Ramphal</t>
-  </si>
-  <si>
-    <t>Tender Coconut (Nariyal) Opener</t>
-  </si>
-  <si>
-    <t>Sweet Lime - Greenish Yellow (Large)</t>
-  </si>
-  <si>
-    <t>30 Days Coconut Pack</t>
-  </si>
-  <si>
-    <t>Apple - Fuji (Indian)</t>
-  </si>
-  <si>
-    <t>Apple - Red Delicious (Medium)</t>
-  </si>
-  <si>
-    <t>Pooja Nariyal</t>
-  </si>
-  <si>
-    <t>Pomegranate - Large (Anaar)</t>
-  </si>
-  <si>
     <t>Banana - Economy</t>
   </si>
   <si>
@@ -1817,144 +1922,147 @@
     <t>₹1012</t>
   </si>
   <si>
+    <t>₹243</t>
+  </si>
+  <si>
+    <t>₹322</t>
+  </si>
+  <si>
+    <t>₹115</t>
+  </si>
+  <si>
+    <t>₹83</t>
+  </si>
+  <si>
+    <t>₹593</t>
+  </si>
+  <si>
+    <t>₹113</t>
+  </si>
+  <si>
+    <t>₹250</t>
+  </si>
+  <si>
+    <t>₹308</t>
+  </si>
+  <si>
+    <t>₹350</t>
+  </si>
+  <si>
+    <t>₹264</t>
+  </si>
+  <si>
     <t>₹190</t>
   </si>
   <si>
-    <t>₹243</t>
-  </si>
-  <si>
-    <t>₹322</t>
-  </si>
-  <si>
-    <t>₹115</t>
-  </si>
-  <si>
-    <t>₹83</t>
-  </si>
-  <si>
-    <t>₹593</t>
-  </si>
-  <si>
-    <t>₹113</t>
-  </si>
-  <si>
-    <t>₹250</t>
-  </si>
-  <si>
-    <t>₹308</t>
-  </si>
-  <si>
-    <t>₹350</t>
-  </si>
-  <si>
-    <t>₹264</t>
+    <t>₹49</t>
+  </si>
+  <si>
+    <t>₹437</t>
+  </si>
+  <si>
+    <t>₹244</t>
+  </si>
+  <si>
+    <t>₹44</t>
+  </si>
+  <si>
+    <t>₹384</t>
+  </si>
+  <si>
+    <t>₹75</t>
+  </si>
+  <si>
+    <t>₹35</t>
+  </si>
+  <si>
+    <t>₹231</t>
+  </si>
+  <si>
+    <t>₹348</t>
+  </si>
+  <si>
+    <t>₹294</t>
+  </si>
+  <si>
+    <t>₹131</t>
+  </si>
+  <si>
+    <t>₹330</t>
+  </si>
+  <si>
+    <t>₹198</t>
+  </si>
+  <si>
+    <t>₹296</t>
+  </si>
+  <si>
+    <t>₹365</t>
+  </si>
+  <si>
+    <t>₹263</t>
+  </si>
+  <si>
+    <t>₹471</t>
+  </si>
+  <si>
+    <t>₹283</t>
+  </si>
+  <si>
+    <t>₹155</t>
+  </si>
+  <si>
+    <t>₹209</t>
+  </si>
+  <si>
+    <t>₹65</t>
+  </si>
+  <si>
+    <t>₹460</t>
+  </si>
+  <si>
+    <t>₹1256</t>
+  </si>
+  <si>
+    <t>₹103</t>
+  </si>
+  <si>
+    <t>₹253</t>
+  </si>
+  <si>
+    <t>₹76</t>
+  </si>
+  <si>
+    <t>₹164</t>
+  </si>
+  <si>
+    <t>₹346</t>
+  </si>
+  <si>
+    <t>₹396</t>
+  </si>
+  <si>
+    <t>₹355</t>
+  </si>
+  <si>
+    <t>₹772</t>
+  </si>
+  <si>
+    <t>₹143</t>
+  </si>
+  <si>
+    <t>₹220</t>
+  </si>
+  <si>
+    <t>₹248</t>
+  </si>
+  <si>
+    <t>₹171</t>
   </si>
   <si>
     <t>₹138</t>
   </si>
   <si>
-    <t>₹437</t>
-  </si>
-  <si>
-    <t>₹244</t>
-  </si>
-  <si>
-    <t>₹44</t>
-  </si>
-  <si>
-    <t>₹384</t>
-  </si>
-  <si>
-    <t>₹75</t>
-  </si>
-  <si>
-    <t>₹35</t>
-  </si>
-  <si>
-    <t>₹231</t>
-  </si>
-  <si>
-    <t>₹220</t>
-  </si>
-  <si>
-    <t>₹294</t>
-  </si>
-  <si>
-    <t>₹131</t>
-  </si>
-  <si>
-    <t>₹330</t>
-  </si>
-  <si>
-    <t>₹198</t>
-  </si>
-  <si>
-    <t>₹296</t>
-  </si>
-  <si>
-    <t>₹365</t>
-  </si>
-  <si>
-    <t>₹263</t>
-  </si>
-  <si>
-    <t>₹471</t>
-  </si>
-  <si>
-    <t>₹283</t>
-  </si>
-  <si>
-    <t>₹155</t>
-  </si>
-  <si>
-    <t>₹209</t>
-  </si>
-  <si>
-    <t>₹65</t>
-  </si>
-  <si>
-    <t>₹460</t>
-  </si>
-  <si>
-    <t>₹1256</t>
-  </si>
-  <si>
-    <t>₹103</t>
-  </si>
-  <si>
-    <t>₹253</t>
-  </si>
-  <si>
-    <t>₹76</t>
-  </si>
-  <si>
-    <t>₹164</t>
-  </si>
-  <si>
-    <t>₹346</t>
-  </si>
-  <si>
-    <t>₹396</t>
-  </si>
-  <si>
-    <t>₹355</t>
-  </si>
-  <si>
-    <t>₹772</t>
-  </si>
-  <si>
-    <t>₹143</t>
-  </si>
-  <si>
-    <t>₹248</t>
-  </si>
-  <si>
-    <t>₹49</t>
-  </si>
-  <si>
-    <t>₹348</t>
-  </si>
-  <si>
     <t>₹34</t>
   </si>
   <si>
@@ -1964,324 +2072,330 @@
     <t>₹952/kg</t>
   </si>
   <si>
+    <t>₹99/pc</t>
+  </si>
+  <si>
+    <t>₹69/kg</t>
+  </si>
+  <si>
+    <t>₹526/kg</t>
+  </si>
+  <si>
+    <t>₹89/pc</t>
+  </si>
+  <si>
+    <t>₹135/kg</t>
+  </si>
+  <si>
+    <t>₹99/kg</t>
+  </si>
+  <si>
+    <t>₹280/kg</t>
+  </si>
+  <si>
+    <t>₹90/Pack</t>
+  </si>
+  <si>
+    <t>₹170/kg</t>
+  </si>
+  <si>
+    <t>₹39/pc</t>
+  </si>
+  <si>
+    <t>₹400/kg</t>
+  </si>
+  <si>
     <t>₹179/kg</t>
   </si>
   <si>
-    <t>₹99/pc</t>
-  </si>
-  <si>
-    <t>₹69/kg</t>
-  </si>
-  <si>
-    <t>₹526/kg</t>
-  </si>
-  <si>
-    <t>₹89/pc</t>
-  </si>
-  <si>
-    <t>₹135/kg</t>
-  </si>
-  <si>
-    <t>₹280/kg</t>
-  </si>
-  <si>
-    <t>₹90/Pack</t>
+    <t>₹229/Pack</t>
+  </si>
+  <si>
+    <t>₹39/kg</t>
+  </si>
+  <si>
+    <t>₹135/Pack</t>
+  </si>
+  <si>
+    <t>₹330/kg</t>
+  </si>
+  <si>
+    <t>₹74/kg</t>
+  </si>
+  <si>
+    <t>₹279/Pack</t>
+  </si>
+  <si>
+    <t>₹109/kg</t>
+  </si>
+  <si>
+    <t>₹315/Pack</t>
+  </si>
+  <si>
+    <t>₹189/kg</t>
+  </si>
+  <si>
+    <t>₹175/kg</t>
+  </si>
+  <si>
+    <t>₹256/kg</t>
+  </si>
+  <si>
+    <t>₹56/kg</t>
+  </si>
+  <si>
+    <t>₹59/kg</t>
+  </si>
+  <si>
+    <t>₹349/kg</t>
+  </si>
+  <si>
+    <t>₹428/kg</t>
+  </si>
+  <si>
+    <t>₹258/kg</t>
+  </si>
+  <si>
+    <t>₹134/Pack</t>
+  </si>
+  <si>
+    <t>₹55/Pack</t>
+  </si>
+  <si>
+    <t>₹410/kg</t>
+  </si>
+  <si>
+    <t>₹1196/kg</t>
+  </si>
+  <si>
+    <t>₹89/kg</t>
+  </si>
+  <si>
+    <t>₹238/Pack</t>
+  </si>
+  <si>
+    <t>₹66/Pack</t>
+  </si>
+  <si>
+    <t>₹149/Pack</t>
+  </si>
+  <si>
+    <t>₹380/kg</t>
+  </si>
+  <si>
+    <t>₹330/Pack</t>
+  </si>
+  <si>
+    <t>₹704/kg</t>
+  </si>
+  <si>
+    <t>₹115/Pack</t>
+  </si>
+  <si>
+    <t>₹128/pc</t>
+  </si>
+  <si>
+    <t>₹149/pc</t>
+  </si>
+  <si>
+    <t>₹80/Pack</t>
+  </si>
+  <si>
+    <t>₹165/kg</t>
+  </si>
+  <si>
+    <t>₹63/</t>
   </si>
   <si>
     <t>₹119/kg</t>
   </si>
   <si>
-    <t>₹170/kg</t>
-  </si>
-  <si>
-    <t>₹400/kg</t>
-  </si>
-  <si>
-    <t>₹229/Pack</t>
-  </si>
-  <si>
-    <t>₹39/kg</t>
-  </si>
-  <si>
-    <t>₹135/Pack</t>
-  </si>
-  <si>
-    <t>₹330/kg</t>
-  </si>
-  <si>
-    <t>₹74/kg</t>
-  </si>
-  <si>
-    <t>₹198/kg</t>
-  </si>
-  <si>
-    <t>₹279/Pack</t>
-  </si>
-  <si>
-    <t>₹109/kg</t>
-  </si>
-  <si>
-    <t>₹315/Pack</t>
-  </si>
-  <si>
-    <t>₹189/kg</t>
-  </si>
-  <si>
-    <t>₹175/kg</t>
-  </si>
-  <si>
-    <t>₹256/kg</t>
-  </si>
-  <si>
-    <t>₹56/kg</t>
-  </si>
-  <si>
-    <t>₹59/kg</t>
-  </si>
-  <si>
-    <t>₹349/kg</t>
-  </si>
-  <si>
-    <t>₹428/kg</t>
-  </si>
-  <si>
-    <t>₹258/kg</t>
-  </si>
-  <si>
-    <t>₹134/Pack</t>
-  </si>
-  <si>
-    <t>₹55/Pack</t>
-  </si>
-  <si>
-    <t>₹410/kg</t>
-  </si>
-  <si>
-    <t>₹1196/kg</t>
-  </si>
-  <si>
-    <t>₹89/kg</t>
-  </si>
-  <si>
-    <t>₹238/Pack</t>
-  </si>
-  <si>
-    <t>₹66/Pack</t>
-  </si>
-  <si>
-    <t>₹149/Pack</t>
-  </si>
-  <si>
-    <t>₹380/kg</t>
-  </si>
-  <si>
-    <t>₹330/Pack</t>
-  </si>
-  <si>
-    <t>₹704/kg</t>
-  </si>
-  <si>
-    <t>₹115/Pack</t>
-  </si>
-  <si>
-    <t>₹128/pc</t>
-  </si>
-  <si>
-    <t>₹149/pc</t>
-  </si>
-  <si>
-    <t>₹80/Pack</t>
-  </si>
-  <si>
-    <t>₹63/</t>
-  </si>
-  <si>
-    <t>₹39/pc</t>
-  </si>
-  <si>
     <t>₹499/Pack</t>
   </si>
   <si>
     <t>₹238  250 g</t>
   </si>
   <si>
+    <t>₹143  650 g</t>
+  </si>
+  <si>
+    <t>₹96  400 g</t>
+  </si>
+  <si>
+    <t>₹99  350 g</t>
+  </si>
+  <si>
+    <t>₹40  550 g</t>
+  </si>
+  <si>
+    <t>₹38  550 g</t>
+  </si>
+  <si>
+    <t>₹79  150 g</t>
+  </si>
+  <si>
+    <t>₹89  350 g</t>
+  </si>
+  <si>
+    <t>₹75  750 g</t>
+  </si>
+  <si>
+    <t>₹88  650 g</t>
+  </si>
+  <si>
+    <t>₹99  1 kg</t>
+  </si>
+  <si>
+    <t>₹196  700 g</t>
+  </si>
+  <si>
+    <t>₹90  200 g</t>
+  </si>
+  <si>
+    <t>₹188  750 g</t>
+  </si>
+  <si>
+    <t>₹128  750 g</t>
+  </si>
+  <si>
+    <t>₹32  1 pc</t>
+  </si>
+  <si>
+    <t>₹39  1 pc</t>
+  </si>
+  <si>
+    <t>₹160  400 g</t>
+  </si>
+  <si>
     <t>₹99  550 g</t>
   </si>
   <si>
-    <t>₹143  650 g</t>
-  </si>
-  <si>
-    <t>₹96  400 g</t>
-  </si>
-  <si>
-    <t>₹99  350 g</t>
-  </si>
-  <si>
-    <t>₹40  550 g</t>
-  </si>
-  <si>
-    <t>₹38  550 g</t>
-  </si>
-  <si>
-    <t>₹79  150 g</t>
-  </si>
-  <si>
-    <t>₹89  350 g</t>
-  </si>
-  <si>
-    <t>₹75  750 g</t>
-  </si>
-  <si>
-    <t>₹88  650 g</t>
-  </si>
-  <si>
-    <t>₹196  700 g</t>
-  </si>
-  <si>
-    <t>₹90  200 g</t>
-  </si>
-  <si>
-    <t>₹188  750 g</t>
+    <t>₹229  2 pcs</t>
+  </si>
+  <si>
+    <t>₹117  3 kg</t>
+  </si>
+  <si>
+    <t>₹135  3 pcs</t>
+  </si>
+  <si>
+    <t>₹129  2 pcs</t>
+  </si>
+  <si>
+    <t>₹84  1.2 kg</t>
+  </si>
+  <si>
+    <t>₹56  750 g</t>
+  </si>
+  <si>
+    <t>₹30  175 g</t>
+  </si>
+  <si>
+    <t>₹147  700 g</t>
+  </si>
+  <si>
+    <t>₹224  700 g</t>
+  </si>
+  <si>
+    <t>₹279  4 pcs</t>
+  </si>
+  <si>
+    <t>₹121  1.1 kg</t>
+  </si>
+  <si>
+    <t>₹315  125 g</t>
+  </si>
+  <si>
+    <t>₹161  850 g</t>
+  </si>
+  <si>
+    <t>₹105  600 g</t>
+  </si>
+  <si>
+    <t>₹64  250 g</t>
+  </si>
+  <si>
+    <t>₹31  550 g</t>
+  </si>
+  <si>
+    <t>₹33  550 g</t>
+  </si>
+  <si>
+    <t>₹332  950 g</t>
+  </si>
+  <si>
+    <t>₹156  650 g</t>
+  </si>
+  <si>
+    <t>₹150  350 g</t>
+  </si>
+  <si>
+    <t>₹155  600 g</t>
+  </si>
+  <si>
+    <t>₹134  2 pcs</t>
+  </si>
+  <si>
+    <t>₹142  750 g</t>
+  </si>
+  <si>
+    <t>₹55  100 g</t>
+  </si>
+  <si>
+    <t>₹123  300 g</t>
+  </si>
+  <si>
+    <t>₹299  250 g</t>
+  </si>
+  <si>
+    <t>₹99  1.1 kg</t>
+  </si>
+  <si>
+    <t>₹238  450 g</t>
+  </si>
+  <si>
+    <t>₹66  1 pc</t>
+  </si>
+  <si>
+    <t>₹149  200 g</t>
+  </si>
+  <si>
+    <t>₹314  950 g</t>
+  </si>
+  <si>
+    <t>₹342  900 g</t>
+  </si>
+  <si>
+    <t>₹330  200 g</t>
+  </si>
+  <si>
+    <t>₹155  220 g</t>
+  </si>
+  <si>
+    <t>₹115  250 g</t>
+  </si>
+  <si>
+    <t>₹128  600 g</t>
+  </si>
+  <si>
+    <t>₹100  500 g</t>
+  </si>
+  <si>
+    <t>₹149  1 pc</t>
+  </si>
+  <si>
+    <t>₹231  1.4 kg</t>
+  </si>
+  <si>
+    <t>₹63  30 pcs</t>
+  </si>
+  <si>
+    <t>₹180  750 g</t>
   </si>
   <si>
     <t>₹66  550 g</t>
   </si>
   <si>
-    <t>₹128  750 g</t>
-  </si>
-  <si>
-    <t>₹32  1 pc</t>
-  </si>
-  <si>
-    <t>₹160  400 g</t>
-  </si>
-  <si>
-    <t>₹229  2 pcs</t>
-  </si>
-  <si>
-    <t>₹117  3 kg</t>
-  </si>
-  <si>
-    <t>₹135  3 pcs</t>
-  </si>
-  <si>
-    <t>₹129  2 pcs</t>
-  </si>
-  <si>
-    <t>₹84  1.2 kg</t>
-  </si>
-  <si>
-    <t>₹56  750 g</t>
-  </si>
-  <si>
-    <t>₹30  175 g</t>
-  </si>
-  <si>
-    <t>₹147  700 g</t>
-  </si>
-  <si>
-    <t>₹139  700 g</t>
-  </si>
-  <si>
-    <t>₹279  4 pcs</t>
-  </si>
-  <si>
-    <t>₹121  1.1 kg</t>
-  </si>
-  <si>
-    <t>₹315  125 g</t>
-  </si>
-  <si>
-    <t>₹161  850 g</t>
-  </si>
-  <si>
-    <t>₹105  600 g</t>
-  </si>
-  <si>
-    <t>₹64  250 g</t>
-  </si>
-  <si>
-    <t>₹31  550 g</t>
-  </si>
-  <si>
-    <t>₹33  550 g</t>
-  </si>
-  <si>
-    <t>₹332  950 g</t>
-  </si>
-  <si>
-    <t>₹156  650 g</t>
-  </si>
-  <si>
-    <t>₹150  350 g</t>
-  </si>
-  <si>
-    <t>₹155  600 g</t>
-  </si>
-  <si>
-    <t>₹134  2 pcs</t>
-  </si>
-  <si>
-    <t>₹142  750 g</t>
-  </si>
-  <si>
-    <t>₹55  100 g</t>
-  </si>
-  <si>
-    <t>₹123  300 g</t>
-  </si>
-  <si>
-    <t>₹299  250 g</t>
-  </si>
-  <si>
-    <t>₹99  1.1 kg</t>
-  </si>
-  <si>
-    <t>₹238  450 g</t>
-  </si>
-  <si>
-    <t>₹66  1 pc</t>
-  </si>
-  <si>
-    <t>₹149  200 g</t>
-  </si>
-  <si>
-    <t>₹314  950 g</t>
-  </si>
-  <si>
-    <t>₹342  900 g</t>
-  </si>
-  <si>
-    <t>₹330  200 g</t>
-  </si>
-  <si>
-    <t>₹155  220 g</t>
-  </si>
-  <si>
-    <t>₹115  250 g</t>
-  </si>
-  <si>
-    <t>₹128  600 g</t>
-  </si>
-  <si>
-    <t>₹100  500 g</t>
-  </si>
-  <si>
-    <t>₹149  1 pc</t>
-  </si>
-  <si>
-    <t>₹63  30 pcs</t>
-  </si>
-  <si>
-    <t>₹180  750 g</t>
-  </si>
-  <si>
-    <t>₹39  1 pc</t>
-  </si>
-  <si>
-    <t>₹224  700 g</t>
-  </si>
-  <si>
     <t>₹29  4 pcs</t>
   </si>
   <si>
@@ -2333,6 +2447,9 @@
     <t>220 g</t>
   </si>
   <si>
+    <t>1.4 kg</t>
+  </si>
+  <si>
     <t>30 pcs</t>
   </si>
   <si>
@@ -2342,9 +2459,6 @@
     <t>2023-10-17 05:13:58</t>
   </si>
   <si>
-    <t>2023-10-17 16:53:17.002749+05:30</t>
-  </si>
-  <si>
     <t>2023-10-19 11:39:55.661413+05:30</t>
   </si>
   <si>
@@ -2354,16 +2468,16 @@
     <t>2023-10-23 09:39:48.807345+05:30</t>
   </si>
   <si>
-    <t>2023-10-24 18:45:02.138885+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:45:02.154510+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:45:02.170135+05:30</t>
-  </si>
-  <si>
-    <t>2023-10-24 18:45:02.185759+05:30</t>
+    <t>2023-10-25 09:38:35.799350+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:35.814975+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:35.830600+05:30</t>
+  </si>
+  <si>
+    <t>2023-10-25 09:38:35.846226+05:30</t>
   </si>
 </sst>
 </file>
@@ -2908,7 +3022,7 @@
         <v>485</v>
       </c>
       <c r="G8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2931,7 +3045,7 @@
         <v>489</v>
       </c>
       <c r="G9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2954,7 +3068,7 @@
         <v>487</v>
       </c>
       <c r="G10" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2977,7 +3091,7 @@
         <v>485</v>
       </c>
       <c r="G11" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3000,7 +3114,7 @@
         <v>490</v>
       </c>
       <c r="G12" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3023,7 +3137,7 @@
         <v>491</v>
       </c>
       <c r="G13" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3046,7 +3160,7 @@
         <v>492</v>
       </c>
       <c r="G14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3069,7 +3183,7 @@
         <v>490</v>
       </c>
       <c r="G15" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3092,7 +3206,7 @@
         <v>493</v>
       </c>
       <c r="G16" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3115,7 +3229,7 @@
         <v>494</v>
       </c>
       <c r="G17" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3138,7 +3252,7 @@
         <v>485</v>
       </c>
       <c r="G18" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3161,7 +3275,7 @@
         <v>495</v>
       </c>
       <c r="G19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3184,7 +3298,7 @@
         <v>496</v>
       </c>
       <c r="G20" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3207,7 +3321,7 @@
         <v>491</v>
       </c>
       <c r="G21" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3230,7 +3344,7 @@
         <v>485</v>
       </c>
       <c r="G22" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3253,7 +3367,7 @@
         <v>495</v>
       </c>
       <c r="G23" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3276,7 +3390,7 @@
         <v>497</v>
       </c>
       <c r="G24" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3299,7 +3413,7 @@
         <v>487</v>
       </c>
       <c r="G25" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3322,7 +3436,7 @@
         <v>487</v>
       </c>
       <c r="G26" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3345,7 +3459,7 @@
         <v>498</v>
       </c>
       <c r="G27" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3368,7 +3482,7 @@
         <v>499</v>
       </c>
       <c r="G28" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3391,7 +3505,7 @@
         <v>488</v>
       </c>
       <c r="G29" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3414,7 +3528,7 @@
         <v>500</v>
       </c>
       <c r="G30" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3437,7 +3551,7 @@
         <v>495</v>
       </c>
       <c r="G31" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3460,7 +3574,7 @@
         <v>501</v>
       </c>
       <c r="G32" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3483,7 +3597,7 @@
         <v>485</v>
       </c>
       <c r="G33" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3506,7 +3620,7 @@
         <v>490</v>
       </c>
       <c r="G34" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3529,7 +3643,7 @@
         <v>485</v>
       </c>
       <c r="G35" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3552,7 +3666,7 @@
         <v>495</v>
       </c>
       <c r="G36" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3575,7 +3689,7 @@
         <v>488</v>
       </c>
       <c r="G37" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3598,7 +3712,7 @@
         <v>495</v>
       </c>
       <c r="G38" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3621,7 +3735,7 @@
         <v>490</v>
       </c>
       <c r="G39" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3644,7 +3758,7 @@
         <v>502</v>
       </c>
       <c r="G40" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3667,7 +3781,7 @@
         <v>494</v>
       </c>
       <c r="G41" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3690,7 +3804,7 @@
         <v>485</v>
       </c>
       <c r="G42" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3713,7 +3827,7 @@
         <v>494</v>
       </c>
       <c r="G43" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3736,7 +3850,7 @@
         <v>485</v>
       </c>
       <c r="G44" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3759,7 +3873,7 @@
         <v>486</v>
       </c>
       <c r="G45" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3782,7 +3896,7 @@
         <v>487</v>
       </c>
       <c r="G46" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3805,7 +3919,7 @@
         <v>485</v>
       </c>
       <c r="G47" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3828,7 +3942,7 @@
         <v>488</v>
       </c>
       <c r="G48" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3851,7 +3965,7 @@
         <v>492</v>
       </c>
       <c r="G49" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3874,7 +3988,7 @@
         <v>503</v>
       </c>
       <c r="G50" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3897,7 +4011,7 @@
         <v>485</v>
       </c>
       <c r="G51" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3920,7 +4034,7 @@
         <v>485</v>
       </c>
       <c r="G52" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3943,7 +4057,7 @@
         <v>485</v>
       </c>
       <c r="G53" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3966,7 +4080,7 @@
         <v>490</v>
       </c>
       <c r="G54" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3989,7 +4103,7 @@
         <v>491</v>
       </c>
       <c r="G55" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4012,7 +4126,7 @@
         <v>504</v>
       </c>
       <c r="G56" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4035,7 +4149,7 @@
         <v>485</v>
       </c>
       <c r="G57" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4058,7 +4172,7 @@
         <v>490</v>
       </c>
       <c r="G58" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4081,7 +4195,7 @@
         <v>488</v>
       </c>
       <c r="G59" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -4104,7 +4218,7 @@
         <v>485</v>
       </c>
       <c r="G60" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -4127,7 +4241,7 @@
         <v>485</v>
       </c>
       <c r="G61" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -4150,7 +4264,7 @@
         <v>499</v>
       </c>
       <c r="G62" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -4173,7 +4287,7 @@
         <v>490</v>
       </c>
       <c r="G63" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -4196,7 +4310,7 @@
         <v>490</v>
       </c>
       <c r="G64" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -4219,7 +4333,7 @@
         <v>488</v>
       </c>
       <c r="G65" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -4242,7 +4356,7 @@
         <v>505</v>
       </c>
       <c r="G66" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -4265,7 +4379,7 @@
         <v>506</v>
       </c>
       <c r="G67" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -4288,7 +4402,7 @@
         <v>495</v>
       </c>
       <c r="G68" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -4311,7 +4425,7 @@
         <v>488</v>
       </c>
       <c r="G69" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -4334,7 +4448,7 @@
         <v>502</v>
       </c>
       <c r="G70" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -4357,7 +4471,7 @@
         <v>488</v>
       </c>
       <c r="G71" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -4380,7 +4494,7 @@
         <v>485</v>
       </c>
       <c r="G72" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -4403,7 +4517,7 @@
         <v>488</v>
       </c>
       <c r="G73" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -4426,7 +4540,7 @@
         <v>507</v>
       </c>
       <c r="G74" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -4449,7 +4563,7 @@
         <v>487</v>
       </c>
       <c r="G75" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4472,7 +4586,7 @@
         <v>490</v>
       </c>
       <c r="G76" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -4495,7 +4609,7 @@
         <v>486</v>
       </c>
       <c r="G77" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4518,7 +4632,7 @@
         <v>493</v>
       </c>
       <c r="G78" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -4541,7 +4655,7 @@
         <v>486</v>
       </c>
       <c r="G79" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -4564,7 +4678,7 @@
         <v>486</v>
       </c>
       <c r="G80" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -4587,7 +4701,7 @@
         <v>486</v>
       </c>
       <c r="G81" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -4610,7 +4724,7 @@
         <v>486</v>
       </c>
       <c r="G82" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4633,7 +4747,7 @@
         <v>493</v>
       </c>
       <c r="G83" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4656,7 +4770,7 @@
         <v>486</v>
       </c>
       <c r="G84" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -4679,7 +4793,7 @@
         <v>485</v>
       </c>
       <c r="G85" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4702,7 +4816,7 @@
         <v>493</v>
       </c>
       <c r="G86" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4725,7 +4839,7 @@
         <v>485</v>
       </c>
       <c r="G87" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4748,7 +4862,7 @@
         <v>493</v>
       </c>
       <c r="G88" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4771,7 +4885,7 @@
         <v>493</v>
       </c>
       <c r="G89" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4794,7 +4908,7 @@
         <v>495</v>
       </c>
       <c r="G90" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4805,7 +4919,7 @@
         <v>236</v>
       </c>
       <c r="C91" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
         <v>421</v>
@@ -4814,10 +4928,10 @@
         <v>484</v>
       </c>
       <c r="F91" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="G91" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4825,10 +4939,10 @@
         <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D92" t="s">
         <v>422</v>
@@ -4837,10 +4951,10 @@
         <v>484</v>
       </c>
       <c r="F92" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="G92" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4848,10 +4962,10 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s">
         <v>423</v>
@@ -4860,10 +4974,10 @@
         <v>484</v>
       </c>
       <c r="F93" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="G93" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4874,7 +4988,7 @@
         <v>238</v>
       </c>
       <c r="C94" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D94" t="s">
         <v>424</v>
@@ -4886,7 +5000,7 @@
         <v>490</v>
       </c>
       <c r="G94" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4897,7 +5011,7 @@
         <v>239</v>
       </c>
       <c r="C95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s">
         <v>425</v>
@@ -4909,7 +5023,7 @@
         <v>487</v>
       </c>
       <c r="G95" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4920,7 +5034,7 @@
         <v>240</v>
       </c>
       <c r="C96" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
         <v>426</v>
@@ -4932,7 +5046,7 @@
         <v>493</v>
       </c>
       <c r="G96" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4943,7 +5057,7 @@
         <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D97" t="s">
         <v>427</v>
@@ -4955,7 +5069,7 @@
         <v>486</v>
       </c>
       <c r="G97" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4978,7 +5092,7 @@
         <v>495</v>
       </c>
       <c r="G98" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5001,7 +5115,7 @@
         <v>485</v>
       </c>
       <c r="G99" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5024,7 +5138,7 @@
         <v>487</v>
       </c>
       <c r="G100" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5047,7 +5161,7 @@
         <v>485</v>
       </c>
       <c r="G101" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5070,7 +5184,7 @@
         <v>494</v>
       </c>
       <c r="G102" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5093,7 +5207,7 @@
         <v>487</v>
       </c>
       <c r="G103" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -5101,10 +5215,10 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D104" t="s">
         <v>431</v>
@@ -5116,7 +5230,7 @@
         <v>494</v>
       </c>
       <c r="G104" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5124,7 +5238,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C105" t="s">
         <v>298</v>
@@ -5139,7 +5253,7 @@
         <v>495</v>
       </c>
       <c r="G105" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5147,10 +5261,10 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
         <v>433</v>
@@ -5162,7 +5276,7 @@
         <v>499</v>
       </c>
       <c r="G106" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5170,10 +5284,10 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C107" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D107" t="s">
         <v>434</v>
@@ -5185,7 +5299,7 @@
         <v>493</v>
       </c>
       <c r="G107" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5193,10 +5307,10 @@
         <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C108" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s">
         <v>435</v>
@@ -5208,7 +5322,7 @@
         <v>499</v>
       </c>
       <c r="G108" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -5219,7 +5333,7 @@
         <v>208</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D109" t="s">
         <v>436</v>
@@ -5231,7 +5345,7 @@
         <v>497</v>
       </c>
       <c r="G109" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -5239,10 +5353,10 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D110" t="s">
         <v>437</v>
@@ -5254,7 +5368,7 @@
         <v>508</v>
       </c>
       <c r="G110" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5262,13 +5376,13 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="D111" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="E111" t="s">
         <v>484</v>
@@ -5277,7 +5391,7 @@
         <v>490</v>
       </c>
       <c r="G111" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -5300,7 +5414,7 @@
         <v>485</v>
       </c>
       <c r="G112" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -5314,7 +5428,7 @@
         <v>329</v>
       </c>
       <c r="D113" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E113" t="s">
         <v>484</v>
@@ -5323,7 +5437,7 @@
         <v>502</v>
       </c>
       <c r="G113" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -5331,13 +5445,13 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
         <v>330</v>
       </c>
       <c r="D114" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E114" t="s">
         <v>484</v>
@@ -5346,7 +5460,7 @@
         <v>485</v>
       </c>
       <c r="G114" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -5360,7 +5474,7 @@
         <v>300</v>
       </c>
       <c r="D115" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E115" t="s">
         <v>484</v>
@@ -5369,7 +5483,7 @@
         <v>509</v>
       </c>
       <c r="G115" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -5377,22 +5491,22 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="E116" t="s">
         <v>484</v>
       </c>
       <c r="F116" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G116" t="s">
-        <v>526</v>
+        <v>548</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -5400,22 +5514,22 @@
         <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="C117" t="s">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="D117" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="E117" t="s">
         <v>484</v>
       </c>
       <c r="F117" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G117" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -5423,22 +5537,22 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D118" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="E118" t="s">
         <v>484</v>
       </c>
       <c r="F118" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G118" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5446,13 +5560,13 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
         <v>332</v>
       </c>
       <c r="D119" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E119" t="s">
         <v>484</v>
@@ -5461,7 +5575,7 @@
         <v>490</v>
       </c>
       <c r="G119" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -5469,22 +5583,22 @@
         <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
         <v>333</v>
       </c>
       <c r="D120" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E120" t="s">
         <v>484</v>
       </c>
       <c r="F120" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="G120" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -5492,22 +5606,22 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
         <v>334</v>
       </c>
       <c r="D121" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E121" t="s">
         <v>484</v>
       </c>
       <c r="F121" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="G121" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -5515,22 +5629,22 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="D122" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="E122" t="s">
         <v>484</v>
       </c>
       <c r="F122" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="G122" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5538,22 +5652,22 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C123" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D123" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E123" t="s">
         <v>484</v>
       </c>
       <c r="F123" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="G123" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5561,22 +5675,22 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C124" t="s">
         <v>336</v>
       </c>
       <c r="D124" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E124" t="s">
         <v>484</v>
       </c>
       <c r="F124" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G124" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -5584,22 +5698,22 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C125" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="D125" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E125" t="s">
         <v>484</v>
       </c>
       <c r="F125" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G125" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5607,22 +5721,22 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C126" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D126" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="E126" t="s">
         <v>484</v>
       </c>
       <c r="F126" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G126" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5630,22 +5744,22 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="D127" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="E127" t="s">
         <v>484</v>
       </c>
       <c r="F127" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G127" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -5653,13 +5767,13 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
         <v>338</v>
       </c>
       <c r="D128" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E128" t="s">
         <v>484</v>
@@ -5668,7 +5782,7 @@
         <v>493</v>
       </c>
       <c r="G128" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -5676,13 +5790,13 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D129" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s">
         <v>484</v>
@@ -5691,7 +5805,7 @@
         <v>493</v>
       </c>
       <c r="G129" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5699,22 +5813,22 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="C130" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="D130" t="s">
-        <v>376</v>
+        <v>451</v>
       </c>
       <c r="E130" t="s">
         <v>484</v>
       </c>
       <c r="F130" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G130" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5722,22 +5836,22 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D131" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="E131" t="s">
         <v>484</v>
       </c>
       <c r="F131" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="G131" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5745,22 +5859,22 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C132" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D132" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="E132" t="s">
         <v>484</v>
       </c>
       <c r="F132" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="G132" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5768,22 +5882,22 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="D133" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="E133" t="s">
         <v>484</v>
       </c>
       <c r="F133" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G133" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5791,22 +5905,22 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C134" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D134" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E134" t="s">
         <v>484</v>
       </c>
       <c r="F134" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G134" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5814,10 +5928,10 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>260</v>
+        <v>195</v>
       </c>
       <c r="C135" t="s">
-        <v>339</v>
+        <v>311</v>
       </c>
       <c r="D135" t="s">
         <v>453</v>
@@ -5826,10 +5940,10 @@
         <v>484</v>
       </c>
       <c r="F135" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G135" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5837,22 +5951,22 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="C136" t="s">
-        <v>284</v>
+        <v>340</v>
       </c>
       <c r="D136" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="E136" t="s">
         <v>484</v>
       </c>
       <c r="F136" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="G136" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5860,22 +5974,22 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="C137" t="s">
-        <v>340</v>
+        <v>284</v>
       </c>
       <c r="D137" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="E137" t="s">
         <v>484</v>
       </c>
       <c r="F137" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G137" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5883,22 +5997,22 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D138" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="E138" t="s">
         <v>484</v>
       </c>
       <c r="F138" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G138" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5906,22 +6020,22 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="D139" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E139" t="s">
         <v>484</v>
       </c>
       <c r="F139" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G139" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5929,22 +6043,22 @@
         <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="C140" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D140" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="E140" t="s">
         <v>484</v>
       </c>
       <c r="F140" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="G140" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5952,22 +6066,22 @@
         <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="D141" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="E141" t="s">
         <v>484</v>
       </c>
       <c r="F141" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G141" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5975,22 +6089,22 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C142" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>457</v>
       </c>
       <c r="E142" t="s">
         <v>484</v>
       </c>
       <c r="F142" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G142" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5998,22 +6112,22 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="C143" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D143" t="s">
-        <v>457</v>
+        <v>372</v>
       </c>
       <c r="E143" t="s">
         <v>484</v>
       </c>
       <c r="F143" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="G143" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6021,10 +6135,10 @@
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C144" t="s">
-        <v>342</v>
+        <v>295</v>
       </c>
       <c r="D144" t="s">
         <v>458</v>
@@ -6033,10 +6147,10 @@
         <v>484</v>
       </c>
       <c r="F144" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="G144" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6044,7 +6158,7 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
         <v>343</v>
@@ -6056,10 +6170,10 @@
         <v>484</v>
       </c>
       <c r="F145" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G145" t="s">
-        <v>527</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6067,7 +6181,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C146" t="s">
         <v>344</v>
@@ -6079,10 +6193,10 @@
         <v>484</v>
       </c>
       <c r="F146" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="G146" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -6090,7 +6204,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C147" t="s">
         <v>345</v>
@@ -6102,10 +6216,10 @@
         <v>484</v>
       </c>
       <c r="F147" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G147" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -6113,7 +6227,7 @@
         <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C148" t="s">
         <v>346</v>
@@ -6128,7 +6242,7 @@
         <v>490</v>
       </c>
       <c r="G148" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -6151,7 +6265,7 @@
         <v>490</v>
       </c>
       <c r="G149" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -6159,10 +6273,10 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C150" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="D150" t="s">
         <v>464</v>
@@ -6171,10 +6285,10 @@
         <v>484</v>
       </c>
       <c r="F150" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G150" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -6182,22 +6296,22 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="C151" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D151" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="E151" t="s">
         <v>484</v>
       </c>
       <c r="F151" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G151" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -6205,22 +6319,22 @@
         <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C152" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="D152" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E152" t="s">
         <v>484</v>
       </c>
       <c r="F152" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G152" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -6228,10 +6342,10 @@
         <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="D153" t="s">
         <v>466</v>
@@ -6243,7 +6357,7 @@
         <v>490</v>
       </c>
       <c r="G153" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -6251,10 +6365,10 @@
         <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
       <c r="C154" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D154" t="s">
         <v>467</v>
@@ -6263,10 +6377,10 @@
         <v>484</v>
       </c>
       <c r="F154" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="G154" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -6274,10 +6388,10 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C155" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="D155" t="s">
         <v>468</v>
@@ -6286,10 +6400,10 @@
         <v>484</v>
       </c>
       <c r="F155" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G155" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -6297,10 +6411,10 @@
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C156" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D156" t="s">
         <v>469</v>
@@ -6309,10 +6423,10 @@
         <v>484</v>
       </c>
       <c r="F156" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G156" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -6335,7 +6449,7 @@
         <v>506</v>
       </c>
       <c r="G157" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -6349,7 +6463,7 @@
         <v>300</v>
       </c>
       <c r="D158" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E158" t="s">
         <v>484</v>
@@ -6358,7 +6472,7 @@
         <v>497</v>
       </c>
       <c r="G158" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -6369,7 +6483,7 @@
         <v>190</v>
       </c>
       <c r="C159" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D159" t="s">
         <v>471</v>
@@ -6381,7 +6495,7 @@
         <v>506</v>
       </c>
       <c r="G159" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -6389,22 +6503,22 @@
         <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C160" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="D160" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="E160" t="s">
         <v>484</v>
       </c>
       <c r="F160" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="G160" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -6412,22 +6526,22 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C161" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D161" t="s">
-        <v>464</v>
+        <v>420</v>
       </c>
       <c r="E161" t="s">
         <v>484</v>
       </c>
       <c r="F161" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G161" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -6435,13 +6549,13 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C162" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E162" t="s">
         <v>484</v>
@@ -6450,7 +6564,7 @@
         <v>486</v>
       </c>
       <c r="G162" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6464,7 +6578,7 @@
         <v>300</v>
       </c>
       <c r="D163" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E163" t="s">
         <v>484</v>
@@ -6473,7 +6587,7 @@
         <v>486</v>
       </c>
       <c r="G163" t="s">
-        <v>527</v>
+        <v>558</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6481,13 +6595,13 @@
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="D164" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="E164" t="s">
         <v>484</v>
@@ -6496,7 +6610,7 @@
         <v>486</v>
       </c>
       <c r="G164" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -6504,10 +6618,10 @@
         <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="C165" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="D165" t="s">
         <v>473</v>
@@ -6516,10 +6630,10 @@
         <v>484</v>
       </c>
       <c r="F165" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G165" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6527,22 +6641,22 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="D166" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E166" t="s">
         <v>484</v>
       </c>
       <c r="F166" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="G166" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6550,10 +6664,10 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="C167" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="D167" t="s">
         <v>475</v>
@@ -6562,10 +6676,10 @@
         <v>484</v>
       </c>
       <c r="F167" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G167" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -6573,10 +6687,10 @@
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D168" t="s">
         <v>476</v>
@@ -6588,7 +6702,7 @@
         <v>514</v>
       </c>
       <c r="G168" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -6596,22 +6710,22 @@
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C169" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D169" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E169" t="s">
         <v>484</v>
       </c>
       <c r="F169" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G169" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -6619,22 +6733,22 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C170" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D170" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E170" t="s">
         <v>484</v>
       </c>
       <c r="F170" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G170" t="s">
-        <v>528</v>
+        <v>559</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6642,10 +6756,10 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C171" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D171" t="s">
         <v>477</v>
@@ -6657,7 +6771,7 @@
         <v>515</v>
       </c>
       <c r="G171" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6665,22 +6779,22 @@
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C172" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D172" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E172" t="s">
         <v>484</v>
       </c>
       <c r="F172" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G172" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -6688,22 +6802,22 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="C173" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="D173" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E173" t="s">
         <v>484</v>
       </c>
       <c r="F173" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G173" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6711,10 +6825,10 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="C174" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
       <c r="D174" t="s">
         <v>479</v>
@@ -6723,10 +6837,10 @@
         <v>484</v>
       </c>
       <c r="F174" t="s">
-        <v>494</v>
+        <v>517</v>
       </c>
       <c r="G174" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6734,13 +6848,13 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C175" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D175" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="E175" t="s">
         <v>484</v>
@@ -6749,7 +6863,7 @@
         <v>490</v>
       </c>
       <c r="G175" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -6757,13 +6871,13 @@
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D176" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="E176" t="s">
         <v>484</v>
@@ -6772,7 +6886,7 @@
         <v>490</v>
       </c>
       <c r="G176" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6780,10 +6894,10 @@
         <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="C177" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D177" t="s">
         <v>481</v>
@@ -6795,7 +6909,7 @@
         <v>490</v>
       </c>
       <c r="G177" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6803,10 +6917,10 @@
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="C178" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D178" t="s">
         <v>482</v>
@@ -6815,10 +6929,10 @@
         <v>484</v>
       </c>
       <c r="F178" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G178" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6826,22 +6940,22 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C179" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="D179" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="E179" t="s">
         <v>484</v>
       </c>
       <c r="F179" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="G179" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6849,22 +6963,22 @@
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="C180" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="D180" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="E180" t="s">
         <v>484</v>
       </c>
       <c r="F180" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G180" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -6874,7 +6988,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6905,1589 +7019,1635 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="B2" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="C2" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="D2" t="s">
-        <v>695</v>
+        <v>732</v>
       </c>
       <c r="E2" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F2" t="s">
         <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="C3" t="s">
-        <v>649</v>
+        <v>354</v>
       </c>
       <c r="D3" t="s">
-        <v>696</v>
+        <v>733</v>
       </c>
       <c r="E3" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F3" t="s">
-        <v>511</v>
+        <v>798</v>
       </c>
       <c r="G3" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="C4" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="D4" t="s">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="E4" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F4" t="s">
-        <v>760</v>
+        <v>494</v>
       </c>
       <c r="G4" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="B5" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>685</v>
       </c>
       <c r="D5" t="s">
-        <v>698</v>
+        <v>735</v>
       </c>
       <c r="E5" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F5" t="s">
-        <v>494</v>
+        <v>799</v>
       </c>
       <c r="G5" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="C6" t="s">
-        <v>650</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>699</v>
+        <v>736</v>
       </c>
       <c r="E6" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F6" t="s">
-        <v>761</v>
+        <v>511</v>
       </c>
       <c r="G6" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="B7" t="s">
-        <v>604</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>306</v>
+        <v>686</v>
       </c>
       <c r="D7" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="E7" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F7" t="s">
         <v>511</v>
       </c>
       <c r="G7" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>639</v>
       </c>
       <c r="C8" t="s">
-        <v>651</v>
+        <v>687</v>
       </c>
       <c r="D8" t="s">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="E8" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F8" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="G8" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>652</v>
+        <v>688</v>
       </c>
       <c r="D9" t="s">
-        <v>702</v>
+        <v>739</v>
       </c>
       <c r="E9" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F9" t="s">
-        <v>486</v>
+        <v>799</v>
       </c>
       <c r="G9" t="s">
-        <v>779</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>653</v>
+        <v>291</v>
       </c>
       <c r="D10" t="s">
-        <v>703</v>
+        <v>376</v>
       </c>
       <c r="E10" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F10" t="s">
-        <v>761</v>
+        <v>485</v>
       </c>
       <c r="G10" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>640</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>740</v>
       </c>
       <c r="E11" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F11" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="G11" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="B12" t="s">
-        <v>606</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>275</v>
+        <v>689</v>
       </c>
       <c r="D12" t="s">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="E12" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F12" t="s">
-        <v>501</v>
+        <v>798</v>
       </c>
       <c r="G12" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="C13" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="D13" t="s">
-        <v>705</v>
+        <v>742</v>
       </c>
       <c r="E13" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F13" t="s">
-        <v>760</v>
+        <v>488</v>
       </c>
       <c r="G13" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="B14" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="C14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D14" t="s">
         <v>433</v>
       </c>
       <c r="E14" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F14" t="s">
         <v>499</v>
       </c>
       <c r="G14" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="B15" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="C15" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="D15" t="s">
-        <v>706</v>
+        <v>743</v>
       </c>
       <c r="E15" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F15" t="s">
         <v>495</v>
       </c>
       <c r="G15" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="B16" t="s">
         <v>213</v>
       </c>
       <c r="C16" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
       <c r="D16" t="s">
-        <v>707</v>
+        <v>744</v>
       </c>
       <c r="E16" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F16" t="s">
         <v>497</v>
       </c>
       <c r="G16" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="B17" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="C17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E17" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F17" t="s">
         <v>497</v>
       </c>
       <c r="G17" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="B18" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="C18" t="s">
         <v>301</v>
       </c>
       <c r="D18" t="s">
-        <v>708</v>
+        <v>745</v>
       </c>
       <c r="E18" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F18" t="s">
         <v>501</v>
       </c>
       <c r="G18" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="B19" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="C19" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="D19" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="E19" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F19" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="G19" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="B20" t="s">
-        <v>600</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>658</v>
+        <v>326</v>
       </c>
       <c r="D20" t="s">
-        <v>710</v>
+        <v>747</v>
       </c>
       <c r="E20" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G20" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="B21" t="s">
-        <v>236</v>
+        <v>646</v>
       </c>
       <c r="C21" t="s">
-        <v>327</v>
+        <v>694</v>
       </c>
       <c r="D21" t="s">
-        <v>711</v>
+        <v>748</v>
       </c>
       <c r="E21" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F21" t="s">
         <v>502</v>
       </c>
       <c r="G21" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="B22" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="C22" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="D22" t="s">
-        <v>712</v>
+        <v>749</v>
       </c>
       <c r="E22" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F22" t="s">
         <v>494</v>
       </c>
       <c r="G22" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="B23" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="C23" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="D23" t="s">
-        <v>713</v>
+        <v>750</v>
       </c>
       <c r="E23" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="G23" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="C24" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="D24" t="s">
-        <v>714</v>
+        <v>751</v>
       </c>
       <c r="E24" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F24" t="s">
-        <v>762</v>
+        <v>514</v>
       </c>
       <c r="G24" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
       <c r="B25" t="s">
-        <v>260</v>
+        <v>649</v>
       </c>
       <c r="C25" t="s">
-        <v>662</v>
+        <v>698</v>
       </c>
       <c r="D25" t="s">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="E25" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F25" t="s">
-        <v>763</v>
+        <v>800</v>
       </c>
       <c r="G25" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
       <c r="B26" t="s">
-        <v>615</v>
+        <v>262</v>
       </c>
       <c r="C26" t="s">
-        <v>663</v>
+        <v>699</v>
       </c>
       <c r="D26" t="s">
-        <v>716</v>
+        <v>753</v>
       </c>
       <c r="E26" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F26" t="s">
-        <v>513</v>
+        <v>801</v>
       </c>
       <c r="G26" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
       <c r="B27" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>700</v>
       </c>
       <c r="D27" t="s">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="E27" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F27" t="s">
-        <v>764</v>
+        <v>514</v>
       </c>
       <c r="G27" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>651</v>
       </c>
       <c r="C28" t="s">
-        <v>664</v>
+        <v>289</v>
       </c>
       <c r="D28" t="s">
-        <v>718</v>
+        <v>755</v>
       </c>
       <c r="E28" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F28" t="s">
-        <v>501</v>
+        <v>802</v>
       </c>
       <c r="G28" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="B29" t="s">
-        <v>617</v>
+        <v>195</v>
       </c>
       <c r="C29" t="s">
-        <v>313</v>
+        <v>701</v>
       </c>
       <c r="D29" t="s">
-        <v>719</v>
+        <v>756</v>
       </c>
       <c r="E29" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F29" t="s">
-        <v>765</v>
+        <v>501</v>
       </c>
       <c r="G29" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
       <c r="B30" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="C30" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="D30" t="s">
-        <v>720</v>
+        <v>757</v>
       </c>
       <c r="E30" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F30" t="s">
-        <v>495</v>
+        <v>803</v>
       </c>
       <c r="G30" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="B31" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="C31" t="s">
-        <v>665</v>
+        <v>337</v>
       </c>
       <c r="D31" t="s">
-        <v>721</v>
+        <v>758</v>
       </c>
       <c r="E31" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F31" t="s">
         <v>495</v>
       </c>
       <c r="G31" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="B32" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="C32" t="s">
-        <v>666</v>
+        <v>338</v>
       </c>
       <c r="D32" t="s">
-        <v>722</v>
+        <v>759</v>
       </c>
       <c r="E32" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F32" t="s">
-        <v>766</v>
+        <v>495</v>
       </c>
       <c r="G32" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
       <c r="B33" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="C33" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="D33" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="E33" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F33" t="s">
-        <v>767</v>
+        <v>804</v>
       </c>
       <c r="G33" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
       <c r="B34" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="C34" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="D34" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="E34" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F34" t="s">
-        <v>517</v>
+        <v>805</v>
       </c>
       <c r="G34" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="B35" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="C35" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="D35" t="s">
-        <v>725</v>
+        <v>762</v>
       </c>
       <c r="E35" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F35" t="s">
-        <v>768</v>
+        <v>513</v>
       </c>
       <c r="G35" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
       <c r="B36" t="s">
-        <v>194</v>
+        <v>658</v>
       </c>
       <c r="C36" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="D36" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="E36" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F36" t="s">
-        <v>487</v>
+        <v>806</v>
       </c>
       <c r="G36" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
       <c r="B37" t="s">
-        <v>624</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="D37" t="s">
-        <v>727</v>
+        <v>764</v>
       </c>
       <c r="E37" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F37" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G37" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>659</v>
       </c>
       <c r="C38" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="D38" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="E38" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F38" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="G38" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="C39" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="D39" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="E39" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F39" t="s">
         <v>511</v>
       </c>
       <c r="G39" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
       <c r="B40" t="s">
-        <v>625</v>
+        <v>244</v>
       </c>
       <c r="C40" t="s">
-        <v>674</v>
+        <v>291</v>
       </c>
       <c r="D40" t="s">
-        <v>730</v>
+        <v>376</v>
       </c>
       <c r="E40" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F40" t="s">
-        <v>769</v>
+        <v>485</v>
       </c>
       <c r="G40" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>335</v>
+        <v>709</v>
       </c>
       <c r="D41" t="s">
-        <v>731</v>
+        <v>767</v>
       </c>
       <c r="E41" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F41" t="s">
-        <v>760</v>
+        <v>511</v>
       </c>
       <c r="G41" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
       <c r="B42" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
       <c r="C42" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="D42" t="s">
-        <v>732</v>
+        <v>768</v>
       </c>
       <c r="E42" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F42" t="s">
-        <v>761</v>
+        <v>807</v>
       </c>
       <c r="G42" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="B43" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="C43" t="s">
-        <v>676</v>
+        <v>336</v>
       </c>
       <c r="D43" t="s">
-        <v>733</v>
+        <v>769</v>
       </c>
       <c r="E43" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F43" t="s">
-        <v>487</v>
+        <v>798</v>
       </c>
       <c r="G43" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="B44" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
       <c r="C44" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="D44" t="s">
-        <v>734</v>
+        <v>770</v>
       </c>
       <c r="E44" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F44" t="s">
-        <v>513</v>
+        <v>799</v>
       </c>
       <c r="G44" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="B45" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="C45" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="D45" t="s">
-        <v>735</v>
+        <v>771</v>
       </c>
       <c r="E45" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F45" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="G45" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="B46" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="C46" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="D46" t="s">
-        <v>736</v>
+        <v>772</v>
       </c>
       <c r="E46" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F46" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="G46" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="B47" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="C47" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="D47" t="s">
-        <v>737</v>
+        <v>773</v>
       </c>
       <c r="E47" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F47" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G47" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="B48" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
       <c r="C48" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="D48" t="s">
-        <v>738</v>
+        <v>774</v>
       </c>
       <c r="E48" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F48" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G48" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
       <c r="B49" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="C49" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="D49" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="E49" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F49" t="s">
-        <v>767</v>
+        <v>499</v>
       </c>
       <c r="G49" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="B50" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="C50" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="D50" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="E50" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F50" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="G50" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
       <c r="B51" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="C51" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="D51" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="E51" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F51" t="s">
-        <v>502</v>
+        <v>805</v>
       </c>
       <c r="G51" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
       <c r="B52" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
       <c r="C52" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="D52" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="E52" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F52" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="G52" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="B53" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
       <c r="C53" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="D53" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="E53" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F53" t="s">
-        <v>769</v>
+        <v>502</v>
       </c>
       <c r="G53" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
       <c r="B54" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="C54" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="D54" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="E54" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F54" t="s">
-        <v>770</v>
+        <v>497</v>
       </c>
       <c r="G54" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
       <c r="B55" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="C55" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="D55" t="s">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="E55" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F55" t="s">
-        <v>497</v>
+        <v>807</v>
       </c>
       <c r="G55" t="s">
-        <v>781</v>
+        <v>819</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="B56" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="C56" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="D56" t="s">
-        <v>746</v>
+        <v>782</v>
       </c>
       <c r="E56" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F56" t="s">
-        <v>771</v>
+        <v>808</v>
       </c>
       <c r="G56" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="B57" t="s">
-        <v>192</v>
+        <v>675</v>
       </c>
       <c r="C57" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="D57" t="s">
-        <v>747</v>
+        <v>783</v>
       </c>
       <c r="E57" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F57" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="G57" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="B58" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="C58" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="D58" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="E58" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F58" t="s">
-        <v>487</v>
+        <v>809</v>
       </c>
       <c r="G58" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="B59" t="s">
-        <v>619</v>
+        <v>192</v>
       </c>
       <c r="C59" t="s">
-        <v>324</v>
+        <v>724</v>
       </c>
       <c r="D59" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="E59" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F59" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="G59" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="B60" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="C60" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="D60" t="s">
-        <v>750</v>
+        <v>786</v>
       </c>
       <c r="E60" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="G60" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>678</v>
       </c>
       <c r="C61" t="s">
-        <v>691</v>
+        <v>323</v>
       </c>
       <c r="D61" t="s">
-        <v>412</v>
+        <v>787</v>
       </c>
       <c r="E61" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F61" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G61" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="B62" t="s">
-        <v>616</v>
+        <v>679</v>
       </c>
       <c r="C62" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="D62" t="s">
-        <v>751</v>
+        <v>788</v>
       </c>
       <c r="E62" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F62" t="s">
-        <v>772</v>
+        <v>502</v>
       </c>
       <c r="G62" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="B63" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>335</v>
+        <v>727</v>
       </c>
       <c r="D63" t="s">
-        <v>752</v>
+        <v>412</v>
       </c>
       <c r="E63" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F63" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="G63" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>680</v>
       </c>
       <c r="C64" t="s">
-        <v>342</v>
+        <v>728</v>
       </c>
       <c r="D64" t="s">
-        <v>458</v>
+        <v>789</v>
       </c>
       <c r="E64" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F64" t="s">
-        <v>511</v>
+        <v>810</v>
       </c>
       <c r="G64" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
       <c r="B65" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="C65" t="s">
-        <v>693</v>
+        <v>729</v>
       </c>
       <c r="D65" t="s">
-        <v>753</v>
+        <v>790</v>
       </c>
       <c r="E65" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F65" t="s">
-        <v>502</v>
+        <v>811</v>
       </c>
       <c r="G65" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="B66" t="s">
-        <v>645</v>
+        <v>258</v>
       </c>
       <c r="C66" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D66" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
       <c r="E66" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F66" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G66" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="B67" t="s">
-        <v>646</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>317</v>
+        <v>343</v>
       </c>
       <c r="D67" t="s">
-        <v>755</v>
+        <v>459</v>
       </c>
       <c r="E67" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F67" t="s">
-        <v>766</v>
+        <v>511</v>
       </c>
       <c r="G67" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>681</v>
       </c>
       <c r="C68" t="s">
-        <v>271</v>
+        <v>730</v>
       </c>
       <c r="D68" t="s">
-        <v>756</v>
+        <v>792</v>
       </c>
       <c r="E68" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F68" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="G68" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="B69" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="C69" t="s">
-        <v>271</v>
+        <v>317</v>
       </c>
       <c r="D69" t="s">
-        <v>757</v>
+        <v>793</v>
       </c>
       <c r="E69" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F69" t="s">
-        <v>502</v>
+        <v>804</v>
       </c>
       <c r="G69" t="s">
-        <v>782</v>
+        <v>820</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B70" t="s">
-        <v>647</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>694</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s">
-        <v>758</v>
+        <v>794</v>
       </c>
       <c r="E70" t="s">
-        <v>759</v>
+        <v>797</v>
       </c>
       <c r="F70" t="s">
-        <v>773</v>
+        <v>502</v>
       </c>
       <c r="G70" t="s">
-        <v>782</v>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>632</v>
+      </c>
+      <c r="B71" t="s">
+        <v>679</v>
+      </c>
+      <c r="C71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" t="s">
+        <v>795</v>
+      </c>
+      <c r="E71" t="s">
+        <v>797</v>
+      </c>
+      <c r="F71" t="s">
+        <v>502</v>
+      </c>
+      <c r="G71" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>633</v>
+      </c>
+      <c r="B72" t="s">
+        <v>683</v>
+      </c>
+      <c r="C72" t="s">
+        <v>731</v>
+      </c>
+      <c r="D72" t="s">
+        <v>796</v>
+      </c>
+      <c r="E72" t="s">
+        <v>797</v>
+      </c>
+      <c r="F72" t="s">
+        <v>812</v>
+      </c>
+      <c r="G72" t="s">
+        <v>820</v>
       </c>
     </row>
   </sheetData>
